--- a/data/livres.xlsx
+++ b/data/livres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="1837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3508" uniqueCount="1860">
   <si>
     <t xml:space="preserve">titre</t>
   </si>
@@ -2323,6 +2323,9 @@
     <t xml:space="preserve">Collins classics</t>
   </si>
   <si>
+    <t xml:space="preserve">Les étranges aventures de Gulliver, de l’île des Llliputiens à l’île volante de Laputa.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A feast for crows</t>
   </si>
   <si>
@@ -2332,22 +2335,37 @@
     <t xml:space="preserve">Bantam books</t>
   </si>
   <si>
+    <t xml:space="preserve">La quatrième tome de la saga Game of Thrones.</t>
+  </si>
+  <si>
     <t xml:space="preserve">A dance with dragons</t>
   </si>
   <si>
+    <t xml:space="preserve">Le cinquième tome de la saga Game of Thrones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les aventures de Martin Eden, marin d’Oakland amoureux et désirant éperdument la littérature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny est aide-soignant dans un hospice où, grâce à ses pouvoirs surnaturels, il apaise la souffrance des mourants. Lorsqu’il rencontre Abra, 12 ans, pourchassée par d’étranges voyageurs, il retombe dans l’horreur.</t>
+  </si>
+  <si>
     <t xml:space="preserve">El viaje del elefante</t>
   </si>
   <si>
     <t xml:space="preserve">punto de lectura</t>
   </si>
   <si>
+    <t xml:space="preserve">En 1551, le roi de Portugal offre à l’archiduc Maximilien d Autriche un éléphant d Asie, Salomon. Celui-ci, objet d'absurdes stratégies, traverse l’Europe au gré des caprices royaux, des querelles militaires et des intérêts ecclésiastiques. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Los funerales de la Mama Grande</t>
   </si>
   <si>
     <t xml:space="preserve">Gabriel Garcia Marquez</t>
   </si>
   <si>
-    <t xml:space="preserve">Le vida sale al encuentro</t>
+    <t xml:space="preserve">Recueil de nouvelles exposant les préoccupations de l’auteur sur les thèmes de la mémoire, du temps, de la mort et de la solitude.</t>
   </si>
   <si>
     <t xml:space="preserve">J. L. Martin Vigil</t>
@@ -2356,18 +2374,33 @@
     <t xml:space="preserve">Editorial Juventud</t>
   </si>
   <si>
+    <t xml:space="preserve">La vie d’un garçon de quinze ans au sein de sa famille, ses amis et ses camarades de pensionnats tout au long d’une année troublée.</t>
+  </si>
+  <si>
     <t xml:space="preserve">booket</t>
   </si>
   <si>
+    <t xml:space="preserve">Recueil de nouvelles combinant farce, épisodes sexuels et humour.</t>
+  </si>
+  <si>
     <t xml:space="preserve">C. S. Lewis</t>
   </si>
   <si>
+    <t xml:space="preserve">Les conseils d’un démon expérimenté à son neveu qui débute dans le métier pour mener à sa chute le chrétien dont il a la charge.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Con quién me casaré ?</t>
   </si>
   <si>
     <t xml:space="preserve">Editorial Unilit</t>
   </si>
   <si>
+    <t xml:space="preserve">Livre d’inspiration religieuse destiné aux jeunes qui rêvent de fiançailles et de mariage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recueil de psaumes invitant à se décharger des fardeaux de nos vies quotidiennes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Un asunto pendiente</t>
   </si>
   <si>
@@ -2377,7 +2410,20 @@
     <t xml:space="preserve">Suma</t>
   </si>
   <si>
-    <t xml:space="preserve">Historia del tiempo</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos narrow"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">La vie est belle pour Duncan Richards, jeune banquier prospère, et sa femme Megan, agente immobilière. Jusqu'au jour où un simple coup de téléphone transforme le rêve en cauchemar.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Breve historia del tiempo</t>
   </si>
   <si>
     <t xml:space="preserve">Stephen W. Hawking</t>
@@ -2386,6 +2432,9 @@
     <t xml:space="preserve">Alianza editorial</t>
   </si>
   <si>
+    <t xml:space="preserve">Ouvrage de vulgarisation scientifique traitant de cosmologie et décrivant de manière simple les théories les plus communément admises sur la structure, l’origine et l’évolution de l’univers.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Melodrama</t>
   </si>
   <si>
@@ -2395,6 +2444,9 @@
     <t xml:space="preserve">Planeta</t>
   </si>
   <si>
+    <t xml:space="preserve">Vidal entend marier sa mère à un vieux comte fortuné et hériter de lui. A la mort accidentelle de celui-ci, il se trouve confronté à son neveu, bien décidé à l’empêcher d’hériter de la fortune familiale.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Le maître du haut chateau</t>
   </si>
   <si>
@@ -2404,30 +2456,51 @@
     <t xml:space="preserve">J'ai lu</t>
   </si>
   <si>
+    <t xml:space="preserve">Science-Fiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roman uchronique figurant un monde alternatif où l’Allemagne nazie, l’empire du Japon et l’Italie fasciste sont sortis vainqueurs de la Seconde Guerre mondiale.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ce que disent les morts</t>
   </si>
   <si>
+    <t xml:space="preserve">Cryogénisé à sa mort, le très puissant et richissime Louis Sarapis n'a pu être ranimé ; pourtant, il continue à diriger son entreprise et à intervenir dans la vie politique américaine ! </t>
+  </si>
+  <si>
     <t xml:space="preserve">Blade runner</t>
   </si>
   <si>
+    <t xml:space="preserve">Les androïdes rêvent-ils de moutons électriques ? Dans une monde post-guerre nucléaire, Rick Deckard se fait chasseur d’androïdes, lesquels tentent de vivre une vie pacifique émancipée du contrôle des Hommes.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Substance Mort</t>
   </si>
   <si>
     <t xml:space="preserve">Folio SF</t>
   </si>
   <si>
+    <t xml:space="preserve">Les chemins croisés d’un drogué, un génie de la chimie et un agent de la brigade des stups dans un monde où règne la Substance Mort, une drogue qui détruit l’identité.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red Flag</t>
   </si>
   <si>
     <t xml:space="preserve">Mira Grant</t>
   </si>
   <si>
+    <t xml:space="preserve">Troisième tome d’une trilogie se déroulant dans une Amérique post-zombie.  Shaun Mason et son équipe sont de nouveau sur le sentier de la guerre, lequel s’avère truffé d’obstacles.</t>
+  </si>
+  <si>
     <t xml:space="preserve">J'ai quinze ans et je ne veux pas mourir ; Il n'est pas si facile de vivre</t>
   </si>
   <si>
     <t xml:space="preserve">Christine Anorthy</t>
   </si>
   <si>
+    <t xml:space="preserve">Roman autobiographique racontant la vie quotidienne et les angoisses d’une jeune fille hongroise lors du siège de Budapest en 1945.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Des vies et des poussières</t>
   </si>
   <si>
@@ -2437,10 +2510,16 @@
     <t xml:space="preserve">calmann-lévy</t>
   </si>
   <si>
+    <t xml:space="preserve">Un recueil de nouvelles à l’atmosphère drolatique, des bribes d’existence où quelque chose se disloque. Un univers souvent cruel et assassin mais jamais loin de l’absurde ni dénué d’humour. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Histoires de la mer</t>
   </si>
   <si>
     <t xml:space="preserve">Jacques Attali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plongée dans la géologie ancienne et la mer primitive, les colonisations humaines en passant par les mythes, les trésors cachés, tout ce qui a nourri l’imaginaire de la mer depuis des siècles</t>
   </si>
   <si>
     <t xml:space="preserve">La condition humaine</t>
@@ -5570,7 +5649,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5606,6 +5685,34 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos narrow "/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos narrow"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos narrow"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -5677,7 +5784,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5694,11 +5801,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5706,15 +5825,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5722,7 +5841,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5918,9 +6037,9 @@
   <dimension ref="A1:F913"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A827" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F913" activeCellId="0" sqref="F913"/>
+      <selection pane="bottomLeft" activeCell="B346" activeCellId="0" sqref="B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12103,43 +12222,43 @@
         <v>9</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>146</v>
+        <v>757</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>146</v>
+        <v>761</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>146</v>
+        <v>763</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12155,7 +12274,7 @@
         <v>9</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>146</v>
+        <v>764</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12173,33 +12292,33 @@
         <v>9</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>146</v>
+        <v>765</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F348" s="2" t="s">
-        <v>146</v>
+      <c r="F348" s="4" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>729</v>
@@ -12209,25 +12328,25 @@
         <v>9</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>146</v>
+        <v>771</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
-        <v>765</v>
+        <v>401</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>146</v>
+        <v>774</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12238,14 +12357,14 @@
         <v>399</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>146</v>
+        <v>776</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12253,7 +12372,7 @@
         <v>395</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>397</v>
@@ -12263,25 +12382,25 @@
         <v>9</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>146</v>
+        <v>778</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>394</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>146</v>
+        <v>781</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12292,166 +12411,166 @@
         <v>390</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="355" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>146</v>
+        <v>22</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>146</v>
+        <v>790</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>146</v>
+        <v>794</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2" t="s">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>146</v>
+        <v>799</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>692</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F359" s="2" t="s">
-        <v>146</v>
+        <v>798</v>
+      </c>
+      <c r="F359" s="6" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2" t="s">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>146</v>
+        <v>803</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2" t="s">
-        <v>9</v>
+        <v>798</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>146</v>
+        <v>806</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>146</v>
+        <v>809</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>294</v>
@@ -12461,33 +12580,33 @@
         <v>9</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>146</v>
+        <v>812</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F364" s="2" t="s">
-        <v>146</v>
+      <c r="F364" s="6" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>726</v>
@@ -12497,7 +12616,7 @@
         <v>9</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>146</v>
+        <v>819</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12508,10 +12627,10 @@
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>692</v>
@@ -12520,10 +12639,10 @@
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>64</v>
@@ -12532,24 +12651,24 @@
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>802</v>
+        <v>825</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>804</v>
+        <v>827</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>26</v>
@@ -12558,22 +12677,22 @@
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>808</v>
+        <v>831</v>
       </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>810</v>
+        <v>833</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>26</v>
@@ -12582,94 +12701,94 @@
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>812</v>
+        <v>835</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="D375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="D376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>821</v>
+        <v>844</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="D377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>826</v>
+        <v>849</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>827</v>
+        <v>850</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>828</v>
+        <v>851</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>21</v>
@@ -12678,10 +12797,10 @@
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>830</v>
+        <v>853</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>60</v>
@@ -12690,7 +12809,7 @@
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>831</v>
+        <v>854</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>576</v>
@@ -12702,34 +12821,34 @@
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>832</v>
+        <v>855</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>835</v>
+        <v>858</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>836</v>
+        <v>859</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>837</v>
+        <v>860</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>377</v>
@@ -12738,70 +12857,70 @@
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>838</v>
+        <v>861</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>841</v>
+        <v>864</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>839</v>
+        <v>862</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>843</v>
+        <v>866</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>844</v>
+        <v>867</v>
       </c>
       <c r="D388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>847</v>
+        <v>870</v>
       </c>
       <c r="D389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>848</v>
+        <v>871</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>377</v>
@@ -12810,19 +12929,19 @@
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>851</v>
+        <v>874</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>852</v>
+        <v>875</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>853</v>
+        <v>876</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>29</v>
@@ -12834,106 +12953,106 @@
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>854</v>
+        <v>877</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>856</v>
+        <v>879</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>857</v>
+        <v>880</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>859</v>
+        <v>882</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>860</v>
+        <v>883</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>820</v>
+        <v>843</v>
       </c>
       <c r="D397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>862</v>
+        <v>885</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>863</v>
+        <v>886</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>864</v>
+        <v>887</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>865</v>
+        <v>888</v>
       </c>
       <c r="D399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>866</v>
+        <v>889</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>867</v>
+        <v>890</v>
       </c>
       <c r="D400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>868</v>
+        <v>891</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>869</v>
+        <v>892</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>299</v>
@@ -12942,10 +13061,10 @@
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>871</v>
+        <v>894</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>562</v>
@@ -12954,10 +13073,10 @@
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>873</v>
+        <v>896</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>874</v>
+        <v>897</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>562</v>
@@ -12966,10 +13085,10 @@
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>875</v>
+        <v>898</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>876</v>
+        <v>899</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>26</v>
@@ -12978,10 +13097,10 @@
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>877</v>
+        <v>900</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>878</v>
+        <v>901</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>436</v>
@@ -12990,58 +13109,58 @@
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>879</v>
+        <v>902</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
-        <v>881</v>
+        <v>904</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>882</v>
+        <v>905</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>883</v>
+        <v>906</v>
       </c>
       <c r="D408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>884</v>
+        <v>907</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>887</v>
+        <v>910</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>169</v>
@@ -13050,106 +13169,106 @@
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>888</v>
+        <v>911</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>889</v>
+        <v>912</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="D417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>850</v>
+        <v>873</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="D418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>895</v>
+        <v>918</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="D419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>169</v>
@@ -13158,37 +13277,37 @@
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="D421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>300</v>
@@ -13196,142 +13315,142 @@
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="D424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>842</v>
+        <v>865</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>834</v>
+        <v>857</v>
       </c>
       <c r="D428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>885</v>
+        <v>908</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>840</v>
+        <v>863</v>
       </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>912</v>
+        <v>935</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>813</v>
+        <v>836</v>
       </c>
       <c r="D434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>915</v>
+        <v>938</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>26</v>
@@ -13340,10 +13459,10 @@
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>177</v>
@@ -13352,22 +13471,22 @@
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>886</v>
+        <v>909</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="D437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>920</v>
+        <v>943</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>921</v>
+        <v>944</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>26</v>
@@ -13376,10 +13495,10 @@
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>833</v>
+        <v>856</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>26</v>
@@ -13388,7 +13507,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>414</v>
@@ -13400,10 +13519,10 @@
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>64</v>
@@ -13412,10 +13531,10 @@
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>925</v>
+        <v>948</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>64</v>
@@ -13424,10 +13543,10 @@
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>927</v>
+        <v>950</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>926</v>
+        <v>949</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>26</v>
@@ -13436,10 +13555,10 @@
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>928</v>
+        <v>951</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>929</v>
+        <v>952</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>26</v>
@@ -13448,7 +13567,7 @@
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>930</v>
+        <v>953</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>682</v>
@@ -13460,7 +13579,7 @@
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>931</v>
+        <v>954</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>333</v>
@@ -13472,7 +13591,7 @@
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>932</v>
+        <v>955</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>333</v>
@@ -13484,40 +13603,40 @@
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>933</v>
+        <v>956</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>936</v>
+        <v>959</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>937</v>
+        <v>960</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>938</v>
+        <v>961</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>324</v>
@@ -13528,21 +13647,21 @@
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>527</v>
@@ -13550,10 +13669,10 @@
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>567</v>
@@ -13561,13 +13680,13 @@
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>947</v>
+        <v>970</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13575,7 +13694,7 @@
         <v>563</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>948</v>
+        <v>971</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>521</v>
@@ -13583,10 +13702,10 @@
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>950</v>
+        <v>973</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>567</v>
@@ -13594,7 +13713,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>951</v>
+        <v>974</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>242</v>
@@ -13605,40 +13724,40 @@
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>954</v>
+        <v>977</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>955</v>
+        <v>978</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>954</v>
+        <v>977</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>956</v>
+        <v>979</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>957</v>
+        <v>980</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>958</v>
+        <v>981</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>959</v>
+        <v>982</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>585</v>
@@ -13649,10 +13768,10 @@
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>562</v>
@@ -13660,7 +13779,7 @@
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>962</v>
+        <v>985</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>659</v>
@@ -13671,7 +13790,7 @@
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>963</v>
+        <v>986</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>607</v>
@@ -13682,7 +13801,7 @@
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>964</v>
+        <v>987</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>222</v>
@@ -13693,29 +13812,29 @@
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>965</v>
+        <v>988</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>966</v>
+        <v>989</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>967</v>
+        <v>990</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>968</v>
+        <v>991</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>969</v>
+        <v>992</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>970</v>
+        <v>993</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>971</v>
+        <v>994</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>638</v>
@@ -13732,56 +13851,56 @@
         <v>363</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>970</v>
+        <v>993</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>972</v>
+        <v>995</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>973</v>
+        <v>996</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>975</v>
+        <v>998</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>976</v>
+        <v>999</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>977</v>
+        <v>1000</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>978</v>
+        <v>1001</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>979</v>
+        <v>1002</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>935</v>
+        <v>958</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>102</v>
@@ -13792,54 +13911,54 @@
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>980</v>
+        <v>1003</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>981</v>
+        <v>1004</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>982</v>
+        <v>1005</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>983</v>
+        <v>1006</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>984</v>
+        <v>1007</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>985</v>
+        <v>1008</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>986</v>
+        <v>1009</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>987</v>
+        <v>1010</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>974</v>
+        <v>997</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>988</v>
+        <v>1011</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>989</v>
+        <v>1012</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>673</v>
@@ -13847,7 +13966,7 @@
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>990</v>
+        <v>1013</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>256</v>
@@ -13858,10 +13977,10 @@
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>991</v>
+        <v>1014</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>992</v>
+        <v>1015</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>673</v>
@@ -13869,10 +13988,10 @@
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>993</v>
+        <v>1016</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>994</v>
+        <v>1017</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>673</v>
@@ -13880,7 +13999,7 @@
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>995</v>
+        <v>1018</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>211</v>
@@ -13891,7 +14010,7 @@
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>204</v>
@@ -13902,288 +14021,288 @@
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>997</v>
+        <v>1020</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>999</v>
+        <v>1022</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>1000</v>
+        <v>1023</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>1001</v>
+        <v>1024</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>1002</v>
+        <v>1025</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>1003</v>
+        <v>1026</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>1004</v>
+        <v>1027</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>1005</v>
+        <v>1028</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>1007</v>
+        <v>1030</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>1008</v>
+        <v>1031</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>1009</v>
+        <v>1032</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>1010</v>
+        <v>1033</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>1011</v>
+        <v>1034</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>1012</v>
+        <v>1035</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>1013</v>
+        <v>1036</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>1014</v>
+        <v>1037</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
-        <v>1015</v>
+        <v>1038</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
-        <v>1016</v>
+        <v>1039</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
-        <v>1017</v>
+        <v>1040</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>1018</v>
+        <v>1041</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>1020</v>
+        <v>1043</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>998</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
-        <v>1021</v>
+        <v>1044</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
-        <v>1023</v>
+        <v>1046</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
-        <v>1024</v>
+        <v>1047</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14194,202 +14313,202 @@
         <v>374</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
-        <v>1025</v>
+        <v>1048</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
-        <v>1026</v>
+        <v>1049</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
-        <v>1027</v>
+        <v>1050</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
-        <v>1028</v>
+        <v>1051</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
-        <v>1029</v>
+        <v>1052</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
-        <v>1030</v>
+        <v>1053</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
-        <v>1031</v>
+        <v>1054</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
-        <v>1032</v>
+        <v>1055</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="s">
-        <v>1033</v>
+        <v>1056</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
-        <v>1034</v>
+        <v>1057</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
-        <v>1035</v>
+        <v>1058</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>1036</v>
+        <v>1059</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
-        <v>1037</v>
+        <v>1060</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
-        <v>1038</v>
+        <v>1061</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
-        <v>1039</v>
+        <v>1062</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
-        <v>1040</v>
+        <v>1063</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1022</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
-        <v>1041</v>
+        <v>1064</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1042</v>
+        <v>1065</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1043</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
-        <v>1044</v>
+        <v>1067</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1045</v>
+        <v>1068</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>294</v>
@@ -14397,21 +14516,21 @@
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
-        <v>1046</v>
+        <v>1069</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1047</v>
+        <v>1070</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1048</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
-        <v>1049</v>
+        <v>1072</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1050</v>
+        <v>1073</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>740</v>
@@ -14419,10 +14538,10 @@
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
-        <v>1051</v>
+        <v>1074</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1052</v>
+        <v>1075</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>729</v>
@@ -14430,10 +14549,10 @@
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
-        <v>1053</v>
+        <v>1076</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1054</v>
+        <v>1077</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>695</v>
@@ -14441,10 +14560,10 @@
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
-        <v>1055</v>
+        <v>1078</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1056</v>
+        <v>1079</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>740</v>
@@ -14452,10 +14571,10 @@
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>1057</v>
+        <v>1080</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1058</v>
+        <v>1081</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>695</v>
@@ -14463,24 +14582,24 @@
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="s">
-        <v>1059</v>
+        <v>1082</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1061</v>
+        <v>1084</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1062</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
-        <v>1063</v>
+        <v>1086</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1064</v>
+        <v>1087</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>695</v>
@@ -14489,24 +14608,24 @@
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
-        <v>1065</v>
+        <v>1088</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1066</v>
+        <v>1089</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1067</v>
+        <v>1090</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1062</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
-        <v>1068</v>
+        <v>1091</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1069</v>
+        <v>1092</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>294</v>
@@ -14515,10 +14634,10 @@
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
-        <v>1070</v>
+        <v>1093</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1071</v>
+        <v>1094</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>191</v>
@@ -14527,10 +14646,10 @@
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
-        <v>1072</v>
+        <v>1095</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1073</v>
+        <v>1096</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>191</v>
@@ -14539,22 +14658,22 @@
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
-        <v>1074</v>
+        <v>1097</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1075</v>
+        <v>1098</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
-        <v>1077</v>
+        <v>1100</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1078</v>
+        <v>1101</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>294</v>
@@ -14563,31 +14682,31 @@
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
-        <v>1079</v>
+        <v>1102</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1080</v>
+        <v>1103</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
-        <v>1081</v>
+        <v>1104</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1082</v>
+        <v>1105</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
-        <v>1083</v>
+        <v>1106</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>411</v>
@@ -14599,7 +14718,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>1084</v>
+        <v>1107</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>411</v>
@@ -14611,19 +14730,19 @@
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
-        <v>1085</v>
+        <v>1108</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1086</v>
+        <v>1109</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
-        <v>1087</v>
+        <v>1110</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>411</v>
@@ -14635,10 +14754,10 @@
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
-        <v>1088</v>
+        <v>1111</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1089</v>
+        <v>1112</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>191</v>
@@ -14647,10 +14766,10 @@
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
-        <v>1090</v>
+        <v>1113</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1091</v>
+        <v>1114</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>21</v>
@@ -14659,10 +14778,10 @@
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
-        <v>1092</v>
+        <v>1115</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1093</v>
+        <v>1116</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>191</v>
@@ -14671,10 +14790,10 @@
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="s">
-        <v>1094</v>
+        <v>1117</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1095</v>
+        <v>1118</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>692</v>
@@ -14683,22 +14802,22 @@
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
-        <v>1096</v>
+        <v>1119</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>880</v>
+        <v>903</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
-        <v>1097</v>
+        <v>1120</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1098</v>
+        <v>1121</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>191</v>
@@ -14707,10 +14826,10 @@
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
-        <v>1099</v>
+        <v>1122</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1100</v>
+        <v>1123</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>191</v>
@@ -14719,19 +14838,19 @@
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
-        <v>1101</v>
+        <v>1124</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1102</v>
+        <v>1125</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
-        <v>1103</v>
+        <v>1126</v>
       </c>
       <c r="B559" s="2"/>
       <c r="C559" s="2" t="s">
@@ -14741,10 +14860,10 @@
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>1104</v>
+        <v>1127</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1105</v>
+        <v>1128</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>64</v>
@@ -14753,7 +14872,7 @@
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
-        <v>1106</v>
+        <v>1129</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>190</v>
@@ -14765,10 +14884,10 @@
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
-        <v>1107</v>
+        <v>1130</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1108</v>
+        <v>1131</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>191</v>
@@ -14777,7 +14896,7 @@
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
-        <v>1109</v>
+        <v>1132</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>588</v>
@@ -14789,32 +14908,32 @@
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
-        <v>1110</v>
+        <v>1133</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1111</v>
+        <v>1134</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1112</v>
+        <v>1135</v>
       </c>
       <c r="D564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
-        <v>1113</v>
+        <v>1136</v>
       </c>
       <c r="B565" s="2"/>
       <c r="C565" s="2" t="s">
-        <v>1114</v>
+        <v>1137</v>
       </c>
       <c r="D565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>366</v>
@@ -14823,10 +14942,10 @@
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1117</v>
+        <v>1140</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>706</v>
@@ -14835,10 +14954,10 @@
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
-        <v>1118</v>
+        <v>1141</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1119</v>
+        <v>1142</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>294</v>
@@ -14847,10 +14966,10 @@
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
-        <v>1120</v>
+        <v>1143</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1119</v>
+        <v>1142</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>191</v>
@@ -14859,53 +14978,53 @@
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
-        <v>1121</v>
+        <v>1144</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1122</v>
+        <v>1145</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
-        <v>1123</v>
+        <v>1146</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1124</v>
+        <v>1147</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2" t="s">
-        <v>1125</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
-        <v>1126</v>
+        <v>1149</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1127</v>
+        <v>1150</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1128</v>
+        <v>1151</v>
       </c>
       <c r="D572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>1129</v>
+        <v>1152</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1130</v>
+        <v>1153</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="D573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
-        <v>1132</v>
+        <v>1155</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>247</v>
@@ -14917,10 +15036,10 @@
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
-        <v>1133</v>
+        <v>1156</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1134</v>
+        <v>1157</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>524</v>
@@ -14929,10 +15048,10 @@
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>1135</v>
+        <v>1158</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1134</v>
+        <v>1157</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>524</v>
@@ -14941,10 +15060,10 @@
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
-        <v>1136</v>
+        <v>1159</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1134</v>
+        <v>1157</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>524</v>
@@ -14953,10 +15072,10 @@
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>1137</v>
+        <v>1160</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1134</v>
+        <v>1157</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>524</v>
@@ -14965,10 +15084,10 @@
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>1138</v>
+        <v>1161</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1139</v>
+        <v>1162</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>524</v>
@@ -14977,31 +15096,31 @@
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>1140</v>
+        <v>1163</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1141</v>
+        <v>1164</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1142</v>
+        <v>1165</v>
       </c>
       <c r="D580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>1143</v>
+        <v>1166</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1144</v>
+        <v>1167</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1145</v>
+        <v>1168</v>
       </c>
       <c r="D581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>1146</v>
+        <v>1169</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2" t="s">
@@ -15011,10 +15130,10 @@
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
-        <v>1147</v>
+        <v>1170</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1148</v>
+        <v>1171</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>729</v>
@@ -15023,10 +15142,10 @@
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>1149</v>
+        <v>1172</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1150</v>
+        <v>1173</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>64</v>
@@ -15035,34 +15154,34 @@
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>1151</v>
+        <v>1174</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1152</v>
+        <v>1175</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="D585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>1153</v>
+        <v>1176</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1154</v>
+        <v>1177</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1155</v>
+        <v>1178</v>
       </c>
       <c r="D586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
-        <v>1156</v>
+        <v>1179</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1157</v>
+        <v>1180</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>21</v>
@@ -15071,10 +15190,10 @@
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>1158</v>
+        <v>1181</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1159</v>
+        <v>1182</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>294</v>
@@ -15083,7 +15202,7 @@
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
-        <v>1160</v>
+        <v>1183</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>556</v>
@@ -15095,22 +15214,22 @@
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>1161</v>
+        <v>1184</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1128</v>
+        <v>1151</v>
       </c>
       <c r="D590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
-        <v>1162</v>
+        <v>1185</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1163</v>
+        <v>1186</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>191</v>
@@ -15119,22 +15238,22 @@
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>1164</v>
+        <v>1187</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1165</v>
+        <v>1188</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1166</v>
+        <v>1189</v>
       </c>
       <c r="D592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>1167</v>
+        <v>1190</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1168</v>
+        <v>1191</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>294</v>
@@ -15143,10 +15262,10 @@
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>1169</v>
+        <v>1192</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1170</v>
+        <v>1193</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>191</v>
@@ -15155,10 +15274,10 @@
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>1171</v>
+        <v>1194</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1172</v>
+        <v>1195</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>692</v>
@@ -15167,10 +15286,10 @@
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>1173</v>
+        <v>1196</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1174</v>
+        <v>1197</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>64</v>
@@ -15179,10 +15298,10 @@
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
-        <v>1175</v>
+        <v>1198</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1176</v>
+        <v>1199</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>191</v>
@@ -15191,10 +15310,10 @@
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>1177</v>
+        <v>1200</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1178</v>
+        <v>1201</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>26</v>
@@ -15203,17 +15322,17 @@
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
-        <v>1179</v>
+        <v>1202</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1180</v>
+        <v>1203</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>1181</v>
+        <v>1204</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>273</v>
@@ -15231,128 +15350,128 @@
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>1182</v>
+        <v>1205</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1183</v>
+        <v>1206</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1184</v>
+        <v>1207</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1185</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
-        <v>1186</v>
+        <v>1209</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1187</v>
+        <v>1210</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1188</v>
+        <v>1211</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1185</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>1189</v>
+        <v>1212</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1190</v>
+        <v>1213</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1191</v>
+        <v>1214</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1185</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
-        <v>1192</v>
+        <v>1215</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1193</v>
+        <v>1216</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1194</v>
+        <v>1217</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1185</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>1195</v>
+        <v>1218</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1196</v>
+        <v>1219</v>
       </c>
       <c r="D606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
-        <v>1197</v>
+        <v>1220</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1198</v>
+        <v>1221</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1199</v>
+        <v>1222</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1200</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>1201</v>
+        <v>1224</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1202</v>
+        <v>1225</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1203</v>
+        <v>1226</v>
       </c>
       <c r="D608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>1204</v>
+        <v>1227</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1205</v>
+        <v>1228</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
-        <v>1206</v>
+        <v>1229</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1207</v>
+        <v>1230</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1208</v>
+        <v>1231</v>
       </c>
       <c r="D610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="s">
-        <v>1209</v>
+        <v>1232</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1210</v>
+        <v>1233</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>740</v>
@@ -15361,13 +15480,13 @@
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
-        <v>1211</v>
+        <v>1234</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1212</v>
+        <v>1235</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1213</v>
+        <v>1236</v>
       </c>
       <c r="D612" s="2"/>
     </row>
@@ -15385,10 +15504,10 @@
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
-        <v>1214</v>
+        <v>1237</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1215</v>
+        <v>1238</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>26</v>
@@ -15397,10 +15516,10 @@
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
-        <v>1216</v>
+        <v>1239</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1217</v>
+        <v>1240</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>729</v>
@@ -15409,10 +15528,10 @@
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
-        <v>1218</v>
+        <v>1241</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1219</v>
+        <v>1242</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>26</v>
@@ -15421,10 +15540,10 @@
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="s">
-        <v>1220</v>
+        <v>1243</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1221</v>
+        <v>1244</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>26</v>
@@ -15433,22 +15552,22 @@
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
-        <v>1222</v>
+        <v>1245</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1223</v>
+        <v>1246</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1224</v>
+        <v>1247</v>
       </c>
       <c r="D618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="s">
-        <v>1225</v>
+        <v>1248</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1226</v>
+        <v>1249</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>26</v>
@@ -15457,10 +15576,10 @@
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
-        <v>1227</v>
+        <v>1250</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1228</v>
+        <v>1251</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>380</v>
@@ -15469,24 +15588,24 @@
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
-        <v>1229</v>
+        <v>1252</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1230</v>
+        <v>1253</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>562</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1231</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
-        <v>1232</v>
+        <v>1255</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1233</v>
+        <v>1256</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>191</v>
@@ -15495,34 +15614,34 @@
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
-        <v>1234</v>
+        <v>1257</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1235</v>
+        <v>1258</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1236</v>
+        <v>1259</v>
       </c>
       <c r="D623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
-        <v>1237</v>
+        <v>1260</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1235</v>
+        <v>1258</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1238</v>
+        <v>1261</v>
       </c>
       <c r="D624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="s">
-        <v>1239</v>
+        <v>1262</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1235</v>
+        <v>1258</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>692</v>
@@ -15531,22 +15650,22 @@
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
-        <v>1240</v>
+        <v>1263</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1241</v>
+        <v>1264</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1242</v>
+        <v>1265</v>
       </c>
       <c r="D626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="s">
-        <v>1243</v>
+        <v>1266</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1244</v>
+        <v>1267</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>729</v>
@@ -15555,19 +15674,19 @@
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
-        <v>1245</v>
+        <v>1268</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1246</v>
+        <v>1269</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="s">
-        <v>996</v>
+        <v>1019</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>204</v>
@@ -15579,46 +15698,46 @@
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="s">
-        <v>1247</v>
+        <v>1270</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>987</v>
+        <v>1010</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1248</v>
+        <v>1271</v>
       </c>
       <c r="D630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="s">
-        <v>1249</v>
+        <v>1272</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1241</v>
+        <v>1264</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1131</v>
+        <v>1154</v>
       </c>
       <c r="D631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="s">
-        <v>1250</v>
+        <v>1273</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1241</v>
+        <v>1264</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1251</v>
+        <v>1274</v>
       </c>
       <c r="D632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2" t="s">
-        <v>1252</v>
+        <v>1275</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1253</v>
+        <v>1276</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>194</v>
@@ -15627,10 +15746,10 @@
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2" t="s">
-        <v>1254</v>
+        <v>1277</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1255</v>
+        <v>1278</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>21</v>
@@ -15639,7 +15758,7 @@
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2" t="s">
-        <v>1256</v>
+        <v>1279</v>
       </c>
       <c r="B635" s="2" t="s">
         <v>363</v>
@@ -15651,10 +15770,10 @@
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="s">
-        <v>1257</v>
+        <v>1280</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1258</v>
+        <v>1281</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>26</v>
@@ -15663,185 +15782,185 @@
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="s">
-        <v>1259</v>
+        <v>1282</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1260</v>
+        <v>1283</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>1261</v>
+        <v>1284</v>
       </c>
       <c r="D637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="s">
-        <v>1262</v>
+        <v>1285</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2" t="s">
-        <v>1263</v>
+        <v>1286</v>
       </c>
       <c r="D638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="s">
-        <v>1264</v>
+        <v>1287</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2" t="s">
-        <v>1263</v>
+        <v>1286</v>
       </c>
       <c r="D639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="s">
-        <v>1265</v>
+        <v>1288</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2" t="s">
-        <v>1263</v>
+        <v>1286</v>
       </c>
       <c r="D640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="s">
-        <v>1266</v>
+        <v>1289</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2" t="s">
-        <v>1263</v>
+        <v>1286</v>
       </c>
       <c r="D641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="s">
-        <v>1267</v>
+        <v>1290</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1268</v>
+        <v>1291</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="s">
-        <v>1270</v>
+        <v>1293</v>
       </c>
       <c r="B643" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1272</v>
+        <v>1295</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="s">
-        <v>1273</v>
+        <v>1296</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1274</v>
+        <v>1297</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2" t="s">
-        <v>1267</v>
+        <v>1290</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1275</v>
+        <v>1298</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="s">
-        <v>1276</v>
+        <v>1299</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1277</v>
+        <v>1300</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2" t="s">
-        <v>1278</v>
+        <v>1301</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1279</v>
+        <v>1302</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="s">
-        <v>1280</v>
+        <v>1303</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1281</v>
+        <v>1304</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="s">
-        <v>1282</v>
+        <v>1305</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1283</v>
+        <v>1306</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="s">
-        <v>1284</v>
+        <v>1307</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1285</v>
+        <v>1308</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>140</v>
@@ -15849,541 +15968,541 @@
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="s">
-        <v>1286</v>
+        <v>1309</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>599</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="s">
-        <v>1287</v>
+        <v>1310</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1288</v>
+        <v>1311</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
-        <v>1289</v>
+        <v>1312</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1290</v>
+        <v>1313</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
-        <v>1291</v>
+        <v>1314</v>
       </c>
       <c r="B656" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C656" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="C656" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="D656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="s">
-        <v>1293</v>
+        <v>1316</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1294</v>
+        <v>1317</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="s">
-        <v>1295</v>
+        <v>1318</v>
       </c>
       <c r="B658" s="2" t="s">
         <v>379</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="s">
-        <v>1296</v>
+        <v>1319</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="s">
-        <v>1298</v>
+        <v>1321</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1299</v>
+        <v>1322</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="s">
-        <v>1300</v>
+        <v>1323</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1301</v>
+        <v>1324</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="s">
-        <v>1302</v>
+        <v>1325</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1303</v>
+        <v>1326</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2" t="s">
-        <v>1304</v>
+        <v>1327</v>
       </c>
       <c r="B663" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2" t="s">
-        <v>1305</v>
+        <v>1328</v>
       </c>
       <c r="B664" s="2" t="s">
         <v>697</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
-        <v>1306</v>
+        <v>1329</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1307</v>
+        <v>1330</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1309</v>
+        <v>1332</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
-        <v>1310</v>
+        <v>1333</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1311</v>
+        <v>1334</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
-        <v>1312</v>
+        <v>1335</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1313</v>
+        <v>1336</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="s">
-        <v>1267</v>
+        <v>1290</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1314</v>
+        <v>1337</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="s">
-        <v>1315</v>
+        <v>1338</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1316</v>
+        <v>1339</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="s">
-        <v>1317</v>
+        <v>1340</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1318</v>
+        <v>1341</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="s">
-        <v>1319</v>
+        <v>1342</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1320</v>
+        <v>1343</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="s">
-        <v>1321</v>
+        <v>1344</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1322</v>
+        <v>1345</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="s">
-        <v>1323</v>
+        <v>1346</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1324</v>
+        <v>1347</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="s">
-        <v>1325</v>
+        <v>1348</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1326</v>
+        <v>1349</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2" t="s">
-        <v>1327</v>
+        <v>1350</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1328</v>
+        <v>1351</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2" t="s">
-        <v>1329</v>
+        <v>1352</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1330</v>
+        <v>1353</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="s">
-        <v>1331</v>
+        <v>1354</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1332</v>
+        <v>1355</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2" t="s">
-        <v>1333</v>
+        <v>1356</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1334</v>
+        <v>1357</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="s">
-        <v>1335</v>
+        <v>1358</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="s">
-        <v>1337</v>
+        <v>1360</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1338</v>
+        <v>1361</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="s">
-        <v>1339</v>
+        <v>1362</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1340</v>
+        <v>1363</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="s">
-        <v>1341</v>
+        <v>1364</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1342</v>
+        <v>1365</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2" t="s">
-        <v>1343</v>
+        <v>1366</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1344</v>
+        <v>1367</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="s">
-        <v>1345</v>
+        <v>1368</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1346</v>
+        <v>1369</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="s">
-        <v>1347</v>
+        <v>1370</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1348</v>
+        <v>1371</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="s">
-        <v>1349</v>
+        <v>1372</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1350</v>
+        <v>1373</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="s">
-        <v>1351</v>
+        <v>1374</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1352</v>
+        <v>1375</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="s">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1354</v>
+        <v>1377</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2" t="s">
-        <v>1355</v>
+        <v>1378</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1356</v>
+        <v>1379</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="s">
-        <v>1357</v>
+        <v>1380</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1358</v>
+        <v>1381</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="s">
-        <v>991</v>
+        <v>1014</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>992</v>
+        <v>1015</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2" t="s">
-        <v>1359</v>
+        <v>1382</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1360</v>
+        <v>1383</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2" t="s">
-        <v>1361</v>
+        <v>1384</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1362</v>
+        <v>1385</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2" t="s">
-        <v>1363</v>
+        <v>1386</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1364</v>
+        <v>1387</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2" t="s">
-        <v>1365</v>
+        <v>1388</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2" t="s">
-        <v>1367</v>
+        <v>1390</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1368</v>
+        <v>1391</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D697" s="2"/>
     </row>
@@ -16392,41 +16511,41 @@
         <v>630</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1369</v>
+        <v>1392</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2" t="s">
-        <v>1370</v>
+        <v>1393</v>
       </c>
       <c r="B699" s="2"/>
       <c r="C699" s="2" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
       <c r="D699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2" t="s">
-        <v>1371</v>
+        <v>1394</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1372</v>
+        <v>1395</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>1373</v>
+        <v>1396</v>
       </c>
       <c r="D700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2" t="s">
-        <v>1374</v>
+        <v>1397</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1375</v>
+        <v>1398</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>191</v>
@@ -16435,22 +16554,22 @@
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2" t="s">
-        <v>1376</v>
+        <v>1399</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1377</v>
+        <v>1400</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>1378</v>
+        <v>1401</v>
       </c>
       <c r="D702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2" t="s">
-        <v>1379</v>
+        <v>1402</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1380</v>
+        <v>1403</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>524</v>
@@ -16459,58 +16578,58 @@
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2" t="s">
-        <v>1381</v>
+        <v>1404</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1382</v>
+        <v>1405</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>1383</v>
+        <v>1406</v>
       </c>
       <c r="D704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2" t="s">
-        <v>1384</v>
+        <v>1407</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1385</v>
+        <v>1408</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>1386</v>
+        <v>1409</v>
       </c>
       <c r="D705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2" t="s">
-        <v>1387</v>
+        <v>1410</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1388</v>
+        <v>1411</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2" t="s">
-        <v>1389</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2" t="s">
-        <v>1390</v>
+        <v>1413</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1391</v>
+        <v>1414</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>1392</v>
+        <v>1415</v>
       </c>
       <c r="D707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2" t="s">
-        <v>1393</v>
+        <v>1416</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1394</v>
+        <v>1417</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>524</v>
@@ -16519,10 +16638,10 @@
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2" t="s">
-        <v>1395</v>
+        <v>1418</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1394</v>
+        <v>1417</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>524</v>
@@ -16531,34 +16650,34 @@
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2" t="s">
-        <v>1396</v>
+        <v>1419</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1397</v>
+        <v>1420</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2" t="s">
-        <v>1398</v>
+        <v>1421</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>1400</v>
+        <v>1423</v>
       </c>
       <c r="D711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2" t="s">
-        <v>1401</v>
+        <v>1424</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1402</v>
+        <v>1425</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>695</v>
@@ -16567,10 +16686,10 @@
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2" t="s">
-        <v>1403</v>
+        <v>1426</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1404</v>
+        <v>1427</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>35</v>
@@ -16579,10 +16698,10 @@
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2" t="s">
-        <v>1405</v>
+        <v>1428</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1406</v>
+        <v>1429</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>729</v>
@@ -16591,22 +16710,22 @@
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2" t="s">
-        <v>1407</v>
+        <v>1430</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1408</v>
+        <v>1431</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1248</v>
+        <v>1271</v>
       </c>
       <c r="D715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>1409</v>
+        <v>1432</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1410</v>
+        <v>1433</v>
       </c>
       <c r="C716" s="2" t="s">
         <v>740</v>
@@ -16615,22 +16734,22 @@
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>1411</v>
+        <v>1434</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1412</v>
+        <v>1435</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>1413</v>
+        <v>1436</v>
       </c>
       <c r="D717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="s">
-        <v>1414</v>
+        <v>1437</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1415</v>
+        <v>1438</v>
       </c>
       <c r="C718" s="2" t="s">
         <v>729</v>
@@ -16639,10 +16758,10 @@
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="s">
-        <v>1416</v>
+        <v>1439</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1417</v>
+        <v>1440</v>
       </c>
       <c r="C719" s="2" t="s">
         <v>729</v>
@@ -16651,22 +16770,22 @@
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="s">
-        <v>1418</v>
+        <v>1441</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1419</v>
+        <v>1442</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1420</v>
+        <v>1443</v>
       </c>
       <c r="D720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2" t="s">
-        <v>1421</v>
+        <v>1444</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1422</v>
+        <v>1445</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>191</v>
@@ -16675,10 +16794,10 @@
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2" t="s">
-        <v>1423</v>
+        <v>1446</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1424</v>
+        <v>1447</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>26</v>
@@ -16687,10 +16806,10 @@
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2" t="s">
-        <v>1425</v>
+        <v>1448</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1426</v>
+        <v>1449</v>
       </c>
       <c r="C723" s="2" t="s">
         <v>729</v>
@@ -16699,10 +16818,10 @@
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2" t="s">
-        <v>1427</v>
+        <v>1450</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1428</v>
+        <v>1451</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>60</v>
@@ -16711,10 +16830,10 @@
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="s">
-        <v>1429</v>
+        <v>1452</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1430</v>
+        <v>1453</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>191</v>
@@ -16723,10 +16842,10 @@
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="s">
-        <v>1431</v>
+        <v>1454</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1432</v>
+        <v>1455</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>191</v>
@@ -16735,34 +16854,34 @@
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="s">
-        <v>1433</v>
+        <v>1456</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1434</v>
+        <v>1457</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1435</v>
+        <v>1458</v>
       </c>
       <c r="D727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="s">
-        <v>1436</v>
+        <v>1459</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1437</v>
+        <v>1460</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1438</v>
+        <v>1461</v>
       </c>
       <c r="D728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="s">
-        <v>1439</v>
+        <v>1462</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1440</v>
+        <v>1463</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>191</v>
@@ -16771,10 +16890,10 @@
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="s">
-        <v>1441</v>
+        <v>1464</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1442</v>
+        <v>1465</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>191</v>
@@ -16783,10 +16902,10 @@
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2" t="s">
-        <v>1443</v>
+        <v>1466</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1442</v>
+        <v>1465</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>191</v>
@@ -16795,10 +16914,10 @@
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2" t="s">
-        <v>1444</v>
+        <v>1467</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1445</v>
+        <v>1468</v>
       </c>
       <c r="C732" s="2" t="s">
         <v>726</v>
@@ -16807,10 +16926,10 @@
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="s">
-        <v>1446</v>
+        <v>1469</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1445</v>
+        <v>1468</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>366</v>
@@ -16819,36 +16938,36 @@
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="s">
-        <v>1447</v>
+        <v>1470</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1448</v>
+        <v>1471</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1449</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="s">
-        <v>1450</v>
+        <v>1473</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1451</v>
+        <v>1474</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="D735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2" t="s">
-        <v>1452</v>
+        <v>1475</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1453</v>
+        <v>1476</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>366</v>
@@ -16857,10 +16976,10 @@
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2" t="s">
-        <v>1454</v>
+        <v>1477</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1455</v>
+        <v>1478</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>706</v>
@@ -16869,118 +16988,118 @@
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2" t="s">
-        <v>1456</v>
+        <v>1479</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1457</v>
+        <v>1480</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="D738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2" t="s">
-        <v>1458</v>
+        <v>1481</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1459</v>
+        <v>1482</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1460</v>
+        <v>1483</v>
       </c>
       <c r="D739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="s">
-        <v>1461</v>
+        <v>1484</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1462</v>
+        <v>1485</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="s">
-        <v>1463</v>
+        <v>1486</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1464</v>
+        <v>1487</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2" t="s">
-        <v>1465</v>
+        <v>1488</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1466</v>
+        <v>1489</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1467</v>
+        <v>1490</v>
       </c>
       <c r="D742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="s">
-        <v>1468</v>
+        <v>1491</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1469</v>
+        <v>1492</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1469</v>
+        <v>1492</v>
       </c>
       <c r="D743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="s">
-        <v>1470</v>
+        <v>1493</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1471</v>
+        <v>1494</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1472</v>
+        <v>1495</v>
       </c>
       <c r="D744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="s">
-        <v>1473</v>
+        <v>1496</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1474</v>
+        <v>1497</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1475</v>
+        <v>1498</v>
       </c>
       <c r="D745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="s">
-        <v>1476</v>
+        <v>1499</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1477</v>
+        <v>1500</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1475</v>
+        <v>1498</v>
       </c>
       <c r="D746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2" t="s">
-        <v>1478</v>
+        <v>1501</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1394</v>
+        <v>1417</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>524</v>
@@ -16989,10 +17108,10 @@
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="s">
-        <v>1479</v>
+        <v>1502</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1480</v>
+        <v>1503</v>
       </c>
       <c r="C748" s="2" t="s">
         <v>726</v>
@@ -17001,10 +17120,10 @@
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2" t="s">
-        <v>1479</v>
+        <v>1502</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1480</v>
+        <v>1503</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>294</v>
@@ -17013,10 +17132,10 @@
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="s">
-        <v>1481</v>
+        <v>1504</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1482</v>
+        <v>1505</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>524</v>
@@ -17025,10 +17144,10 @@
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="s">
-        <v>1483</v>
+        <v>1506</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1482</v>
+        <v>1505</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>524</v>
@@ -17037,22 +17156,22 @@
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="s">
-        <v>1484</v>
+        <v>1507</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1485</v>
+        <v>1508</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1076</v>
+        <v>1099</v>
       </c>
       <c r="D752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="s">
-        <v>1486</v>
+        <v>1509</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1198</v>
+        <v>1221</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>194</v>
@@ -17061,10 +17180,10 @@
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="s">
-        <v>1487</v>
+        <v>1510</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1198</v>
+        <v>1221</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>194</v>
@@ -17073,10 +17192,10 @@
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2" t="s">
-        <v>1488</v>
+        <v>1511</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1198</v>
+        <v>1221</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>194</v>
@@ -17085,10 +17204,10 @@
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2" t="s">
-        <v>1489</v>
+        <v>1512</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1198</v>
+        <v>1221</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>194</v>
@@ -17097,10 +17216,10 @@
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2" t="s">
-        <v>1490</v>
+        <v>1513</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1491</v>
+        <v>1514</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>719</v>
@@ -17109,22 +17228,22 @@
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2" t="s">
-        <v>1492</v>
+        <v>1515</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1493</v>
+        <v>1516</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1472</v>
+        <v>1495</v>
       </c>
       <c r="D758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2" t="s">
-        <v>1494</v>
+        <v>1517</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1495</v>
+        <v>1518</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>35</v>
@@ -17133,22 +17252,22 @@
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="s">
-        <v>1496</v>
+        <v>1519</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1497</v>
+        <v>1520</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1498</v>
+        <v>1521</v>
       </c>
       <c r="D760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="s">
-        <v>1499</v>
+        <v>1522</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1235</v>
+        <v>1258</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>26</v>
@@ -17157,22 +17276,22 @@
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="s">
-        <v>1500</v>
+        <v>1523</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1501</v>
+        <v>1524</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1502</v>
+        <v>1525</v>
       </c>
       <c r="D762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2" t="s">
-        <v>1503</v>
+        <v>1526</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="C763" s="2" t="s">
         <v>729</v>
@@ -17181,10 +17300,10 @@
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="s">
-        <v>1504</v>
+        <v>1527</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>64</v>
@@ -17193,10 +17312,10 @@
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="s">
-        <v>1505</v>
+        <v>1528</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>822</v>
+        <v>845</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>64</v>
@@ -17205,10 +17324,10 @@
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2" t="s">
-        <v>1506</v>
+        <v>1529</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1507</v>
+        <v>1530</v>
       </c>
       <c r="C766" s="2" t="s">
         <v>729</v>
@@ -17217,7 +17336,7 @@
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2" t="s">
-        <v>1508</v>
+        <v>1531</v>
       </c>
       <c r="B767" s="2" t="s">
         <v>111</v>
@@ -17229,10 +17348,10 @@
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2" t="s">
-        <v>1509</v>
+        <v>1532</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1510</v>
+        <v>1533</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>191</v>
@@ -17241,10 +17360,10 @@
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2" t="s">
-        <v>1511</v>
+        <v>1534</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1244</v>
+        <v>1267</v>
       </c>
       <c r="C769" s="2" t="s">
         <v>729</v>
@@ -17253,10 +17372,10 @@
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2" t="s">
-        <v>1512</v>
+        <v>1535</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1244</v>
+        <v>1267</v>
       </c>
       <c r="C770" s="2" t="s">
         <v>729</v>
@@ -17265,10 +17384,10 @@
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="s">
-        <v>1513</v>
+        <v>1536</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1514</v>
+        <v>1537</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>64</v>
@@ -17277,10 +17396,10 @@
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2" t="s">
-        <v>1515</v>
+        <v>1538</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>26</v>
@@ -17289,10 +17408,10 @@
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="s">
-        <v>1516</v>
+        <v>1539</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1517</v>
+        <v>1540</v>
       </c>
       <c r="C773" s="2" t="s">
         <v>729</v>
@@ -17301,20 +17420,20 @@
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="s">
-        <v>1518</v>
+        <v>1541</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1519</v>
+        <v>1542</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="s">
-        <v>1520</v>
+        <v>1543</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1521</v>
+        <v>1544</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>194</v>
@@ -17326,16 +17445,16 @@
         <v>383</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1522</v>
+        <v>1545</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="D776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="s">
-        <v>1523</v>
+        <v>1546</v>
       </c>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -17343,10 +17462,10 @@
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="s">
-        <v>1524</v>
+        <v>1547</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1525</v>
+        <v>1548</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>245</v>
@@ -17358,44 +17477,44 @@
         <v>598</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1526</v>
+        <v>1549</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="s">
-        <v>1527</v>
+        <v>1550</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1528</v>
+        <v>1551</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2" t="s">
-        <v>1529</v>
+        <v>1552</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1530</v>
+        <v>1553</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2" t="s">
-        <v>1531</v>
+        <v>1554</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1532</v>
+        <v>1555</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2" t="s">
-        <v>1533</v>
+        <v>1556</v>
       </c>
       <c r="B783" s="2"/>
       <c r="C783" s="2" t="s">
@@ -17405,30 +17524,30 @@
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2" t="s">
-        <v>1534</v>
+        <v>1557</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1535</v>
+        <v>1558</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="3" t="s">
-        <v>1536</v>
+        <v>1559</v>
       </c>
       <c r="B785" s="2"/>
       <c r="C785" s="2" t="s">
-        <v>1537</v>
+        <v>1560</v>
       </c>
       <c r="D785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2" t="s">
-        <v>1538</v>
+        <v>1561</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1539</v>
+        <v>1562</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>294</v>
@@ -17437,357 +17556,357 @@
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2" t="s">
-        <v>1540</v>
+        <v>1563</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1541</v>
+        <v>1564</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="s">
-        <v>1542</v>
+        <v>1565</v>
       </c>
       <c r="B788" s="2"/>
       <c r="C788" s="2" t="s">
-        <v>1543</v>
+        <v>1566</v>
       </c>
       <c r="D788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2" t="s">
-        <v>1544</v>
+        <v>1567</v>
       </c>
       <c r="B789" s="2"/>
       <c r="C789" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="3" t="s">
-        <v>1546</v>
+        <v>1569</v>
       </c>
       <c r="B790" s="2"/>
       <c r="C790" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="3" t="s">
-        <v>1547</v>
+        <v>1570</v>
       </c>
       <c r="B791" s="2"/>
       <c r="C791" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="s">
-        <v>1548</v>
+        <v>1571</v>
       </c>
       <c r="B792" s="2"/>
       <c r="C792" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2" t="s">
-        <v>1549</v>
+        <v>1572</v>
       </c>
       <c r="B793" s="2"/>
       <c r="C793" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="3" t="s">
-        <v>1550</v>
+        <v>1573</v>
       </c>
       <c r="B794" s="2"/>
       <c r="C794" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2" t="s">
-        <v>1551</v>
+        <v>1574</v>
       </c>
       <c r="B795" s="2"/>
       <c r="C795" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="3" t="s">
-        <v>1552</v>
+        <v>1575</v>
       </c>
       <c r="B796" s="2"/>
       <c r="C796" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2" t="s">
-        <v>1553</v>
+        <v>1576</v>
       </c>
       <c r="B797" s="2"/>
       <c r="C797" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="3" t="s">
-        <v>1554</v>
+        <v>1577</v>
       </c>
       <c r="B798" s="2"/>
       <c r="C798" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2" t="s">
-        <v>1555</v>
+        <v>1578</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2" t="s">
-        <v>1557</v>
+        <v>1580</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2" t="s">
-        <v>1558</v>
+        <v>1581</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2" t="s">
-        <v>1559</v>
+        <v>1582</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2" t="s">
-        <v>1560</v>
+        <v>1583</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2" t="s">
-        <v>1561</v>
+        <v>1584</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2" t="s">
-        <v>1562</v>
+        <v>1585</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2" t="s">
-        <v>1563</v>
+        <v>1586</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2" t="s">
-        <v>1564</v>
+        <v>1587</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2" t="s">
-        <v>1565</v>
+        <v>1588</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="2" t="s">
-        <v>1566</v>
+        <v>1589</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2" t="s">
-        <v>1567</v>
+        <v>1590</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C811" s="2" t="s">
         <v>1568</v>
-      </c>
-      <c r="B811" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C811" s="2" t="s">
-        <v>1545</v>
       </c>
       <c r="D811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="2" t="s">
-        <v>1569</v>
+        <v>1592</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1556</v>
+        <v>1579</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2" t="s">
-        <v>1570</v>
+        <v>1593</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1571</v>
+        <v>1594</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="2" t="s">
-        <v>1572</v>
+        <v>1595</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1571</v>
+        <v>1594</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="2" t="s">
-        <v>1573</v>
+        <v>1596</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1571</v>
+        <v>1594</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2" t="s">
-        <v>1574</v>
+        <v>1597</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1530</v>
+        <v>1553</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="2" t="s">
-        <v>1575</v>
+        <v>1598</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1576</v>
+        <v>1599</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="2" t="s">
-        <v>1577</v>
+        <v>1600</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1578</v>
+        <v>1601</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>1579</v>
+        <v>1602</v>
       </c>
       <c r="D818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="2" t="s">
-        <v>1580</v>
+        <v>1603</v>
       </c>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -17795,7 +17914,7 @@
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="3" t="s">
-        <v>1581</v>
+        <v>1604</v>
       </c>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -17803,51 +17922,51 @@
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2" t="s">
-        <v>1582</v>
+        <v>1605</v>
       </c>
       <c r="B821" s="2"/>
       <c r="C821" s="2" t="s">
-        <v>1545</v>
+        <v>1568</v>
       </c>
       <c r="D821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2" t="s">
-        <v>1583</v>
+        <v>1606</v>
       </c>
       <c r="B822" s="2"/>
       <c r="C822" s="2" t="s">
-        <v>1584</v>
+        <v>1607</v>
       </c>
       <c r="D822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2" t="s">
-        <v>1585</v>
+        <v>1608</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1586</v>
+        <v>1609</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>1587</v>
+        <v>1610</v>
       </c>
       <c r="D823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="2" t="s">
-        <v>1588</v>
+        <v>1611</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1589</v>
+        <v>1612</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>1587</v>
+        <v>1610</v>
       </c>
       <c r="D824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="3" t="s">
-        <v>1590</v>
+        <v>1613</v>
       </c>
       <c r="B825" s="2"/>
       <c r="C825" s="2" t="s">
@@ -17857,7 +17976,7 @@
     </row>
     <row r="826" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="3" t="s">
-        <v>1591</v>
+        <v>1614</v>
       </c>
       <c r="B826" s="2"/>
       <c r="C826" s="2" t="s">
@@ -17867,7 +17986,7 @@
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2" t="s">
-        <v>1592</v>
+        <v>1615</v>
       </c>
       <c r="B827" s="2"/>
       <c r="C827" s="2" t="s">
@@ -17877,172 +17996,172 @@
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2" t="s">
-        <v>1593</v>
+        <v>1616</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1594</v>
+        <v>1617</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2" t="s">
-        <v>1595</v>
+        <v>1618</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2" t="s">
-        <v>1115</v>
+        <v>1138</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1060</v>
+        <v>1083</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="2" t="s">
-        <v>1596</v>
+        <v>1619</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1597</v>
+        <v>1620</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="2" t="s">
-        <v>1598</v>
+        <v>1621</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1599</v>
+        <v>1622</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2" t="s">
-        <v>1600</v>
+        <v>1623</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1601</v>
+        <v>1624</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2" t="s">
-        <v>1602</v>
+        <v>1625</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1603</v>
+        <v>1626</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1604</v>
+        <v>1627</v>
       </c>
       <c r="D834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="2" t="s">
-        <v>1605</v>
+        <v>1628</v>
       </c>
       <c r="B835" s="2"/>
       <c r="C835" s="2" t="s">
-        <v>1606</v>
+        <v>1629</v>
       </c>
       <c r="D835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2" t="s">
-        <v>1607</v>
+        <v>1630</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1608</v>
+        <v>1631</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2" t="s">
-        <v>1609</v>
+        <v>1632</v>
       </c>
       <c r="B837" s="2"/>
       <c r="C837" s="2" t="s">
-        <v>1610</v>
+        <v>1633</v>
       </c>
       <c r="D837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="2" t="s">
-        <v>1611</v>
+        <v>1634</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1612</v>
+        <v>1635</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="2" t="s">
-        <v>1613</v>
+        <v>1636</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1614</v>
+        <v>1637</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="2" t="s">
-        <v>1615</v>
+        <v>1638</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1616</v>
+        <v>1639</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2" t="s">
-        <v>1617</v>
+        <v>1640</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1618</v>
+        <v>1641</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2" t="s">
-        <v>1619</v>
+        <v>1642</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1620</v>
+        <v>1643</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="2" t="s">
-        <v>1621</v>
+        <v>1644</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1622</v>
+        <v>1645</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="3" t="s">
-        <v>1623</v>
+        <v>1646</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1624</v>
+        <v>1647</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -18050,15 +18169,15 @@
         <v>73</v>
       </c>
       <c r="F844" s="0" t="s">
-        <v>1625</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="2" t="s">
-        <v>1626</v>
+        <v>1649</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1627</v>
+        <v>1650</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -18066,63 +18185,63 @@
         <v>73</v>
       </c>
       <c r="F845" s="0" t="s">
-        <v>1628</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="2" t="s">
-        <v>1629</v>
+        <v>1652</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1630</v>
+        <v>1653</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F846" s="4" t="s">
-        <v>1632</v>
+        <v>1654</v>
+      </c>
+      <c r="F846" s="7" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="2" t="s">
-        <v>1633</v>
+        <v>1656</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1634</v>
+        <v>1657</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F847" s="5" t="s">
-        <v>1636</v>
+        <v>1658</v>
+      </c>
+      <c r="F847" s="8" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="2" t="s">
-        <v>1637</v>
+        <v>1660</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1157</v>
+        <v>1180</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F848" s="6" t="s">
-        <v>1638</v>
+      <c r="F848" s="9" t="s">
+        <v>1661</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2" t="s">
-        <v>1639</v>
+        <v>1662</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1640</v>
+        <v>1663</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -18130,15 +18249,15 @@
         <v>56</v>
       </c>
       <c r="F849" s="0" t="s">
-        <v>1641</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="3" t="s">
-        <v>1642</v>
+        <v>1665</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1643</v>
+        <v>1666</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -18146,15 +18265,15 @@
         <v>56</v>
       </c>
       <c r="F850" s="0" t="s">
-        <v>1644</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2" t="s">
-        <v>1645</v>
+        <v>1668</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1646</v>
+        <v>1669</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -18162,23 +18281,23 @@
         <v>73</v>
       </c>
       <c r="F851" s="0" t="s">
-        <v>1647</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2" t="s">
-        <v>1648</v>
+        <v>1671</v>
       </c>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="1" t="s">
-        <v>1631</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="2" t="s">
-        <v>1649</v>
+        <v>1672</v>
       </c>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -18186,13 +18305,13 @@
       <c r="E853" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F853" s="4" t="s">
-        <v>1650</v>
+      <c r="F853" s="7" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="2" t="s">
-        <v>1651</v>
+        <v>1674</v>
       </c>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -18200,13 +18319,13 @@
       <c r="E854" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F854" s="7" t="s">
-        <v>1652</v>
+      <c r="F854" s="10" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2" t="s">
-        <v>1653</v>
+        <v>1676</v>
       </c>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -18214,13 +18333,13 @@
       <c r="E855" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F855" s="6" t="s">
-        <v>1654</v>
+      <c r="F855" s="9" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2" t="s">
-        <v>1655</v>
+        <v>1678</v>
       </c>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -18229,33 +18348,33 @@
         <v>122</v>
       </c>
       <c r="F856" s="0" t="s">
-        <v>1656</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2" t="s">
-        <v>1657</v>
+        <v>1680</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1658</v>
+        <v>1681</v>
       </c>
       <c r="C857" s="2" t="s">
-        <v>1659</v>
+        <v>1682</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F857" s="0" t="s">
-        <v>1660</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="2" t="s">
-        <v>1661</v>
+        <v>1684</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>1662</v>
+        <v>1685</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -18263,15 +18382,15 @@
         <v>56</v>
       </c>
       <c r="F858" s="0" t="s">
-        <v>1663</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="2" t="s">
-        <v>1664</v>
+        <v>1687</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1665</v>
+        <v>1688</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -18279,62 +18398,62 @@
         <v>56</v>
       </c>
       <c r="F859" s="0" t="s">
-        <v>1666</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="2" t="s">
-        <v>1667</v>
+        <v>1690</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1668</v>
+        <v>1691</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F860" s="5" t="s">
-        <v>1669</v>
+        <v>1658</v>
+      </c>
+      <c r="F860" s="8" t="s">
+        <v>1692</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2" t="s">
-        <v>1670</v>
+        <v>1693</v>
       </c>
       <c r="B861" s="2"/>
       <c r="C861" s="2" t="s">
-        <v>1671</v>
+        <v>1694</v>
       </c>
       <c r="D861" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>1631</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="2" t="s">
-        <v>1672</v>
+        <v>1695</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1673</v>
+        <v>1696</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F862" s="6" t="s">
-        <v>1674</v>
+      <c r="F862" s="9" t="s">
+        <v>1697</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2" t="s">
-        <v>1675</v>
+        <v>1698</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1676</v>
+        <v>1699</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -18342,156 +18461,156 @@
         <v>73</v>
       </c>
       <c r="F863" s="0" t="s">
-        <v>1677</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2" t="s">
-        <v>1678</v>
+        <v>1701</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1679</v>
+        <v>1702</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="1" t="s">
-        <v>1631</v>
+        <v>1654</v>
       </c>
       <c r="F864" s="0" t="s">
-        <v>1680</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2" t="s">
-        <v>1681</v>
+        <v>1704</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1682</v>
+        <v>1705</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F865" s="6" t="s">
-        <v>1683</v>
+      <c r="F865" s="9" t="s">
+        <v>1706</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2" t="s">
-        <v>1684</v>
+        <v>1707</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1685</v>
+        <v>1708</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>1686</v>
+        <v>1709</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F866" s="0" t="s">
-        <v>1687</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="2" t="s">
-        <v>1688</v>
+        <v>1711</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1689</v>
+        <v>1712</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F867" s="6" t="s">
-        <v>1690</v>
+      <c r="F867" s="9" t="s">
+        <v>1713</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="s">
-        <v>1691</v>
+        <v>1714</v>
       </c>
       <c r="B868" s="2"/>
       <c r="C868" s="2" t="s">
-        <v>1692</v>
+        <v>1715</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F868" s="0" t="s">
-        <v>1693</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="3" t="s">
-        <v>1694</v>
+        <v>1717</v>
       </c>
       <c r="B869" s="2"/>
       <c r="C869" s="2" t="s">
-        <v>1695</v>
+        <v>1718</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" s="1" t="s">
-        <v>1696</v>
+        <v>1719</v>
       </c>
       <c r="F869" s="0" t="s">
-        <v>1697</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2" t="s">
-        <v>1698</v>
+        <v>1721</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1699</v>
+        <v>1722</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F870" s="6" t="s">
-        <v>1700</v>
+      <c r="F870" s="9" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2" t="s">
-        <v>1701</v>
+        <v>1724</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1702</v>
+        <v>1725</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="1" t="s">
-        <v>1635</v>
+        <v>1658</v>
       </c>
       <c r="F871" s="0" t="s">
-        <v>1703</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2" t="s">
-        <v>1704</v>
+        <v>1727</v>
       </c>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F872" s="4" t="s">
-        <v>1705</v>
+        <v>1654</v>
+      </c>
+      <c r="F872" s="7" t="s">
+        <v>1728</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2" t="s">
-        <v>1706</v>
+        <v>1729</v>
       </c>
       <c r="B873" s="2"/>
       <c r="C873" s="2" t="s">
@@ -18504,28 +18623,28 @@
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2" t="s">
-        <v>1707</v>
+        <v>1730</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1708</v>
+        <v>1731</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F874" s="6" t="s">
-        <v>1710</v>
+        <v>1732</v>
+      </c>
+      <c r="F874" s="9" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2" t="s">
-        <v>1711</v>
+        <v>1734</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1712</v>
+        <v>1735</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>366</v>
@@ -18534,67 +18653,67 @@
       <c r="E875" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F875" s="6" t="s">
-        <v>1713</v>
+      <c r="F875" s="9" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="2" t="s">
-        <v>1714</v>
+        <v>1737</v>
       </c>
       <c r="B876" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1715</v>
+        <v>1738</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F876" s="6" t="s">
-        <v>1716</v>
+      <c r="F876" s="9" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2" t="s">
-        <v>1717</v>
+        <v>1740</v>
       </c>
       <c r="B877" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>1718</v>
+        <v>1741</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F877" s="6" t="s">
-        <v>1719</v>
+      <c r="F877" s="9" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2" t="s">
-        <v>1720</v>
+        <v>1743</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1721</v>
+        <v>1744</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1722</v>
+        <v>1745</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F878" s="5" t="s">
-        <v>1723</v>
+      <c r="F878" s="8" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2" t="s">
-        <v>1724</v>
+        <v>1747</v>
       </c>
       <c r="B879" s="2" t="s">
         <v>435</v>
@@ -18606,412 +18725,412 @@
       <c r="E879" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F879" s="6" t="s">
-        <v>1725</v>
+      <c r="F879" s="9" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2" t="s">
-        <v>1726</v>
+        <v>1749</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1727</v>
+        <v>1750</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>1728</v>
+        <v>1751</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F880" s="6" t="s">
-        <v>1729</v>
+      <c r="F880" s="9" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2" t="s">
-        <v>1730</v>
+        <v>1753</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1731</v>
+        <v>1754</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1732</v>
+        <v>1755</v>
       </c>
       <c r="D881" s="2"/>
       <c r="E881" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F881" s="6" t="s">
-        <v>1733</v>
+      <c r="F881" s="9" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2" t="s">
-        <v>1734</v>
+        <v>1757</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1735</v>
+        <v>1758</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D882" s="2"/>
       <c r="E882" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F882" s="6" t="s">
-        <v>1736</v>
+        <v>1654</v>
+      </c>
+      <c r="F882" s="9" t="s">
+        <v>1759</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2" t="s">
-        <v>1737</v>
+        <v>1760</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1738</v>
+        <v>1761</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>1739</v>
+        <v>1762</v>
       </c>
       <c r="D883" s="2"/>
       <c r="E883" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F883" s="6" t="s">
-        <v>1740</v>
+      <c r="F883" s="9" t="s">
+        <v>1763</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="2" t="s">
-        <v>1741</v>
+        <v>1764</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1742</v>
+        <v>1765</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>1743</v>
+        <v>1766</v>
       </c>
       <c r="D884" s="2"/>
       <c r="E884" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F884" s="6" t="s">
-        <v>1744</v>
+      <c r="F884" s="9" t="s">
+        <v>1767</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="2" t="s">
-        <v>1745</v>
+        <v>1768</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1746</v>
+        <v>1769</v>
       </c>
       <c r="C885" s="2" t="s">
-        <v>1747</v>
+        <v>1770</v>
       </c>
       <c r="D885" s="2"/>
       <c r="E885" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F885" s="8" t="s">
-        <v>1748</v>
+        <v>1654</v>
+      </c>
+      <c r="F885" s="11" t="s">
+        <v>1771</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2" t="s">
-        <v>1749</v>
+        <v>1772</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1750</v>
+        <v>1773</v>
       </c>
       <c r="C886" s="2" t="s">
-        <v>1751</v>
+        <v>1774</v>
       </c>
       <c r="D886" s="2"/>
       <c r="E886" s="1" t="s">
-        <v>1631</v>
+        <v>1654</v>
       </c>
       <c r="F886" s="0" t="s">
-        <v>1752</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2" t="s">
-        <v>1753</v>
+        <v>1776</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1754</v>
+        <v>1777</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>1747</v>
+        <v>1770</v>
       </c>
       <c r="D887" s="2"/>
       <c r="E887" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F887" s="6" t="s">
-        <v>1755</v>
+      <c r="F887" s="9" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2" t="s">
-        <v>1756</v>
+        <v>1779</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1757</v>
+        <v>1780</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F888" s="4" t="s">
-        <v>1758</v>
+      <c r="F888" s="7" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2" t="s">
-        <v>1759</v>
+        <v>1782</v>
       </c>
       <c r="B889" s="2"/>
       <c r="C889" s="2" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="D889" s="2"/>
       <c r="E889" s="1" t="s">
-        <v>1635</v>
+        <v>1658</v>
       </c>
       <c r="F889" s="0" t="s">
-        <v>1761</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="2" t="s">
-        <v>1762</v>
+        <v>1785</v>
       </c>
       <c r="B890" s="2"/>
       <c r="C890" s="2" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F890" s="7" t="s">
-        <v>1763</v>
+        <v>1658</v>
+      </c>
+      <c r="F890" s="10" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="2" t="s">
-        <v>1764</v>
+        <v>1787</v>
       </c>
       <c r="B891" s="2"/>
       <c r="C891" s="2" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="D891" s="2"/>
       <c r="E891" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F891" s="7" t="s">
-        <v>1765</v>
+        <v>1658</v>
+      </c>
+      <c r="F891" s="10" t="s">
+        <v>1788</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="2" t="s">
-        <v>1766</v>
+        <v>1789</v>
       </c>
       <c r="B892" s="2"/>
       <c r="C892" s="2" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="D892" s="2"/>
       <c r="E892" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F892" s="7" t="s">
-        <v>1767</v>
+        <v>1658</v>
+      </c>
+      <c r="F892" s="10" t="s">
+        <v>1790</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2" t="s">
-        <v>1768</v>
+        <v>1791</v>
       </c>
       <c r="B893" s="2"/>
       <c r="C893" s="2" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="D893" s="2"/>
       <c r="E893" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F893" s="7" t="s">
-        <v>1769</v>
+        <v>1658</v>
+      </c>
+      <c r="F893" s="10" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2" t="s">
-        <v>1770</v>
+        <v>1793</v>
       </c>
       <c r="B894" s="2"/>
       <c r="C894" s="2" t="s">
-        <v>1760</v>
+        <v>1783</v>
       </c>
       <c r="D894" s="2"/>
       <c r="E894" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F894" s="7" t="s">
-        <v>1771</v>
+        <v>1658</v>
+      </c>
+      <c r="F894" s="10" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="2" t="s">
-        <v>1772</v>
+        <v>1795</v>
       </c>
       <c r="B895" s="2"/>
       <c r="C895" s="2" t="s">
-        <v>1773</v>
+        <v>1796</v>
       </c>
       <c r="D895" s="2"/>
       <c r="E895" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F895" s="6" t="s">
-        <v>1774</v>
+        <v>1719</v>
+      </c>
+      <c r="F895" s="9" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2" t="s">
-        <v>1775</v>
+        <v>1798</v>
       </c>
       <c r="B896" s="2"/>
       <c r="C896" s="2" t="s">
-        <v>1773</v>
+        <v>1796</v>
       </c>
       <c r="D896" s="2"/>
       <c r="E896" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="F896" s="6" t="s">
-        <v>1776</v>
+        <v>1719</v>
+      </c>
+      <c r="F896" s="9" t="s">
+        <v>1799</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2" t="s">
-        <v>1777</v>
+        <v>1800</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1778</v>
+        <v>1801</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D897" s="2"/>
       <c r="E897" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F897" s="6" t="s">
-        <v>1779</v>
+        <v>1658</v>
+      </c>
+      <c r="F897" s="9" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="2" t="s">
-        <v>1780</v>
+        <v>1803</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1781</v>
+        <v>1804</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>1782</v>
+        <v>1805</v>
       </c>
       <c r="D898" s="2"/>
       <c r="E898" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F898" s="6" t="s">
-        <v>1783</v>
+      <c r="F898" s="9" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2" t="s">
-        <v>1784</v>
+        <v>1807</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1785</v>
+        <v>1808</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>1786</v>
+        <v>1809</v>
       </c>
       <c r="D899" s="2"/>
       <c r="E899" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F899" s="6" t="s">
-        <v>1787</v>
+        <v>1658</v>
+      </c>
+      <c r="F899" s="9" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="2" t="s">
-        <v>1788</v>
+        <v>1811</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1789</v>
+        <v>1812</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1790</v>
+        <v>1813</v>
       </c>
       <c r="D900" s="2"/>
       <c r="E900" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F900" s="0" t="s">
-        <v>1791</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2" t="s">
-        <v>1792</v>
+        <v>1815</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1793</v>
+        <v>1816</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1794</v>
+        <v>1817</v>
       </c>
       <c r="D901" s="2"/>
       <c r="E901" s="1" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F901" s="6" t="s">
-        <v>1796</v>
+        <v>1818</v>
+      </c>
+      <c r="F901" s="9" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2" t="s">
-        <v>1797</v>
+        <v>1820</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1798</v>
+        <v>1821</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1799</v>
+        <v>1822</v>
       </c>
       <c r="D902" s="2"/>
       <c r="E902" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F902" s="0" t="s">
-        <v>1800</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2" t="s">
-        <v>1801</v>
+        <v>1824</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1802</v>
+        <v>1825</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>26</v>
@@ -19020,70 +19139,70 @@
       <c r="E903" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F903" s="6" t="s">
-        <v>1803</v>
+      <c r="F903" s="9" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2" t="s">
-        <v>1804</v>
+        <v>1827</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1805</v>
+        <v>1828</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1806</v>
+        <v>1829</v>
       </c>
       <c r="D904" s="2"/>
       <c r="E904" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F904" s="6" t="s">
-        <v>1807</v>
+        <v>1654</v>
+      </c>
+      <c r="F904" s="9" t="s">
+        <v>1830</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2" t="s">
-        <v>1808</v>
+        <v>1831</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1809</v>
+        <v>1832</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1810</v>
+        <v>1833</v>
       </c>
       <c r="D905" s="2"/>
       <c r="E905" s="1" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F905" s="6" t="s">
-        <v>1812</v>
+        <v>1834</v>
+      </c>
+      <c r="F905" s="9" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="2" t="s">
-        <v>1813</v>
+        <v>1836</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1814</v>
+        <v>1837</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D906" s="2"/>
       <c r="E906" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="F906" s="9" t="s">
-        <v>1815</v>
+        <v>1658</v>
+      </c>
+      <c r="F906" s="12" t="s">
+        <v>1838</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="2" t="s">
-        <v>1816</v>
+        <v>1839</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1817</v>
+        <v>1840</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>294</v>
@@ -19092,34 +19211,34 @@
       <c r="E907" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F907" s="6" t="s">
-        <v>1818</v>
+      <c r="F907" s="9" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2" t="s">
-        <v>1819</v>
+        <v>1842</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1820</v>
+        <v>1843</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D908" s="2"/>
       <c r="E908" s="1" t="s">
-        <v>1631</v>
+        <v>1654</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>1821</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2" t="s">
-        <v>1822</v>
+        <v>1845</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1823</v>
+        <v>1846</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>366</v>
@@ -19128,34 +19247,34 @@
       <c r="E909" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F909" s="10" t="s">
-        <v>1824</v>
+      <c r="F909" s="13" t="s">
+        <v>1847</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="2" t="s">
-        <v>1825</v>
+        <v>1848</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1826</v>
+        <v>1849</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D910" s="2"/>
       <c r="E910" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F910" s="10" t="s">
-        <v>1827</v>
+        <v>1654</v>
+      </c>
+      <c r="F910" s="13" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="2" t="s">
-        <v>1828</v>
+        <v>1851</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1829</v>
+        <v>1852</v>
       </c>
       <c r="C911" s="2" t="s">
         <v>729</v>
@@ -19164,16 +19283,16 @@
       <c r="E911" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F911" s="10" t="s">
-        <v>1830</v>
+      <c r="F911" s="13" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2" t="s">
-        <v>1831</v>
+        <v>1854</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1322</v>
+        <v>1345</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>64</v>
@@ -19182,26 +19301,26 @@
       <c r="E912" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F912" s="10" t="s">
-        <v>1832</v>
+      <c r="F912" s="13" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2" t="s">
-        <v>1833</v>
+        <v>1856</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1834</v>
+        <v>1857</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1835</v>
+        <v>1858</v>
       </c>
       <c r="D913" s="2"/>
       <c r="E913" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="F913" s="11" t="s">
-        <v>1836</v>
+        <v>1654</v>
+      </c>
+      <c r="F913" s="14" t="s">
+        <v>1859</v>
       </c>
     </row>
   </sheetData>

--- a/data/livres.xlsx
+++ b/data/livres.xlsx
@@ -6043,9 +6043,9 @@
   <dimension ref="A1:G913"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A887" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A756" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F917" activeCellId="0" sqref="F917"/>
+      <selection pane="bottomLeft" activeCell="F768" activeCellId="0" sqref="F768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/livres.xlsx
+++ b/data/livres.xlsx
@@ -6042,10 +6042,10 @@
   </sheetPr>
   <dimension ref="A1:G913"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A756" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F768" activeCellId="0" sqref="F768"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F917" activeCellId="0" sqref="F917"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/livres.xlsx
+++ b/data/livres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="1862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="1878">
   <si>
     <t xml:space="preserve">titre</t>
   </si>
@@ -2182,6 +2182,12 @@
     <t xml:space="preserve">La traversée</t>
   </si>
   <si>
+    <t xml:space="preserve">Biographie et mémoires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'expérience singulière de "mort approchée" de l'auteur lorsque, en réanimation, il découvre un monde surnaturel et privé de repères. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Au nom du président</t>
   </si>
   <si>
@@ -2191,6 +2197,9 @@
     <t xml:space="preserve">Toucan noir</t>
   </si>
   <si>
+    <t xml:space="preserve">Alors qu'un candidat libéral affronte un membre de la droite dure lié aux milieux pétroliers pour l'élection présidentielle américaine, un milliardaire arabe extrémiste décide de détruire Israël et les Etats-Unis. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Bye bye crazy girl</t>
   </si>
   <si>
@@ -2200,37 +2209,79 @@
     <t xml:space="preserve">La Martinière</t>
   </si>
   <si>
+    <t xml:space="preserve">Perry Stormaire se retrouve embarqué dans une course-poursuite meurtrière avec Gobi, jeune fille au pair lituanienne en réalité tueuse à gages sous couverture venue venger la mort de sa sœur. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Le fantôme de la Mary Celeste</t>
   </si>
   <si>
     <t xml:space="preserve">Valerie Martin</t>
   </si>
   <si>
+    <t xml:space="preserve">L'histoire revisitée du navire la Mary Celeste, retrouvé vide à la dérive en 1872. Un mystère qui captive la médium Violet Petra, l'écrivain Arthur Conan Doyle et le public de l'époque. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Les promesses de la magie</t>
   </si>
   <si>
+    <t xml:space="preserve">Lorsque deux sauveteurs découvrent une scène de massacre dans le palais de ses parents, le jeune Tashir, doté de pouvoir magiques, est le premier suspect. Vanyel va tout faire pour prouver son innocence. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abel, enfant sauvage recueilli par deux frères pendant la guerre, découvre la violence prédatrice des hommes. Le lien qu'il garde avec la nature et l'espèce animale le préserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les voix entremêlées et les errances de deux jeunes de notre époque, paumés et en quête de repères dans une société gouvernée par l'argent et les réseaux sociaux. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Catherine Hermary-Vieille</t>
   </si>
   <si>
+    <t xml:space="preserve">Le chevalier d'Eon : un nom familier qui a pourtant conservé tout son mystère. Diplomate, officier, redoutable bretteur, cavalier hors pair ou femme séduisante, intrigante, habile, émissaire clandestine du roi Louis XV ? </t>
+  </si>
+  <si>
     <t xml:space="preserve">Les enquêtes de Setna : Le duel des mages</t>
   </si>
   <si>
     <t xml:space="preserve">XOeditions</t>
   </si>
   <si>
+    <t xml:space="preserve">Le prince Setna est sur le point de retrouver sa fiancée Sékhet, qui se cache dans Memphis pour échapper aux tueurs. Mais le mage noir, Kékou, réussit à le devancer. Il kidnappe la jeune femme afin de s’emparer de son âme. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Les enquêtes de Setna : Le voleur d'âmes</t>
   </si>
   <si>
+    <t xml:space="preserve">Alors que tous pensent que Setna a péri noyé, il navigue vers la cité sacrée de la déesse-Chatte, espérant y découvrir le vase d'Osiris, sans lequel il ne peut arrêter le mage noir. Malheureusement, le voilà en proie à une illusion mortelle.... </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ramsès : sous l'acacia d'Occident</t>
   </si>
   <si>
+    <t xml:space="preserve">Le cinquième tome de la saga Ramsès, relatant sous forme romancée la vie d'un des plus grands pharaons de l'histoire. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Les enquêtes de Setna : Le livre interdit</t>
   </si>
   <si>
+    <t xml:space="preserve">Le prince Setna, fils cadet de Ramsès II, doit se rendre à la capitale pour questionner son père sur la disparition du vase scellé d’Osiris, un vase unique qui contient le secret de la vie et de la mort. Mais le chemin pour le retrouver est criblé de dangers et rien n’indique que Pharaon acceptera de lui confier la vérité. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaspard Sauvage, dit le Zèbre, refuse de croire au déclin des passions. Quinze ans après avoir épousé Camille, il décide de ressusciter l'ardeur des premiers temps de leur liaison et part à la reconquête de sa femme. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruxandra, paysanne roumaine devenue nounou en Angleterre, se retrouve au cœur des enjeux politiques et financiers de l'Europe lorsque son employeur prend part à un vaste projet européen d'autoroute. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Poursuite au Colorado</t>
   </si>
   <si>
     <t xml:space="preserve">Western</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Danaborn et son père, las de leur vie de vagabonds, s'installent dans la vallée de McVey. Mais McVey est un un homme vicieux, et qui n'hésite pas à recourir au crime pour défendre ses terres. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le destin brisé d'un jeune poilu traumatisé par la guerre de 14-18.</t>
   </si>
   <si>
     <t xml:space="preserve">un mariage anglais</t>
@@ -5030,9 +5081,6 @@
     <t xml:space="preserve">Albert Speer</t>
   </si>
   <si>
-    <t xml:space="preserve">Biographie et mémoires</t>
-  </si>
-  <si>
     <t xml:space="preserve">Architecte, ministre de l’Armement du Reich et confident d’Hitler, Albert Speer est jugé avec les autres dignitaires nazis lors du procès de Nuremberg en 1946. En détention, il couche sur papiers ses souvenirs et observations.</t>
   </si>
   <si>
@@ -5655,7 +5703,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5692,6 +5740,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5790,7 +5844,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5811,23 +5865,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5835,7 +5885,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5843,11 +5893,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6042,10 +6100,10 @@
   </sheetPr>
   <dimension ref="A1:G913"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A360" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F366" activeCellId="0" sqref="F366"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F315" activeCellId="0" sqref="F315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6055,7 +6113,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="217.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="12.8"/>
   </cols>
   <sheetData>
@@ -11569,54 +11627,63 @@
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>148</v>
+        <v>710</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G300" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F301" s="2" t="s">
-        <v>148</v>
+      <c r="F301" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="G301" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F302" s="2" t="s">
-        <v>148</v>
+      <c r="F302" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="G302" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>193</v>
@@ -11625,13 +11692,16 @@
       <c r="E303" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F303" s="2" t="s">
-        <v>148</v>
+      <c r="F303" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="G303" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>511</v>
@@ -11643,8 +11713,11 @@
       <c r="E304" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F304" s="2" t="s">
-        <v>148</v>
+      <c r="F304" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="G304" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11661,8 +11734,11 @@
       <c r="E305" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F305" s="2" t="s">
-        <v>148</v>
+      <c r="F305" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G305" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11679,8 +11755,11 @@
       <c r="E306" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F306" s="2" t="s">
-        <v>148</v>
+      <c r="F306" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G306" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11688,7 +11767,7 @@
         <v>497</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>193</v>
@@ -11697,49 +11776,58 @@
       <c r="E307" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F307" s="2" t="s">
-        <v>148</v>
+      <c r="F307" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G307" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>495</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F308" s="2" t="s">
-        <v>148</v>
+        <v>24</v>
+      </c>
+      <c r="F308" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="G308" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>495</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F309" s="2" t="s">
-        <v>148</v>
+        <v>24</v>
+      </c>
+      <c r="F309" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="G309" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>495</v>
@@ -11751,13 +11839,16 @@
       <c r="E310" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F310" s="2" t="s">
-        <v>148</v>
+      <c r="F310" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G310" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>495</v>
@@ -11767,10 +11858,13 @@
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F311" s="2" t="s">
-        <v>148</v>
+        <v>24</v>
+      </c>
+      <c r="F311" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="G311" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11787,8 +11881,11 @@
       <c r="E312" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F312" s="2" t="s">
-        <v>148</v>
+      <c r="F312" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="G312" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,26 +11902,32 @@
       <c r="E313" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F313" s="2" t="s">
-        <v>148</v>
+      <c r="F313" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="G313" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>480</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F314" s="2" t="s">
-        <v>148</v>
+      <c r="F314" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="G314" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11842,7 +11945,7 @@
         <v>10</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>148</v>
+        <v>743</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11865,7 +11968,7 @@
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>488</v>
@@ -11889,7 +11992,7 @@
         <v>486</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2" t="s">
@@ -11901,7 +12004,7 @@
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>483</v>
@@ -11937,13 +12040,13 @@
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>468</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2" t="s">
@@ -11976,7 +12079,7 @@
         <v>472</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>474</v>
@@ -11991,10 +12094,10 @@
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>66</v>
@@ -12033,7 +12136,7 @@
         <v>463</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2" t="s">
@@ -12066,7 +12169,7 @@
         <v>457</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>296</v>
@@ -12081,7 +12184,7 @@
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>456</v>
@@ -12099,13 +12202,13 @@
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2" t="s">
@@ -12117,13 +12220,13 @@
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2" t="s">
@@ -12138,10 +12241,10 @@
         <v>450</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2" t="s">
@@ -12153,13 +12256,13 @@
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2" t="s">
@@ -12171,13 +12274,13 @@
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>446</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2" t="s">
@@ -12189,7 +12292,7 @@
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
-        <v>749</v>
+        <v>766</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>443</v>
@@ -12207,7 +12310,7 @@
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
-        <v>750</v>
+        <v>767</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>440</v>
@@ -12243,13 +12346,13 @@
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
-        <v>751</v>
+        <v>768</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2" t="s">
@@ -12267,7 +12370,7 @@
         <v>432</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2" t="s">
@@ -12279,11 +12382,11 @@
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
-        <v>748</v>
+        <v>765</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2" t="s">
@@ -12292,19 +12395,16 @@
       <c r="F340" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G340" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2" t="s">
@@ -12313,19 +12413,16 @@
       <c r="F341" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G341" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>424</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2" t="s">
@@ -12333,9 +12430,6 @@
       </c>
       <c r="F342" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="G342" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12346,14 +12440,14 @@
         <v>422</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>759</v>
+        <v>776</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>12</v>
@@ -12361,20 +12455,20 @@
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="G344" s="0" t="s">
         <v>12</v>
@@ -12382,20 +12476,20 @@
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -12414,7 +12508,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="G346" s="0" t="s">
         <v>12</v>
@@ -12435,7 +12529,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="G347" s="0" t="s">
         <v>12</v>
@@ -12443,20 +12537,20 @@
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>410</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F348" s="4" t="s">
-        <v>770</v>
+      <c r="F348" s="6" t="s">
+        <v>787</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -12464,20 +12558,20 @@
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="G349" s="0" t="s">
         <v>12</v>
@@ -12488,17 +12582,17 @@
         <v>403</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="G350" s="0" t="s">
         <v>12</v>
@@ -12512,14 +12606,14 @@
         <v>401</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="G351" s="0" t="s">
         <v>12</v>
@@ -12530,7 +12624,7 @@
         <v>397</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>399</v>
@@ -12540,7 +12634,7 @@
         <v>10</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="G352" s="0" t="s">
         <v>12</v>
@@ -12548,20 +12642,20 @@
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>396</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>12</v>
@@ -12575,14 +12669,14 @@
         <v>392</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="G354" s="0" t="s">
         <v>12</v>
@@ -12590,20 +12684,20 @@
     </row>
     <row r="355" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F355" s="5" t="s">
-        <v>788</v>
+      <c r="F355" s="7" t="s">
+        <v>805</v>
       </c>
       <c r="G355" s="0" t="s">
         <v>12</v>
@@ -12611,20 +12705,20 @@
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="G356" s="0" t="s">
         <v>12</v>
@@ -12632,20 +12726,20 @@
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="G357" s="0" t="s">
         <v>12</v>
@@ -12653,20 +12747,20 @@
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="G358" s="0" t="s">
         <v>12</v>
@@ -12674,20 +12768,20 @@
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>694</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="F359" s="6" t="s">
-        <v>803</v>
+        <v>817</v>
+      </c>
+      <c r="F359" s="8" t="s">
+        <v>820</v>
       </c>
       <c r="G359" s="0" t="s">
         <v>12</v>
@@ -12695,20 +12789,20 @@
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>12</v>
@@ -12716,20 +12810,20 @@
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="G361" s="0" t="s">
         <v>12</v>
@@ -12737,20 +12831,20 @@
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="G362" s="0" t="s">
         <v>12</v>
@@ -12758,10 +12852,10 @@
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>296</v>
@@ -12771,7 +12865,7 @@
         <v>10</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="G363" s="0" t="s">
         <v>12</v>
@@ -12779,20 +12873,20 @@
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F364" s="6" t="s">
-        <v>818</v>
+      <c r="F364" s="8" t="s">
+        <v>835</v>
       </c>
       <c r="G364" s="0" t="s">
         <v>12</v>
@@ -12800,20 +12894,20 @@
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="G365" s="0" t="s">
         <v>12</v>
@@ -12827,10 +12921,10 @@
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>694</v>
@@ -12839,10 +12933,10 @@
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>66</v>
@@ -12851,24 +12945,24 @@
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>28</v>
@@ -12877,22 +12971,22 @@
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>28</v>
@@ -12901,94 +12995,94 @@
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
       <c r="D375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="D376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="D377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>23</v>
@@ -12997,10 +13091,10 @@
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>62</v>
@@ -13009,7 +13103,7 @@
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>578</v>
@@ -13021,34 +13115,34 @@
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>860</v>
+        <v>877</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>379</v>
@@ -13057,70 +13151,70 @@
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="D388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="D389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>379</v>
@@ -13129,19 +13223,19 @@
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C392" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="D392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>31</v>
@@ -13153,106 +13247,106 @@
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="B395" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C395" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>865</v>
       </c>
       <c r="D395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="D397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="D399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="D400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>301</v>
@@ -13261,10 +13355,10 @@
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>564</v>
@@ -13273,10 +13367,10 @@
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>564</v>
@@ -13285,10 +13379,10 @@
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>28</v>
@@ -13297,10 +13391,10 @@
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>438</v>
@@ -13309,58 +13403,58 @@
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="D408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>909</v>
+        <v>926</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>912</v>
+        <v>929</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>171</v>
@@ -13369,106 +13463,106 @@
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>913</v>
+        <v>930</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>914</v>
+        <v>931</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>915</v>
+        <v>932</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>916</v>
+        <v>933</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="D417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>918</v>
+        <v>935</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="D418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>919</v>
+        <v>936</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="D419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>171</v>
@@ -13477,37 +13571,37 @@
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>923</v>
+        <v>940</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>924</v>
+        <v>941</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>925</v>
+        <v>942</v>
       </c>
       <c r="D421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>926</v>
+        <v>943</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>927</v>
+        <v>944</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>302</v>
@@ -13515,142 +13609,142 @@
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>928</v>
+        <v>945</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="D424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>929</v>
+        <v>946</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>930</v>
+        <v>947</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>932</v>
+        <v>949</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="D428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>933</v>
+        <v>950</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>935</v>
+        <v>952</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>936</v>
+        <v>953</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>931</v>
+        <v>948</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>937</v>
+        <v>954</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>939</v>
+        <v>956</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>940</v>
+        <v>957</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>28</v>
@@ -13659,10 +13753,10 @@
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>942</v>
+        <v>959</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>179</v>
@@ -13671,22 +13765,22 @@
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="D437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>945</v>
+        <v>962</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>946</v>
+        <v>963</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>28</v>
@@ -13695,10 +13789,10 @@
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>922</v>
+        <v>939</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>28</v>
@@ -13707,7 +13801,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>947</v>
+        <v>964</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>416</v>
@@ -13719,10 +13813,10 @@
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>948</v>
+        <v>965</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>949</v>
+        <v>966</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>66</v>
@@ -13731,10 +13825,10 @@
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>66</v>
@@ -13743,10 +13837,10 @@
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>952</v>
+        <v>969</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>951</v>
+        <v>968</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>28</v>
@@ -13755,10 +13849,10 @@
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>953</v>
+        <v>970</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>954</v>
+        <v>971</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>28</v>
@@ -13767,7 +13861,7 @@
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>955</v>
+        <v>972</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>684</v>
@@ -13779,7 +13873,7 @@
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>956</v>
+        <v>973</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>335</v>
@@ -13791,7 +13885,7 @@
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>957</v>
+        <v>974</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>335</v>
@@ -13803,40 +13897,40 @@
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>959</v>
+        <v>976</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>960</v>
+        <v>977</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>959</v>
+        <v>976</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>961</v>
+        <v>978</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>962</v>
+        <v>979</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>959</v>
+        <v>976</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>963</v>
+        <v>980</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>326</v>
@@ -13847,21 +13941,21 @@
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>964</v>
+        <v>981</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>965</v>
+        <v>982</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>966</v>
+        <v>983</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>967</v>
+        <v>984</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>529</v>
@@ -13869,10 +13963,10 @@
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>569</v>
@@ -13880,13 +13974,13 @@
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13894,7 +13988,7 @@
         <v>565</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>523</v>
@@ -13902,10 +13996,10 @@
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>974</v>
+        <v>991</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>975</v>
+        <v>992</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>569</v>
@@ -13913,7 +14007,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>244</v>
@@ -13924,40 +14018,40 @@
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>978</v>
+        <v>995</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>979</v>
+        <v>996</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>978</v>
+        <v>995</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>979</v>
+        <v>996</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>981</v>
+        <v>998</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>982</v>
+        <v>999</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>983</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>984</v>
+        <v>1001</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>587</v>
@@ -13968,10 +14062,10 @@
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>985</v>
+        <v>1002</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>564</v>
@@ -13979,7 +14073,7 @@
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>987</v>
+        <v>1004</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>661</v>
@@ -13990,7 +14084,7 @@
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>609</v>
@@ -14001,7 +14095,7 @@
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>224</v>
@@ -14012,29 +14106,29 @@
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>993</v>
+        <v>1010</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>994</v>
+        <v>1011</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>640</v>
@@ -14051,56 +14145,56 @@
         <v>365</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>998</v>
+        <v>1015</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>960</v>
+        <v>977</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>104</v>
@@ -14111,54 +14205,54 @@
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1006</v>
+        <v>1023</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>1007</v>
+        <v>1024</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1008</v>
+        <v>1025</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>1009</v>
+        <v>1026</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1010</v>
+        <v>1027</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>1011</v>
+        <v>1028</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1012</v>
+        <v>1029</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>1013</v>
+        <v>1030</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1014</v>
+        <v>1031</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>675</v>
@@ -14166,7 +14260,7 @@
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>258</v>
@@ -14177,10 +14271,10 @@
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>675</v>
@@ -14188,10 +14282,10 @@
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>1018</v>
+        <v>1035</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1019</v>
+        <v>1036</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>675</v>
@@ -14199,7 +14293,7 @@
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>1020</v>
+        <v>1037</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>213</v>
@@ -14210,7 +14304,7 @@
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>206</v>
@@ -14221,288 +14315,288 @@
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>1024</v>
+        <v>1041</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>1025</v>
+        <v>1042</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>1026</v>
+        <v>1043</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>1027</v>
+        <v>1044</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>1028</v>
+        <v>1045</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>1029</v>
+        <v>1046</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>1030</v>
+        <v>1047</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>1031</v>
+        <v>1048</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>1032</v>
+        <v>1049</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>1034</v>
+        <v>1051</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>1035</v>
+        <v>1052</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>1036</v>
+        <v>1053</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>1037</v>
+        <v>1054</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>1038</v>
+        <v>1055</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>1039</v>
+        <v>1056</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C503" s="2" t="s">
         <v>1040</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
-        <v>1041</v>
+        <v>1058</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
-        <v>1042</v>
+        <v>1059</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>1043</v>
+        <v>1060</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>1044</v>
+        <v>1061</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>1045</v>
+        <v>1062</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>938</v>
+        <v>955</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1023</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
-        <v>1046</v>
+        <v>1063</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
-        <v>1048</v>
+        <v>1065</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
-        <v>1049</v>
+        <v>1066</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14513,202 +14607,202 @@
         <v>376</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
-        <v>1050</v>
+        <v>1067</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
-        <v>1051</v>
+        <v>1068</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
-        <v>1052</v>
+        <v>1069</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
-        <v>1053</v>
+        <v>1070</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
-        <v>1054</v>
+        <v>1071</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
-        <v>1055</v>
+        <v>1072</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
-        <v>1056</v>
+        <v>1073</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
-        <v>1057</v>
+        <v>1074</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="s">
-        <v>1058</v>
+        <v>1075</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
-        <v>1059</v>
+        <v>1076</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
-        <v>1060</v>
+        <v>1077</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>1061</v>
+        <v>1078</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
-        <v>1062</v>
+        <v>1079</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
-        <v>1063</v>
+        <v>1080</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
-        <v>1064</v>
+        <v>1081</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
-        <v>1065</v>
+        <v>1082</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
-        <v>1066</v>
+        <v>1083</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1067</v>
+        <v>1084</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1068</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
-        <v>1069</v>
+        <v>1086</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1070</v>
+        <v>1087</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>296</v>
@@ -14716,43 +14810,43 @@
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
-        <v>1071</v>
+        <v>1088</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1072</v>
+        <v>1089</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1073</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
-        <v>1074</v>
+        <v>1091</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1075</v>
+        <v>1092</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
-        <v>1076</v>
+        <v>1093</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1077</v>
+        <v>1094</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
-        <v>1078</v>
+        <v>1095</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1079</v>
+        <v>1096</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>697</v>
@@ -14760,21 +14854,21 @@
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
-        <v>1080</v>
+        <v>1097</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1081</v>
+        <v>1098</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>1082</v>
+        <v>1099</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1083</v>
+        <v>1100</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>697</v>
@@ -14782,24 +14876,24 @@
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="s">
-        <v>1084</v>
+        <v>1101</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1085</v>
+        <v>1102</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1086</v>
+        <v>1103</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1087</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
-        <v>1088</v>
+        <v>1105</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1089</v>
+        <v>1106</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>697</v>
@@ -14808,24 +14902,24 @@
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
-        <v>1090</v>
+        <v>1107</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1091</v>
+        <v>1108</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1092</v>
+        <v>1109</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1087</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
-        <v>1093</v>
+        <v>1110</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1094</v>
+        <v>1111</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>296</v>
@@ -14834,10 +14928,10 @@
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
-        <v>1095</v>
+        <v>1112</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1096</v>
+        <v>1113</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>193</v>
@@ -14846,10 +14940,10 @@
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
-        <v>1097</v>
+        <v>1114</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1098</v>
+        <v>1115</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>193</v>
@@ -14858,22 +14952,22 @@
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
-        <v>1099</v>
+        <v>1116</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1100</v>
+        <v>1117</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
-        <v>1102</v>
+        <v>1119</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1103</v>
+        <v>1120</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>296</v>
@@ -14882,31 +14976,31 @@
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
-        <v>1104</v>
+        <v>1121</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1105</v>
+        <v>1122</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
-        <v>1106</v>
+        <v>1123</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1107</v>
+        <v>1124</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
-        <v>1108</v>
+        <v>1125</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>413</v>
@@ -14918,7 +15012,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>1109</v>
+        <v>1126</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>413</v>
@@ -14930,19 +15024,19 @@
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
-        <v>1110</v>
+        <v>1127</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1111</v>
+        <v>1128</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
-        <v>1112</v>
+        <v>1129</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>413</v>
@@ -14954,10 +15048,10 @@
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
-        <v>1113</v>
+        <v>1130</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1114</v>
+        <v>1131</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>193</v>
@@ -14966,10 +15060,10 @@
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
-        <v>1115</v>
+        <v>1132</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1116</v>
+        <v>1133</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>23</v>
@@ -14978,10 +15072,10 @@
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
-        <v>1117</v>
+        <v>1134</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1118</v>
+        <v>1135</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>193</v>
@@ -14990,10 +15084,10 @@
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="s">
-        <v>1119</v>
+        <v>1136</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1120</v>
+        <v>1137</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>694</v>
@@ -15002,22 +15096,22 @@
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
-        <v>1121</v>
+        <v>1138</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
-        <v>1122</v>
+        <v>1139</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1123</v>
+        <v>1140</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>193</v>
@@ -15026,10 +15120,10 @@
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
-        <v>1124</v>
+        <v>1141</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1125</v>
+        <v>1142</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>193</v>
@@ -15038,19 +15132,19 @@
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
-        <v>1126</v>
+        <v>1143</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1127</v>
+        <v>1144</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
-        <v>1128</v>
+        <v>1145</v>
       </c>
       <c r="B559" s="2"/>
       <c r="C559" s="2" t="s">
@@ -15060,10 +15154,10 @@
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>1129</v>
+        <v>1146</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1130</v>
+        <v>1147</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>66</v>
@@ -15072,7 +15166,7 @@
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
-        <v>1131</v>
+        <v>1148</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>192</v>
@@ -15084,10 +15178,10 @@
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
-        <v>1132</v>
+        <v>1149</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1133</v>
+        <v>1150</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>193</v>
@@ -15096,7 +15190,7 @@
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
-        <v>1134</v>
+        <v>1151</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>590</v>
@@ -15108,32 +15202,32 @@
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
-        <v>1135</v>
+        <v>1152</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1136</v>
+        <v>1153</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1137</v>
+        <v>1154</v>
       </c>
       <c r="D564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
-        <v>1138</v>
+        <v>1155</v>
       </c>
       <c r="B565" s="2"/>
       <c r="C565" s="2" t="s">
-        <v>1139</v>
+        <v>1156</v>
       </c>
       <c r="D565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
-        <v>1140</v>
+        <v>1157</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1085</v>
+        <v>1102</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>368</v>
@@ -15142,10 +15236,10 @@
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
-        <v>1141</v>
+        <v>1158</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1142</v>
+        <v>1159</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>708</v>
@@ -15154,10 +15248,10 @@
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
-        <v>1143</v>
+        <v>1160</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1144</v>
+        <v>1161</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>296</v>
@@ -15166,10 +15260,10 @@
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
-        <v>1145</v>
+        <v>1162</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1144</v>
+        <v>1161</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>193</v>
@@ -15178,53 +15272,53 @@
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
-        <v>1146</v>
+        <v>1163</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1147</v>
+        <v>1164</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
-        <v>1148</v>
+        <v>1165</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
-        <v>1151</v>
+        <v>1168</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1152</v>
+        <v>1169</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1153</v>
+        <v>1170</v>
       </c>
       <c r="D572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>1154</v>
+        <v>1171</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1155</v>
+        <v>1172</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1156</v>
+        <v>1173</v>
       </c>
       <c r="D573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
-        <v>1157</v>
+        <v>1174</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>249</v>
@@ -15236,10 +15330,10 @@
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
-        <v>1158</v>
+        <v>1175</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>526</v>
@@ -15248,10 +15342,10 @@
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>1160</v>
+        <v>1177</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>526</v>
@@ -15260,10 +15354,10 @@
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
-        <v>1161</v>
+        <v>1178</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>526</v>
@@ -15272,10 +15366,10 @@
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>526</v>
@@ -15284,10 +15378,10 @@
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>1163</v>
+        <v>1180</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1164</v>
+        <v>1181</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>526</v>
@@ -15296,31 +15390,31 @@
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>1165</v>
+        <v>1182</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1166</v>
+        <v>1183</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1167</v>
+        <v>1184</v>
       </c>
       <c r="D580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>1168</v>
+        <v>1185</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1169</v>
+        <v>1186</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1170</v>
+        <v>1187</v>
       </c>
       <c r="D581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>1171</v>
+        <v>1188</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2" t="s">
@@ -15330,22 +15424,22 @@
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
-        <v>1172</v>
+        <v>1189</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1173</v>
+        <v>1190</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>1174</v>
+        <v>1191</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1175</v>
+        <v>1192</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>66</v>
@@ -15354,34 +15448,34 @@
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>1176</v>
+        <v>1193</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1177</v>
+        <v>1194</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1156</v>
+        <v>1173</v>
       </c>
       <c r="D585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>1178</v>
+        <v>1195</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1179</v>
+        <v>1196</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1180</v>
+        <v>1197</v>
       </c>
       <c r="D586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
-        <v>1181</v>
+        <v>1198</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1182</v>
+        <v>1199</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>23</v>
@@ -15390,10 +15484,10 @@
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>1183</v>
+        <v>1200</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1184</v>
+        <v>1201</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>296</v>
@@ -15402,7 +15496,7 @@
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
-        <v>1185</v>
+        <v>1202</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>558</v>
@@ -15414,22 +15508,22 @@
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>1186</v>
+        <v>1203</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1153</v>
+        <v>1170</v>
       </c>
       <c r="D590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
-        <v>1187</v>
+        <v>1204</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1188</v>
+        <v>1205</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>193</v>
@@ -15438,22 +15532,22 @@
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>1189</v>
+        <v>1206</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1190</v>
+        <v>1207</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1191</v>
+        <v>1208</v>
       </c>
       <c r="D592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>1192</v>
+        <v>1209</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1193</v>
+        <v>1210</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>296</v>
@@ -15462,10 +15556,10 @@
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>1194</v>
+        <v>1211</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1195</v>
+        <v>1212</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>193</v>
@@ -15474,10 +15568,10 @@
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>1196</v>
+        <v>1213</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1197</v>
+        <v>1214</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>694</v>
@@ -15486,10 +15580,10 @@
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>1198</v>
+        <v>1215</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1199</v>
+        <v>1216</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>66</v>
@@ -15498,10 +15592,10 @@
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
-        <v>1200</v>
+        <v>1217</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1201</v>
+        <v>1218</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>193</v>
@@ -15510,10 +15604,10 @@
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>1202</v>
+        <v>1219</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1203</v>
+        <v>1220</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>28</v>
@@ -15522,17 +15616,17 @@
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
-        <v>1204</v>
+        <v>1221</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>1206</v>
+        <v>1223</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>275</v>
@@ -15550,143 +15644,143 @@
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1208</v>
+        <v>1225</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1209</v>
+        <v>1226</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1210</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
-        <v>1211</v>
+        <v>1228</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1212</v>
+        <v>1229</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1213</v>
+        <v>1230</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1210</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>1214</v>
+        <v>1231</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1215</v>
+        <v>1232</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1216</v>
+        <v>1233</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1210</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
-        <v>1217</v>
+        <v>1234</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1219</v>
+        <v>1236</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1210</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1221</v>
+        <v>1238</v>
       </c>
       <c r="D606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
-        <v>1222</v>
+        <v>1239</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1225</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>1226</v>
+        <v>1243</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1227</v>
+        <v>1244</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1228</v>
+        <v>1245</v>
       </c>
       <c r="D608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>1229</v>
+        <v>1246</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
-        <v>1231</v>
+        <v>1248</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1232</v>
+        <v>1249</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1233</v>
+        <v>1250</v>
       </c>
       <c r="D610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="s">
-        <v>1234</v>
+        <v>1251</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1235</v>
+        <v>1252</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
-        <v>1236</v>
+        <v>1253</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1237</v>
+        <v>1254</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1238</v>
+        <v>1255</v>
       </c>
       <c r="D612" s="2"/>
     </row>
@@ -15695,7 +15789,7 @@
         <v>450</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>694</v>
@@ -15704,10 +15798,10 @@
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
-        <v>1239</v>
+        <v>1256</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1240</v>
+        <v>1257</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>28</v>
@@ -15716,22 +15810,22 @@
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
-        <v>1241</v>
+        <v>1258</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1242</v>
+        <v>1259</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1244</v>
+        <v>1261</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>28</v>
@@ -15740,10 +15834,10 @@
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="s">
-        <v>1245</v>
+        <v>1262</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1246</v>
+        <v>1263</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>28</v>
@@ -15752,22 +15846,22 @@
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
-        <v>1247</v>
+        <v>1264</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1248</v>
+        <v>1265</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1249</v>
+        <v>1266</v>
       </c>
       <c r="D618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="s">
-        <v>1250</v>
+        <v>1267</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1251</v>
+        <v>1268</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>28</v>
@@ -15776,10 +15870,10 @@
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
-        <v>1252</v>
+        <v>1269</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1253</v>
+        <v>1270</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>382</v>
@@ -15788,24 +15882,24 @@
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
-        <v>1254</v>
+        <v>1271</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1255</v>
+        <v>1272</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>564</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
-        <v>1257</v>
+        <v>1274</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1258</v>
+        <v>1275</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>193</v>
@@ -15814,34 +15908,34 @@
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
-        <v>1259</v>
+        <v>1276</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1260</v>
+        <v>1277</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="D623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
-        <v>1262</v>
+        <v>1279</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1260</v>
+        <v>1277</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1263</v>
+        <v>1280</v>
       </c>
       <c r="D624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="s">
-        <v>1264</v>
+        <v>1281</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1260</v>
+        <v>1277</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>694</v>
@@ -15850,43 +15944,43 @@
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
-        <v>1265</v>
+        <v>1282</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1267</v>
+        <v>1284</v>
       </c>
       <c r="D626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="s">
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
-        <v>1270</v>
+        <v>1287</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1271</v>
+        <v>1288</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="s">
-        <v>1021</v>
+        <v>1038</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>206</v>
@@ -15898,46 +15992,46 @@
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="s">
-        <v>1272</v>
+        <v>1289</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1012</v>
+        <v>1029</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1273</v>
+        <v>1290</v>
       </c>
       <c r="D630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="s">
-        <v>1274</v>
+        <v>1291</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1156</v>
+        <v>1173</v>
       </c>
       <c r="D631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="s">
-        <v>1275</v>
+        <v>1292</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1276</v>
+        <v>1293</v>
       </c>
       <c r="D632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2" t="s">
-        <v>1277</v>
+        <v>1294</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1278</v>
+        <v>1295</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>196</v>
@@ -15946,10 +16040,10 @@
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1280</v>
+        <v>1297</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>23</v>
@@ -15958,7 +16052,7 @@
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2" t="s">
-        <v>1281</v>
+        <v>1298</v>
       </c>
       <c r="B635" s="2" t="s">
         <v>365</v>
@@ -15970,10 +16064,10 @@
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="s">
-        <v>1282</v>
+        <v>1299</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1283</v>
+        <v>1300</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>28</v>
@@ -15982,185 +16076,185 @@
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1285</v>
+        <v>1302</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>1286</v>
+        <v>1303</v>
       </c>
       <c r="D637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="s">
-        <v>1287</v>
+        <v>1304</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2" t="s">
-        <v>1288</v>
+        <v>1305</v>
       </c>
       <c r="D638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="s">
-        <v>1289</v>
+        <v>1306</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2" t="s">
-        <v>1288</v>
+        <v>1305</v>
       </c>
       <c r="D639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="s">
-        <v>1290</v>
+        <v>1307</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2" t="s">
-        <v>1288</v>
+        <v>1305</v>
       </c>
       <c r="D640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="s">
-        <v>1291</v>
+        <v>1308</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2" t="s">
-        <v>1288</v>
+        <v>1305</v>
       </c>
       <c r="D641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1293</v>
+        <v>1310</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="s">
-        <v>1295</v>
+        <v>1312</v>
       </c>
       <c r="B643" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="s">
-        <v>1296</v>
+        <v>1313</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1297</v>
+        <v>1314</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="s">
-        <v>1298</v>
+        <v>1315</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1299</v>
+        <v>1316</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1300</v>
+        <v>1317</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="s">
-        <v>1301</v>
+        <v>1318</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1302</v>
+        <v>1319</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2" t="s">
-        <v>1303</v>
+        <v>1320</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1306</v>
+        <v>1323</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="s">
-        <v>1307</v>
+        <v>1324</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1308</v>
+        <v>1325</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="s">
-        <v>1309</v>
+        <v>1326</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1310</v>
+        <v>1327</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>142</v>
@@ -16168,541 +16262,541 @@
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="s">
-        <v>1311</v>
+        <v>1328</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="s">
-        <v>1312</v>
+        <v>1329</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1315</v>
+        <v>1332</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
-        <v>1316</v>
+        <v>1333</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="s">
-        <v>1318</v>
+        <v>1335</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="s">
-        <v>1320</v>
+        <v>1337</v>
       </c>
       <c r="B658" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="s">
-        <v>1321</v>
+        <v>1338</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1322</v>
+        <v>1339</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="s">
-        <v>1323</v>
+        <v>1340</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>1324</v>
+        <v>1341</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="s">
-        <v>1325</v>
+        <v>1342</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1326</v>
+        <v>1343</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="s">
-        <v>1327</v>
+        <v>1344</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1328</v>
+        <v>1345</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2" t="s">
-        <v>1329</v>
+        <v>1346</v>
       </c>
       <c r="B663" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2" t="s">
-        <v>1330</v>
+        <v>1347</v>
       </c>
       <c r="B664" s="2" t="s">
         <v>699</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
-        <v>1331</v>
+        <v>1348</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1332</v>
+        <v>1349</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="s">
-        <v>1333</v>
+        <v>1350</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1334</v>
+        <v>1351</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
-        <v>1335</v>
+        <v>1352</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1336</v>
+        <v>1353</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
-        <v>1337</v>
+        <v>1354</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1338</v>
+        <v>1355</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1339</v>
+        <v>1356</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="s">
-        <v>1340</v>
+        <v>1357</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1341</v>
+        <v>1358</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="s">
-        <v>1342</v>
+        <v>1359</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1343</v>
+        <v>1360</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="s">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1345</v>
+        <v>1362</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="s">
-        <v>1346</v>
+        <v>1363</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1347</v>
+        <v>1364</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="s">
-        <v>1348</v>
+        <v>1365</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1349</v>
+        <v>1366</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="s">
-        <v>1350</v>
+        <v>1367</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1351</v>
+        <v>1368</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2" t="s">
-        <v>1352</v>
+        <v>1369</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1353</v>
+        <v>1370</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2" t="s">
-        <v>1354</v>
+        <v>1371</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1355</v>
+        <v>1372</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="s">
-        <v>1356</v>
+        <v>1373</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1357</v>
+        <v>1374</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2" t="s">
-        <v>1358</v>
+        <v>1375</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1359</v>
+        <v>1376</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="s">
-        <v>1360</v>
+        <v>1377</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1361</v>
+        <v>1378</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="s">
-        <v>1362</v>
+        <v>1379</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1363</v>
+        <v>1380</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="s">
-        <v>1364</v>
+        <v>1381</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1365</v>
+        <v>1382</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="s">
-        <v>1366</v>
+        <v>1383</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1367</v>
+        <v>1384</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2" t="s">
-        <v>1368</v>
+        <v>1385</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1369</v>
+        <v>1386</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="s">
-        <v>1370</v>
+        <v>1387</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1371</v>
+        <v>1388</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="s">
-        <v>1372</v>
+        <v>1389</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1373</v>
+        <v>1390</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="s">
-        <v>1374</v>
+        <v>1391</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1375</v>
+        <v>1392</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="s">
-        <v>1376</v>
+        <v>1393</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1377</v>
+        <v>1394</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="s">
-        <v>1378</v>
+        <v>1395</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1379</v>
+        <v>1396</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2" t="s">
-        <v>1380</v>
+        <v>1397</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1381</v>
+        <v>1398</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="s">
-        <v>1382</v>
+        <v>1399</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1383</v>
+        <v>1400</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1017</v>
+        <v>1034</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2" t="s">
-        <v>1384</v>
+        <v>1401</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1385</v>
+        <v>1402</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2" t="s">
-        <v>1386</v>
+        <v>1403</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1387</v>
+        <v>1404</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2" t="s">
-        <v>1388</v>
+        <v>1405</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1389</v>
+        <v>1406</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2" t="s">
-        <v>1390</v>
+        <v>1407</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1391</v>
+        <v>1408</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2" t="s">
-        <v>1392</v>
+        <v>1409</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1393</v>
+        <v>1410</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D697" s="2"/>
     </row>
@@ -16711,41 +16805,41 @@
         <v>632</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1394</v>
+        <v>1411</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2" t="s">
-        <v>1395</v>
+        <v>1412</v>
       </c>
       <c r="B699" s="2"/>
       <c r="C699" s="2" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="D699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2" t="s">
-        <v>1396</v>
+        <v>1413</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1397</v>
+        <v>1414</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>1398</v>
+        <v>1415</v>
       </c>
       <c r="D700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2" t="s">
-        <v>1399</v>
+        <v>1416</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1400</v>
+        <v>1417</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>193</v>
@@ -16754,22 +16848,22 @@
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2" t="s">
-        <v>1401</v>
+        <v>1418</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1402</v>
+        <v>1419</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>1403</v>
+        <v>1420</v>
       </c>
       <c r="D702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2" t="s">
-        <v>1404</v>
+        <v>1421</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1405</v>
+        <v>1422</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>526</v>
@@ -16778,58 +16872,58 @@
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2" t="s">
-        <v>1406</v>
+        <v>1423</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1407</v>
+        <v>1424</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>1408</v>
+        <v>1425</v>
       </c>
       <c r="D704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2" t="s">
-        <v>1409</v>
+        <v>1426</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1410</v>
+        <v>1427</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>1411</v>
+        <v>1428</v>
       </c>
       <c r="D705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2" t="s">
-        <v>1412</v>
+        <v>1429</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1413</v>
+        <v>1430</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2" t="s">
-        <v>1414</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2" t="s">
-        <v>1415</v>
+        <v>1432</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1416</v>
+        <v>1433</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>1417</v>
+        <v>1434</v>
       </c>
       <c r="D707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2" t="s">
-        <v>1418</v>
+        <v>1435</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>526</v>
@@ -16838,10 +16932,10 @@
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2" t="s">
-        <v>1420</v>
+        <v>1437</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>526</v>
@@ -16850,34 +16944,34 @@
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2" t="s">
-        <v>1421</v>
+        <v>1438</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1422</v>
+        <v>1439</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2" t="s">
-        <v>1423</v>
+        <v>1440</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1424</v>
+        <v>1441</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>1425</v>
+        <v>1442</v>
       </c>
       <c r="D711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2" t="s">
-        <v>1426</v>
+        <v>1443</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1427</v>
+        <v>1444</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>697</v>
@@ -16886,10 +16980,10 @@
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2" t="s">
-        <v>1428</v>
+        <v>1445</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1429</v>
+        <v>1446</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>37</v>
@@ -16898,94 +16992,94 @@
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2" t="s">
-        <v>1430</v>
+        <v>1447</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1431</v>
+        <v>1448</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2" t="s">
-        <v>1432</v>
+        <v>1449</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1433</v>
+        <v>1450</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1273</v>
+        <v>1290</v>
       </c>
       <c r="D715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>1434</v>
+        <v>1451</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1435</v>
+        <v>1452</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>1436</v>
+        <v>1453</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1437</v>
+        <v>1454</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>1438</v>
+        <v>1455</v>
       </c>
       <c r="D717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="s">
-        <v>1439</v>
+        <v>1456</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1440</v>
+        <v>1457</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="s">
-        <v>1441</v>
+        <v>1458</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1442</v>
+        <v>1459</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="s">
-        <v>1443</v>
+        <v>1460</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1444</v>
+        <v>1461</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1445</v>
+        <v>1462</v>
       </c>
       <c r="D720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2" t="s">
-        <v>1446</v>
+        <v>1463</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1447</v>
+        <v>1464</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>193</v>
@@ -16994,10 +17088,10 @@
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2" t="s">
-        <v>1448</v>
+        <v>1465</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1449</v>
+        <v>1466</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>28</v>
@@ -17006,22 +17100,22 @@
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2" t="s">
-        <v>1450</v>
+        <v>1467</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1451</v>
+        <v>1468</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2" t="s">
-        <v>1452</v>
+        <v>1469</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1453</v>
+        <v>1470</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>62</v>
@@ -17030,10 +17124,10 @@
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="s">
-        <v>1454</v>
+        <v>1471</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1455</v>
+        <v>1472</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>193</v>
@@ -17042,10 +17136,10 @@
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="s">
-        <v>1456</v>
+        <v>1473</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1457</v>
+        <v>1474</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>193</v>
@@ -17054,34 +17148,34 @@
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="s">
-        <v>1458</v>
+        <v>1475</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1459</v>
+        <v>1476</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1460</v>
+        <v>1477</v>
       </c>
       <c r="D727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="s">
-        <v>1461</v>
+        <v>1478</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1462</v>
+        <v>1479</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1463</v>
+        <v>1480</v>
       </c>
       <c r="D728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="s">
-        <v>1464</v>
+        <v>1481</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1465</v>
+        <v>1482</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>193</v>
@@ -17090,10 +17184,10 @@
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="s">
-        <v>1466</v>
+        <v>1483</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1467</v>
+        <v>1484</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>193</v>
@@ -17102,10 +17196,10 @@
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2" t="s">
-        <v>1468</v>
+        <v>1485</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1467</v>
+        <v>1484</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>193</v>
@@ -17114,22 +17208,22 @@
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2" t="s">
-        <v>1469</v>
+        <v>1486</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1470</v>
+        <v>1487</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="D732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="s">
-        <v>1471</v>
+        <v>1488</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1470</v>
+        <v>1487</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>368</v>
@@ -17138,36 +17232,36 @@
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="s">
-        <v>1472</v>
+        <v>1489</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1473</v>
+        <v>1490</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1474</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="s">
-        <v>1475</v>
+        <v>1492</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1476</v>
+        <v>1493</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="D735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2" t="s">
-        <v>1477</v>
+        <v>1494</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1478</v>
+        <v>1495</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>368</v>
@@ -17176,10 +17270,10 @@
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2" t="s">
-        <v>1479</v>
+        <v>1496</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1480</v>
+        <v>1497</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>708</v>
@@ -17188,118 +17282,118 @@
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2" t="s">
-        <v>1481</v>
+        <v>1498</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1482</v>
+        <v>1499</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="D738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2" t="s">
-        <v>1483</v>
+        <v>1500</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1484</v>
+        <v>1501</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1485</v>
+        <v>1502</v>
       </c>
       <c r="D739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="s">
-        <v>1486</v>
+        <v>1503</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="s">
-        <v>1488</v>
+        <v>1505</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1489</v>
+        <v>1506</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2" t="s">
-        <v>1490</v>
+        <v>1507</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1491</v>
+        <v>1508</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1492</v>
+        <v>1509</v>
       </c>
       <c r="D742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="s">
-        <v>1493</v>
+        <v>1510</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1494</v>
+        <v>1511</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1494</v>
+        <v>1511</v>
       </c>
       <c r="D743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="s">
-        <v>1495</v>
+        <v>1512</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1496</v>
+        <v>1513</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1497</v>
+        <v>1514</v>
       </c>
       <c r="D744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="s">
-        <v>1498</v>
+        <v>1515</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1499</v>
+        <v>1516</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1500</v>
+        <v>1517</v>
       </c>
       <c r="D745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="s">
-        <v>1501</v>
+        <v>1518</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1502</v>
+        <v>1519</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1500</v>
+        <v>1517</v>
       </c>
       <c r="D746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2" t="s">
-        <v>1503</v>
+        <v>1520</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1419</v>
+        <v>1436</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>526</v>
@@ -17308,22 +17402,22 @@
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="s">
-        <v>1504</v>
+        <v>1521</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1505</v>
+        <v>1522</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="D748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2" t="s">
-        <v>1504</v>
+        <v>1521</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1505</v>
+        <v>1522</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>296</v>
@@ -17332,10 +17426,10 @@
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="s">
-        <v>1506</v>
+        <v>1523</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1507</v>
+        <v>1524</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>526</v>
@@ -17344,10 +17438,10 @@
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="s">
-        <v>1508</v>
+        <v>1525</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1507</v>
+        <v>1524</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>526</v>
@@ -17356,22 +17450,22 @@
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="s">
-        <v>1509</v>
+        <v>1526</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1510</v>
+        <v>1527</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1101</v>
+        <v>1118</v>
       </c>
       <c r="D752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="s">
-        <v>1511</v>
+        <v>1528</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>196</v>
@@ -17380,10 +17474,10 @@
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="s">
-        <v>1512</v>
+        <v>1529</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>196</v>
@@ -17392,10 +17486,10 @@
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2" t="s">
-        <v>1513</v>
+        <v>1530</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>196</v>
@@ -17404,10 +17498,10 @@
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2" t="s">
-        <v>1514</v>
+        <v>1531</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>196</v>
@@ -17416,34 +17510,34 @@
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2" t="s">
-        <v>1515</v>
+        <v>1532</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1516</v>
+        <v>1533</v>
       </c>
       <c r="C757" s="2" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2" t="s">
-        <v>1517</v>
+        <v>1534</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1518</v>
+        <v>1535</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1497</v>
+        <v>1514</v>
       </c>
       <c r="D758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2" t="s">
-        <v>1519</v>
+        <v>1536</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1520</v>
+        <v>1537</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>37</v>
@@ -17452,22 +17546,22 @@
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="s">
-        <v>1521</v>
+        <v>1538</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1522</v>
+        <v>1539</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1523</v>
+        <v>1540</v>
       </c>
       <c r="D760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="s">
-        <v>1524</v>
+        <v>1541</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1260</v>
+        <v>1277</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>28</v>
@@ -17476,34 +17570,34 @@
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="s">
-        <v>1525</v>
+        <v>1542</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1526</v>
+        <v>1543</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1527</v>
+        <v>1544</v>
       </c>
       <c r="D762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2" t="s">
-        <v>1528</v>
+        <v>1545</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="s">
-        <v>1529</v>
+        <v>1546</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>66</v>
@@ -17512,10 +17606,10 @@
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="s">
-        <v>1530</v>
+        <v>1547</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>66</v>
@@ -17524,19 +17618,19 @@
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2" t="s">
-        <v>1531</v>
+        <v>1548</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1532</v>
+        <v>1549</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2" t="s">
-        <v>1533</v>
+        <v>1550</v>
       </c>
       <c r="B767" s="2" t="s">
         <v>113</v>
@@ -17548,10 +17642,10 @@
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2" t="s">
-        <v>1534</v>
+        <v>1551</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1535</v>
+        <v>1552</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>193</v>
@@ -17560,34 +17654,34 @@
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2" t="s">
-        <v>1536</v>
+        <v>1553</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2" t="s">
-        <v>1537</v>
+        <v>1554</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="s">
-        <v>1538</v>
+        <v>1555</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1539</v>
+        <v>1556</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>66</v>
@@ -17596,10 +17690,10 @@
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2" t="s">
-        <v>1540</v>
+        <v>1557</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>28</v>
@@ -17608,32 +17702,32 @@
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="s">
-        <v>1541</v>
+        <v>1558</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1542</v>
+        <v>1559</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="s">
-        <v>1543</v>
+        <v>1560</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1544</v>
+        <v>1561</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="s">
-        <v>1545</v>
+        <v>1562</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1546</v>
+        <v>1563</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>196</v>
@@ -17645,16 +17739,16 @@
         <v>385</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1547</v>
+        <v>1564</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="D776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="s">
-        <v>1548</v>
+        <v>1565</v>
       </c>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -17662,10 +17756,10 @@
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="s">
-        <v>1549</v>
+        <v>1566</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1550</v>
+        <v>1567</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>247</v>
@@ -17677,44 +17771,44 @@
         <v>600</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1551</v>
+        <v>1568</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="s">
-        <v>1552</v>
+        <v>1569</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1553</v>
+        <v>1570</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2" t="s">
-        <v>1554</v>
+        <v>1571</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1555</v>
+        <v>1572</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2" t="s">
-        <v>1556</v>
+        <v>1573</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1557</v>
+        <v>1574</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2" t="s">
-        <v>1558</v>
+        <v>1575</v>
       </c>
       <c r="B783" s="2"/>
       <c r="C783" s="2" t="s">
@@ -17724,30 +17818,30 @@
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2" t="s">
-        <v>1559</v>
+        <v>1576</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1560</v>
+        <v>1577</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="3" t="s">
-        <v>1561</v>
+        <v>1578</v>
       </c>
       <c r="B785" s="2"/>
       <c r="C785" s="2" t="s">
-        <v>1562</v>
+        <v>1579</v>
       </c>
       <c r="D785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2" t="s">
-        <v>1563</v>
+        <v>1580</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1564</v>
+        <v>1581</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>296</v>
@@ -17756,357 +17850,357 @@
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2" t="s">
-        <v>1565</v>
+        <v>1582</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1566</v>
+        <v>1583</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="s">
-        <v>1567</v>
+        <v>1584</v>
       </c>
       <c r="B788" s="2"/>
       <c r="C788" s="2" t="s">
-        <v>1568</v>
+        <v>1585</v>
       </c>
       <c r="D788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2" t="s">
-        <v>1569</v>
+        <v>1586</v>
       </c>
       <c r="B789" s="2"/>
       <c r="C789" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="3" t="s">
-        <v>1571</v>
+        <v>1588</v>
       </c>
       <c r="B790" s="2"/>
       <c r="C790" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="3" t="s">
-        <v>1572</v>
+        <v>1589</v>
       </c>
       <c r="B791" s="2"/>
       <c r="C791" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="s">
-        <v>1573</v>
+        <v>1590</v>
       </c>
       <c r="B792" s="2"/>
       <c r="C792" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2" t="s">
-        <v>1574</v>
+        <v>1591</v>
       </c>
       <c r="B793" s="2"/>
       <c r="C793" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="3" t="s">
-        <v>1575</v>
+        <v>1592</v>
       </c>
       <c r="B794" s="2"/>
       <c r="C794" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2" t="s">
-        <v>1576</v>
+        <v>1593</v>
       </c>
       <c r="B795" s="2"/>
       <c r="C795" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="3" t="s">
-        <v>1577</v>
+        <v>1594</v>
       </c>
       <c r="B796" s="2"/>
       <c r="C796" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2" t="s">
-        <v>1578</v>
+        <v>1595</v>
       </c>
       <c r="B797" s="2"/>
       <c r="C797" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="3" t="s">
-        <v>1579</v>
+        <v>1596</v>
       </c>
       <c r="B798" s="2"/>
       <c r="C798" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2" t="s">
-        <v>1580</v>
+        <v>1597</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2" t="s">
-        <v>1582</v>
+        <v>1599</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2" t="s">
-        <v>1583</v>
+        <v>1600</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2" t="s">
-        <v>1584</v>
+        <v>1601</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2" t="s">
-        <v>1585</v>
+        <v>1602</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2" t="s">
-        <v>1586</v>
+        <v>1603</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C805" s="2" t="s">
         <v>1587</v>
-      </c>
-      <c r="B805" s="2" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C805" s="2" t="s">
-        <v>1570</v>
       </c>
       <c r="D805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2" t="s">
-        <v>1588</v>
+        <v>1605</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2" t="s">
-        <v>1589</v>
+        <v>1606</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2" t="s">
-        <v>1590</v>
+        <v>1607</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="2" t="s">
-        <v>1591</v>
+        <v>1608</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2" t="s">
-        <v>1592</v>
+        <v>1609</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2" t="s">
-        <v>1593</v>
+        <v>1610</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="2" t="s">
-        <v>1594</v>
+        <v>1611</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1581</v>
+        <v>1598</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2" t="s">
-        <v>1595</v>
+        <v>1612</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1596</v>
+        <v>1613</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="2" t="s">
-        <v>1597</v>
+        <v>1614</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1596</v>
+        <v>1613</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="2" t="s">
-        <v>1598</v>
+        <v>1615</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1596</v>
+        <v>1613</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2" t="s">
-        <v>1599</v>
+        <v>1616</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1555</v>
+        <v>1572</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="2" t="s">
-        <v>1600</v>
+        <v>1617</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1601</v>
+        <v>1618</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="2" t="s">
-        <v>1602</v>
+        <v>1619</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1603</v>
+        <v>1620</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>1604</v>
+        <v>1621</v>
       </c>
       <c r="D818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="2" t="s">
-        <v>1605</v>
+        <v>1622</v>
       </c>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -18114,7 +18208,7 @@
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="3" t="s">
-        <v>1606</v>
+        <v>1623</v>
       </c>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -18122,51 +18216,51 @@
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2" t="s">
-        <v>1607</v>
+        <v>1624</v>
       </c>
       <c r="B821" s="2"/>
       <c r="C821" s="2" t="s">
-        <v>1570</v>
+        <v>1587</v>
       </c>
       <c r="D821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2" t="s">
-        <v>1608</v>
+        <v>1625</v>
       </c>
       <c r="B822" s="2"/>
       <c r="C822" s="2" t="s">
-        <v>1609</v>
+        <v>1626</v>
       </c>
       <c r="D822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2" t="s">
-        <v>1610</v>
+        <v>1627</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1611</v>
+        <v>1628</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>1612</v>
+        <v>1629</v>
       </c>
       <c r="D823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="2" t="s">
-        <v>1613</v>
+        <v>1630</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1614</v>
+        <v>1631</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>1612</v>
+        <v>1629</v>
       </c>
       <c r="D824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="3" t="s">
-        <v>1615</v>
+        <v>1632</v>
       </c>
       <c r="B825" s="2"/>
       <c r="C825" s="2" t="s">
@@ -18176,7 +18270,7 @@
     </row>
     <row r="826" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="3" t="s">
-        <v>1616</v>
+        <v>1633</v>
       </c>
       <c r="B826" s="2"/>
       <c r="C826" s="2" t="s">
@@ -18186,7 +18280,7 @@
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2" t="s">
-        <v>1617</v>
+        <v>1634</v>
       </c>
       <c r="B827" s="2"/>
       <c r="C827" s="2" t="s">
@@ -18196,172 +18290,172 @@
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2" t="s">
-        <v>1618</v>
+        <v>1635</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1619</v>
+        <v>1636</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2" t="s">
-        <v>1620</v>
+        <v>1637</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1085</v>
+        <v>1102</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2" t="s">
-        <v>1140</v>
+        <v>1157</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1085</v>
+        <v>1102</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="2" t="s">
-        <v>1621</v>
+        <v>1638</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1622</v>
+        <v>1639</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="2" t="s">
-        <v>1623</v>
+        <v>1640</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1624</v>
+        <v>1641</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2" t="s">
-        <v>1625</v>
+        <v>1642</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1626</v>
+        <v>1643</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2" t="s">
-        <v>1627</v>
+        <v>1644</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1628</v>
+        <v>1645</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1629</v>
+        <v>1646</v>
       </c>
       <c r="D834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="2" t="s">
-        <v>1630</v>
+        <v>1647</v>
       </c>
       <c r="B835" s="2"/>
       <c r="C835" s="2" t="s">
-        <v>1631</v>
+        <v>1648</v>
       </c>
       <c r="D835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2" t="s">
-        <v>1632</v>
+        <v>1649</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1633</v>
+        <v>1650</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2" t="s">
-        <v>1634</v>
+        <v>1651</v>
       </c>
       <c r="B837" s="2"/>
       <c r="C837" s="2" t="s">
-        <v>1635</v>
+        <v>1652</v>
       </c>
       <c r="D837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="2" t="s">
-        <v>1636</v>
+        <v>1653</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1637</v>
+        <v>1654</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="2" t="s">
-        <v>1638</v>
+        <v>1655</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1639</v>
+        <v>1656</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="2" t="s">
-        <v>1640</v>
+        <v>1657</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1641</v>
+        <v>1658</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2" t="s">
-        <v>1642</v>
+        <v>1659</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1643</v>
+        <v>1660</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2" t="s">
-        <v>1644</v>
+        <v>1661</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1645</v>
+        <v>1662</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="2" t="s">
-        <v>1646</v>
+        <v>1663</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1647</v>
+        <v>1664</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="3" t="s">
-        <v>1648</v>
+        <v>1665</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1649</v>
+        <v>1666</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -18369,7 +18463,7 @@
         <v>75</v>
       </c>
       <c r="F844" s="0" t="s">
-        <v>1650</v>
+        <v>1667</v>
       </c>
       <c r="G844" s="0" t="s">
         <v>12</v>
@@ -18377,10 +18471,10 @@
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="2" t="s">
-        <v>1651</v>
+        <v>1668</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1652</v>
+        <v>1669</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -18388,7 +18482,7 @@
         <v>75</v>
       </c>
       <c r="F845" s="0" t="s">
-        <v>1653</v>
+        <v>1670</v>
       </c>
       <c r="G845" s="0" t="s">
         <v>12</v>
@@ -18396,18 +18490,18 @@
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="2" t="s">
-        <v>1654</v>
+        <v>1671</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1655</v>
+        <v>1672</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F846" s="7" t="s">
-        <v>1657</v>
+        <v>710</v>
+      </c>
+      <c r="F846" s="9" t="s">
+        <v>1673</v>
       </c>
       <c r="G846" s="0" t="s">
         <v>12</v>
@@ -18415,18 +18509,18 @@
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="2" t="s">
-        <v>1658</v>
+        <v>1674</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1659</v>
+        <v>1675</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F847" s="8" t="s">
-        <v>1661</v>
+        <v>1676</v>
+      </c>
+      <c r="F847" s="10" t="s">
+        <v>1677</v>
       </c>
       <c r="G847" s="0" t="s">
         <v>12</v>
@@ -18434,18 +18528,18 @@
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="2" t="s">
-        <v>1662</v>
+        <v>1678</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1182</v>
+        <v>1199</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
       <c r="E848" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F848" s="9" t="s">
-        <v>1663</v>
+      <c r="F848" s="5" t="s">
+        <v>1679</v>
       </c>
       <c r="G848" s="0" t="s">
         <v>12</v>
@@ -18453,10 +18547,10 @@
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2" t="s">
-        <v>1664</v>
+        <v>1680</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1665</v>
+        <v>1681</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -18464,7 +18558,7 @@
         <v>58</v>
       </c>
       <c r="F849" s="0" t="s">
-        <v>1666</v>
+        <v>1682</v>
       </c>
       <c r="G849" s="0" t="s">
         <v>12</v>
@@ -18472,10 +18566,10 @@
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="3" t="s">
-        <v>1667</v>
+        <v>1683</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1668</v>
+        <v>1684</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -18483,7 +18577,7 @@
         <v>58</v>
       </c>
       <c r="F850" s="0" t="s">
-        <v>1669</v>
+        <v>1685</v>
       </c>
       <c r="G850" s="0" t="s">
         <v>12</v>
@@ -18491,10 +18585,10 @@
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2" t="s">
-        <v>1670</v>
+        <v>1686</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1671</v>
+        <v>1687</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -18502,7 +18596,7 @@
         <v>75</v>
       </c>
       <c r="F851" s="0" t="s">
-        <v>1672</v>
+        <v>1688</v>
       </c>
       <c r="G851" s="0" t="s">
         <v>12</v>
@@ -18510,13 +18604,13 @@
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2" t="s">
-        <v>1673</v>
+        <v>1689</v>
       </c>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
       <c r="E852" s="1" t="s">
-        <v>1656</v>
+        <v>710</v>
       </c>
       <c r="G852" s="0" t="s">
         <v>12</v>
@@ -18524,7 +18618,7 @@
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="2" t="s">
-        <v>1674</v>
+        <v>1690</v>
       </c>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -18532,8 +18626,8 @@
       <c r="E853" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F853" s="7" t="s">
-        <v>1675</v>
+      <c r="F853" s="9" t="s">
+        <v>1691</v>
       </c>
       <c r="G853" s="0" t="s">
         <v>12</v>
@@ -18541,7 +18635,7 @@
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="2" t="s">
-        <v>1676</v>
+        <v>1692</v>
       </c>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -18549,8 +18643,8 @@
       <c r="E854" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F854" s="10" t="s">
-        <v>1677</v>
+      <c r="F854" s="11" t="s">
+        <v>1693</v>
       </c>
       <c r="G854" s="0" t="s">
         <v>12</v>
@@ -18558,7 +18652,7 @@
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2" t="s">
-        <v>1678</v>
+        <v>1694</v>
       </c>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -18566,8 +18660,8 @@
       <c r="E855" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F855" s="9" t="s">
-        <v>1679</v>
+      <c r="F855" s="5" t="s">
+        <v>1695</v>
       </c>
       <c r="G855" s="0" t="s">
         <v>12</v>
@@ -18575,7 +18669,7 @@
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2" t="s">
-        <v>1680</v>
+        <v>1696</v>
       </c>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -18584,7 +18678,7 @@
         <v>124</v>
       </c>
       <c r="F856" s="0" t="s">
-        <v>1681</v>
+        <v>1697</v>
       </c>
       <c r="G856" s="0" t="s">
         <v>12</v>
@@ -18592,20 +18686,20 @@
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2" t="s">
-        <v>1682</v>
+        <v>1698</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1683</v>
+        <v>1699</v>
       </c>
       <c r="C857" s="2" t="s">
-        <v>1684</v>
+        <v>1700</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F857" s="0" t="s">
-        <v>1685</v>
+        <v>1701</v>
       </c>
       <c r="G857" s="0" t="s">
         <v>12</v>
@@ -18613,10 +18707,10 @@
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="2" t="s">
-        <v>1686</v>
+        <v>1702</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>1687</v>
+        <v>1703</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -18624,7 +18718,7 @@
         <v>58</v>
       </c>
       <c r="F858" s="0" t="s">
-        <v>1688</v>
+        <v>1704</v>
       </c>
       <c r="G858" s="0" t="s">
         <v>12</v>
@@ -18632,10 +18726,10 @@
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="2" t="s">
-        <v>1689</v>
+        <v>1705</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1690</v>
+        <v>1706</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -18643,7 +18737,7 @@
         <v>58</v>
       </c>
       <c r="F859" s="0" t="s">
-        <v>1691</v>
+        <v>1707</v>
       </c>
       <c r="G859" s="0" t="s">
         <v>12</v>
@@ -18651,18 +18745,18 @@
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="2" t="s">
-        <v>1692</v>
+        <v>1708</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1693</v>
+        <v>1709</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F860" s="8" t="s">
-        <v>1694</v>
+        <v>1676</v>
+      </c>
+      <c r="F860" s="10" t="s">
+        <v>1710</v>
       </c>
       <c r="G860" s="0" t="s">
         <v>12</v>
@@ -18670,17 +18764,17 @@
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2" t="s">
-        <v>1695</v>
+        <v>1711</v>
       </c>
       <c r="B861" s="2"/>
       <c r="C861" s="2" t="s">
-        <v>1696</v>
+        <v>1712</v>
       </c>
       <c r="D861" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E861" s="1" t="s">
-        <v>1656</v>
+        <v>710</v>
       </c>
       <c r="G861" s="0" t="s">
         <v>12</v>
@@ -18688,18 +18782,18 @@
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="2" t="s">
-        <v>1697</v>
+        <v>1713</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1698</v>
+        <v>1714</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
       <c r="E862" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F862" s="9" t="s">
-        <v>1699</v>
+      <c r="F862" s="5" t="s">
+        <v>1715</v>
       </c>
       <c r="G862" s="0" t="s">
         <v>12</v>
@@ -18707,10 +18801,10 @@
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2" t="s">
-        <v>1700</v>
+        <v>1716</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1701</v>
+        <v>1717</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -18718,7 +18812,7 @@
         <v>75</v>
       </c>
       <c r="F863" s="0" t="s">
-        <v>1702</v>
+        <v>1718</v>
       </c>
       <c r="G863" s="0" t="s">
         <v>12</v>
@@ -18726,18 +18820,18 @@
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2" t="s">
-        <v>1703</v>
+        <v>1719</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1704</v>
+        <v>1720</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
       <c r="E864" s="1" t="s">
-        <v>1656</v>
+        <v>710</v>
       </c>
       <c r="F864" s="0" t="s">
-        <v>1705</v>
+        <v>1721</v>
       </c>
       <c r="G864" s="0" t="s">
         <v>12</v>
@@ -18745,18 +18839,18 @@
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2" t="s">
-        <v>1706</v>
+        <v>1722</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1707</v>
+        <v>1723</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
       <c r="E865" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F865" s="9" t="s">
-        <v>1708</v>
+      <c r="F865" s="5" t="s">
+        <v>1724</v>
       </c>
       <c r="G865" s="0" t="s">
         <v>12</v>
@@ -18764,20 +18858,20 @@
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2" t="s">
-        <v>1709</v>
+        <v>1725</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1710</v>
+        <v>1726</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>1711</v>
+        <v>1727</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F866" s="0" t="s">
-        <v>1712</v>
+        <v>1728</v>
       </c>
       <c r="G866" s="0" t="s">
         <v>12</v>
@@ -18785,18 +18879,18 @@
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="2" t="s">
-        <v>1713</v>
+        <v>1729</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1714</v>
+        <v>1730</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
       <c r="E867" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F867" s="9" t="s">
-        <v>1715</v>
+      <c r="F867" s="5" t="s">
+        <v>1731</v>
       </c>
       <c r="G867" s="0" t="s">
         <v>12</v>
@@ -18804,18 +18898,18 @@
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="s">
-        <v>1716</v>
+        <v>1732</v>
       </c>
       <c r="B868" s="2"/>
       <c r="C868" s="2" t="s">
-        <v>1717</v>
+        <v>1733</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F868" s="0" t="s">
-        <v>1718</v>
+        <v>1734</v>
       </c>
       <c r="G868" s="0" t="s">
         <v>12</v>
@@ -18823,18 +18917,18 @@
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="3" t="s">
-        <v>1719</v>
+        <v>1735</v>
       </c>
       <c r="B869" s="2"/>
       <c r="C869" s="2" t="s">
-        <v>1720</v>
+        <v>1736</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" s="1" t="s">
-        <v>1721</v>
+        <v>1737</v>
       </c>
       <c r="F869" s="0" t="s">
-        <v>1722</v>
+        <v>1738</v>
       </c>
       <c r="G869" s="0" t="s">
         <v>12</v>
@@ -18842,18 +18936,18 @@
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2" t="s">
-        <v>1723</v>
+        <v>1739</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1724</v>
+        <v>1740</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
       <c r="E870" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F870" s="9" t="s">
-        <v>1725</v>
+      <c r="F870" s="5" t="s">
+        <v>1741</v>
       </c>
       <c r="G870" s="0" t="s">
         <v>12</v>
@@ -18861,18 +18955,18 @@
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2" t="s">
-        <v>1726</v>
+        <v>1742</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1727</v>
+        <v>1743</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="1" t="s">
-        <v>1660</v>
+        <v>1676</v>
       </c>
       <c r="F871" s="0" t="s">
-        <v>1728</v>
+        <v>1744</v>
       </c>
       <c r="G871" s="0" t="s">
         <v>12</v>
@@ -18880,16 +18974,16 @@
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2" t="s">
-        <v>1729</v>
+        <v>1745</v>
       </c>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
       <c r="E872" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F872" s="7" t="s">
-        <v>1730</v>
+        <v>710</v>
+      </c>
+      <c r="F872" s="9" t="s">
+        <v>1746</v>
       </c>
       <c r="G872" s="0" t="s">
         <v>12</v>
@@ -18897,7 +18991,7 @@
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2" t="s">
-        <v>1731</v>
+        <v>1747</v>
       </c>
       <c r="B873" s="2"/>
       <c r="C873" s="2" t="s">
@@ -18913,20 +19007,20 @@
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2" t="s">
-        <v>1732</v>
+        <v>1748</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1733</v>
+        <v>1749</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>944</v>
+        <v>961</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F874" s="9" t="s">
-        <v>1735</v>
+        <v>1750</v>
+      </c>
+      <c r="F874" s="5" t="s">
+        <v>1751</v>
       </c>
       <c r="G874" s="0" t="s">
         <v>12</v>
@@ -18934,10 +19028,10 @@
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2" t="s">
-        <v>1736</v>
+        <v>1752</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1737</v>
+        <v>1753</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>368</v>
@@ -18946,8 +19040,8 @@
       <c r="E875" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F875" s="9" t="s">
-        <v>1738</v>
+      <c r="F875" s="5" t="s">
+        <v>1754</v>
       </c>
       <c r="G875" s="0" t="s">
         <v>12</v>
@@ -18955,20 +19049,20 @@
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="2" t="s">
-        <v>1739</v>
+        <v>1755</v>
       </c>
       <c r="B876" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1740</v>
+        <v>1756</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F876" s="9" t="s">
-        <v>1741</v>
+      <c r="F876" s="5" t="s">
+        <v>1757</v>
       </c>
       <c r="G876" s="0" t="s">
         <v>12</v>
@@ -18976,20 +19070,20 @@
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2" t="s">
-        <v>1742</v>
+        <v>1758</v>
       </c>
       <c r="B877" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>1743</v>
+        <v>1759</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F877" s="9" t="s">
-        <v>1744</v>
+      <c r="F877" s="5" t="s">
+        <v>1760</v>
       </c>
       <c r="G877" s="0" t="s">
         <v>12</v>
@@ -18997,20 +19091,20 @@
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2" t="s">
-        <v>1745</v>
+        <v>1761</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1746</v>
+        <v>1762</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1747</v>
+        <v>1763</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F878" s="8" t="s">
-        <v>1748</v>
+      <c r="F878" s="10" t="s">
+        <v>1764</v>
       </c>
       <c r="G878" s="0" t="s">
         <v>12</v>
@@ -19018,20 +19112,20 @@
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2" t="s">
-        <v>1749</v>
+        <v>1765</v>
       </c>
       <c r="B879" s="2" t="s">
         <v>437</v>
       </c>
       <c r="C879" s="2" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="D879" s="2"/>
       <c r="E879" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F879" s="9" t="s">
-        <v>1750</v>
+      <c r="F879" s="5" t="s">
+        <v>1766</v>
       </c>
       <c r="G879" s="0" t="s">
         <v>12</v>
@@ -19039,20 +19133,20 @@
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2" t="s">
-        <v>1751</v>
+        <v>1767</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1752</v>
+        <v>1768</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>1753</v>
+        <v>1769</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F880" s="9" t="s">
-        <v>1754</v>
+      <c r="F880" s="5" t="s">
+        <v>1770</v>
       </c>
       <c r="G880" s="0" t="s">
         <v>12</v>
@@ -19060,20 +19154,20 @@
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2" t="s">
-        <v>1755</v>
+        <v>1771</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1756</v>
+        <v>1772</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1757</v>
+        <v>1773</v>
       </c>
       <c r="D881" s="2"/>
       <c r="E881" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F881" s="9" t="s">
-        <v>1758</v>
+      <c r="F881" s="5" t="s">
+        <v>1774</v>
       </c>
       <c r="G881" s="0" t="s">
         <v>12</v>
@@ -19081,20 +19175,20 @@
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2" t="s">
-        <v>1759</v>
+        <v>1775</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1760</v>
+        <v>1776</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D882" s="2"/>
       <c r="E882" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F882" s="9" t="s">
-        <v>1761</v>
+        <v>710</v>
+      </c>
+      <c r="F882" s="5" t="s">
+        <v>1777</v>
       </c>
       <c r="G882" s="0" t="s">
         <v>12</v>
@@ -19102,20 +19196,20 @@
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2" t="s">
-        <v>1762</v>
+        <v>1778</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1763</v>
+        <v>1779</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>1764</v>
+        <v>1780</v>
       </c>
       <c r="D883" s="2"/>
       <c r="E883" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F883" s="9" t="s">
-        <v>1765</v>
+      <c r="F883" s="5" t="s">
+        <v>1781</v>
       </c>
       <c r="G883" s="0" t="s">
         <v>12</v>
@@ -19123,20 +19217,20 @@
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="2" t="s">
-        <v>1766</v>
+        <v>1782</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1767</v>
+        <v>1783</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>1768</v>
+        <v>1784</v>
       </c>
       <c r="D884" s="2"/>
       <c r="E884" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F884" s="9" t="s">
-        <v>1769</v>
+      <c r="F884" s="5" t="s">
+        <v>1785</v>
       </c>
       <c r="G884" s="0" t="s">
         <v>12</v>
@@ -19144,20 +19238,20 @@
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="2" t="s">
-        <v>1770</v>
+        <v>1786</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1771</v>
+        <v>1787</v>
       </c>
       <c r="C885" s="2" t="s">
-        <v>1772</v>
+        <v>1788</v>
       </c>
       <c r="D885" s="2"/>
       <c r="E885" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F885" s="11" t="s">
-        <v>1773</v>
+        <v>710</v>
+      </c>
+      <c r="F885" s="12" t="s">
+        <v>1789</v>
       </c>
       <c r="G885" s="0" t="s">
         <v>12</v>
@@ -19165,20 +19259,20 @@
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2" t="s">
-        <v>1774</v>
+        <v>1790</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1775</v>
+        <v>1791</v>
       </c>
       <c r="C886" s="2" t="s">
-        <v>1776</v>
+        <v>1792</v>
       </c>
       <c r="D886" s="2"/>
       <c r="E886" s="1" t="s">
-        <v>1656</v>
+        <v>710</v>
       </c>
       <c r="F886" s="0" t="s">
-        <v>1777</v>
+        <v>1793</v>
       </c>
       <c r="G886" s="0" t="s">
         <v>12</v>
@@ -19186,20 +19280,20 @@
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2" t="s">
-        <v>1778</v>
+        <v>1794</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1779</v>
+        <v>1795</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>1772</v>
+        <v>1788</v>
       </c>
       <c r="D887" s="2"/>
       <c r="E887" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F887" s="9" t="s">
-        <v>1780</v>
+      <c r="F887" s="5" t="s">
+        <v>1796</v>
       </c>
       <c r="G887" s="0" t="s">
         <v>12</v>
@@ -19207,18 +19301,18 @@
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2" t="s">
-        <v>1781</v>
+        <v>1797</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1782</v>
+        <v>1798</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F888" s="7" t="s">
-        <v>1783</v>
+      <c r="F888" s="9" t="s">
+        <v>1799</v>
       </c>
       <c r="G888" s="0" t="s">
         <v>12</v>
@@ -19226,18 +19320,18 @@
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2" t="s">
-        <v>1784</v>
+        <v>1800</v>
       </c>
       <c r="B889" s="2"/>
       <c r="C889" s="2" t="s">
-        <v>1785</v>
+        <v>1801</v>
       </c>
       <c r="D889" s="2"/>
       <c r="E889" s="1" t="s">
-        <v>1660</v>
+        <v>1676</v>
       </c>
       <c r="F889" s="0" t="s">
-        <v>1786</v>
+        <v>1802</v>
       </c>
       <c r="G889" s="0" t="s">
         <v>12</v>
@@ -19245,18 +19339,18 @@
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="2" t="s">
-        <v>1787</v>
+        <v>1803</v>
       </c>
       <c r="B890" s="2"/>
       <c r="C890" s="2" t="s">
-        <v>1785</v>
+        <v>1801</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F890" s="10" t="s">
-        <v>1788</v>
+        <v>1676</v>
+      </c>
+      <c r="F890" s="11" t="s">
+        <v>1804</v>
       </c>
       <c r="G890" s="0" t="s">
         <v>12</v>
@@ -19264,18 +19358,18 @@
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="2" t="s">
-        <v>1789</v>
+        <v>1805</v>
       </c>
       <c r="B891" s="2"/>
       <c r="C891" s="2" t="s">
-        <v>1785</v>
+        <v>1801</v>
       </c>
       <c r="D891" s="2"/>
       <c r="E891" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F891" s="10" t="s">
-        <v>1790</v>
+        <v>1676</v>
+      </c>
+      <c r="F891" s="11" t="s">
+        <v>1806</v>
       </c>
       <c r="G891" s="0" t="s">
         <v>12</v>
@@ -19283,18 +19377,18 @@
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="2" t="s">
-        <v>1791</v>
+        <v>1807</v>
       </c>
       <c r="B892" s="2"/>
       <c r="C892" s="2" t="s">
-        <v>1785</v>
+        <v>1801</v>
       </c>
       <c r="D892" s="2"/>
       <c r="E892" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F892" s="10" t="s">
-        <v>1792</v>
+        <v>1676</v>
+      </c>
+      <c r="F892" s="11" t="s">
+        <v>1808</v>
       </c>
       <c r="G892" s="0" t="s">
         <v>12</v>
@@ -19302,18 +19396,18 @@
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2" t="s">
-        <v>1793</v>
+        <v>1809</v>
       </c>
       <c r="B893" s="2"/>
       <c r="C893" s="2" t="s">
-        <v>1785</v>
+        <v>1801</v>
       </c>
       <c r="D893" s="2"/>
       <c r="E893" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F893" s="10" t="s">
-        <v>1794</v>
+        <v>1676</v>
+      </c>
+      <c r="F893" s="11" t="s">
+        <v>1810</v>
       </c>
       <c r="G893" s="0" t="s">
         <v>12</v>
@@ -19321,18 +19415,18 @@
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2" t="s">
-        <v>1795</v>
+        <v>1811</v>
       </c>
       <c r="B894" s="2"/>
       <c r="C894" s="2" t="s">
-        <v>1785</v>
+        <v>1801</v>
       </c>
       <c r="D894" s="2"/>
       <c r="E894" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F894" s="10" t="s">
-        <v>1796</v>
+        <v>1676</v>
+      </c>
+      <c r="F894" s="11" t="s">
+        <v>1812</v>
       </c>
       <c r="G894" s="0" t="s">
         <v>12</v>
@@ -19340,18 +19434,18 @@
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="2" t="s">
-        <v>1797</v>
+        <v>1813</v>
       </c>
       <c r="B895" s="2"/>
       <c r="C895" s="2" t="s">
-        <v>1798</v>
+        <v>1814</v>
       </c>
       <c r="D895" s="2"/>
       <c r="E895" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F895" s="9" t="s">
-        <v>1799</v>
+        <v>1737</v>
+      </c>
+      <c r="F895" s="5" t="s">
+        <v>1815</v>
       </c>
       <c r="G895" s="0" t="s">
         <v>12</v>
@@ -19359,18 +19453,18 @@
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2" t="s">
-        <v>1800</v>
+        <v>1816</v>
       </c>
       <c r="B896" s="2"/>
       <c r="C896" s="2" t="s">
-        <v>1798</v>
+        <v>1814</v>
       </c>
       <c r="D896" s="2"/>
       <c r="E896" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F896" s="9" t="s">
-        <v>1801</v>
+        <v>1737</v>
+      </c>
+      <c r="F896" s="5" t="s">
+        <v>1817</v>
       </c>
       <c r="G896" s="0" t="s">
         <v>12</v>
@@ -19378,20 +19472,20 @@
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2" t="s">
-        <v>1802</v>
+        <v>1818</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1803</v>
+        <v>1819</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D897" s="2"/>
       <c r="E897" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F897" s="9" t="s">
-        <v>1804</v>
+        <v>1676</v>
+      </c>
+      <c r="F897" s="5" t="s">
+        <v>1820</v>
       </c>
       <c r="G897" s="0" t="s">
         <v>12</v>
@@ -19399,20 +19493,20 @@
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="2" t="s">
-        <v>1805</v>
+        <v>1821</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1806</v>
+        <v>1822</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>1807</v>
+        <v>1823</v>
       </c>
       <c r="D898" s="2"/>
       <c r="E898" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F898" s="9" t="s">
-        <v>1808</v>
+      <c r="F898" s="5" t="s">
+        <v>1824</v>
       </c>
       <c r="G898" s="0" t="s">
         <v>12</v>
@@ -19420,20 +19514,20 @@
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2" t="s">
-        <v>1809</v>
+        <v>1825</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1810</v>
+        <v>1826</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>1811</v>
+        <v>1827</v>
       </c>
       <c r="D899" s="2"/>
       <c r="E899" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F899" s="9" t="s">
-        <v>1812</v>
+        <v>1676</v>
+      </c>
+      <c r="F899" s="5" t="s">
+        <v>1828</v>
       </c>
       <c r="G899" s="0" t="s">
         <v>12</v>
@@ -19441,20 +19535,20 @@
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="2" t="s">
-        <v>1813</v>
+        <v>1829</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1814</v>
+        <v>1830</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1815</v>
+        <v>1831</v>
       </c>
       <c r="D900" s="2"/>
       <c r="E900" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F900" s="0" t="s">
-        <v>1816</v>
+        <v>1832</v>
       </c>
       <c r="G900" s="0" t="s">
         <v>12</v>
@@ -19462,20 +19556,20 @@
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2" t="s">
-        <v>1817</v>
+        <v>1833</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1818</v>
+        <v>1834</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1819</v>
+        <v>1835</v>
       </c>
       <c r="D901" s="2"/>
       <c r="E901" s="1" t="s">
-        <v>1820</v>
-      </c>
-      <c r="F901" s="9" t="s">
-        <v>1821</v>
+        <v>1836</v>
+      </c>
+      <c r="F901" s="5" t="s">
+        <v>1837</v>
       </c>
       <c r="G901" s="0" t="s">
         <v>12</v>
@@ -19483,20 +19577,20 @@
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2" t="s">
-        <v>1822</v>
+        <v>1838</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1823</v>
+        <v>1839</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1824</v>
+        <v>1840</v>
       </c>
       <c r="D902" s="2"/>
       <c r="E902" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F902" s="0" t="s">
-        <v>1825</v>
+        <v>1841</v>
       </c>
       <c r="G902" s="0" t="s">
         <v>12</v>
@@ -19504,10 +19598,10 @@
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2" t="s">
-        <v>1826</v>
+        <v>1842</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1827</v>
+        <v>1843</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>28</v>
@@ -19516,8 +19610,8 @@
       <c r="E903" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F903" s="9" t="s">
-        <v>1828</v>
+      <c r="F903" s="5" t="s">
+        <v>1844</v>
       </c>
       <c r="G903" s="0" t="s">
         <v>12</v>
@@ -19525,20 +19619,20 @@
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2" t="s">
-        <v>1829</v>
+        <v>1845</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1830</v>
+        <v>1846</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1831</v>
+        <v>1847</v>
       </c>
       <c r="D904" s="2"/>
       <c r="E904" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F904" s="9" t="s">
-        <v>1832</v>
+        <v>710</v>
+      </c>
+      <c r="F904" s="5" t="s">
+        <v>1848</v>
       </c>
       <c r="G904" s="0" t="s">
         <v>12</v>
@@ -19546,20 +19640,20 @@
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2" t="s">
-        <v>1833</v>
+        <v>1849</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1834</v>
+        <v>1850</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1835</v>
+        <v>1851</v>
       </c>
       <c r="D905" s="2"/>
       <c r="E905" s="1" t="s">
-        <v>1836</v>
-      </c>
-      <c r="F905" s="9" t="s">
-        <v>1837</v>
+        <v>1852</v>
+      </c>
+      <c r="F905" s="5" t="s">
+        <v>1853</v>
       </c>
       <c r="G905" s="0" t="s">
         <v>12</v>
@@ -19567,20 +19661,20 @@
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="2" t="s">
-        <v>1838</v>
+        <v>1854</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1839</v>
+        <v>1855</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D906" s="2"/>
       <c r="E906" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="F906" s="12" t="s">
-        <v>1840</v>
+        <v>1676</v>
+      </c>
+      <c r="F906" s="13" t="s">
+        <v>1856</v>
       </c>
       <c r="G906" s="0" t="s">
         <v>12</v>
@@ -19588,10 +19682,10 @@
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="2" t="s">
-        <v>1841</v>
+        <v>1857</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1842</v>
+        <v>1858</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>296</v>
@@ -19600,8 +19694,8 @@
       <c r="E907" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F907" s="9" t="s">
-        <v>1843</v>
+      <c r="F907" s="5" t="s">
+        <v>1859</v>
       </c>
       <c r="G907" s="0" t="s">
         <v>12</v>
@@ -19609,20 +19703,20 @@
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2" t="s">
-        <v>1844</v>
+        <v>1860</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1845</v>
+        <v>1861</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D908" s="2"/>
       <c r="E908" s="1" t="s">
-        <v>1656</v>
+        <v>710</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>1846</v>
+        <v>1862</v>
       </c>
       <c r="G908" s="0" t="s">
         <v>12</v>
@@ -19630,10 +19724,10 @@
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2" t="s">
-        <v>1847</v>
+        <v>1863</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1848</v>
+        <v>1864</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>368</v>
@@ -19642,8 +19736,8 @@
       <c r="E909" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F909" s="13" t="s">
-        <v>1849</v>
+      <c r="F909" s="14" t="s">
+        <v>1865</v>
       </c>
       <c r="G909" s="0" t="s">
         <v>12</v>
@@ -19651,20 +19745,20 @@
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="2" t="s">
-        <v>1850</v>
+        <v>1866</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1851</v>
+        <v>1867</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D910" s="2"/>
       <c r="E910" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F910" s="13" t="s">
-        <v>1852</v>
+        <v>710</v>
+      </c>
+      <c r="F910" s="14" t="s">
+        <v>1868</v>
       </c>
       <c r="G910" s="0" t="s">
         <v>12</v>
@@ -19672,20 +19766,20 @@
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="2" t="s">
-        <v>1853</v>
+        <v>1869</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1854</v>
+        <v>1870</v>
       </c>
       <c r="C911" s="2" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="D911" s="2"/>
       <c r="E911" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F911" s="13" t="s">
-        <v>1855</v>
+      <c r="F911" s="14" t="s">
+        <v>1871</v>
       </c>
       <c r="G911" s="0" t="s">
         <v>12</v>
@@ -19693,10 +19787,10 @@
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2" t="s">
-        <v>1856</v>
+        <v>1872</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1347</v>
+        <v>1364</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>66</v>
@@ -19705,8 +19799,8 @@
       <c r="E912" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F912" s="13" t="s">
-        <v>1857</v>
+      <c r="F912" s="14" t="s">
+        <v>1873</v>
       </c>
       <c r="G912" s="0" t="s">
         <v>12</v>
@@ -19714,20 +19808,20 @@
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2" t="s">
-        <v>1858</v>
+        <v>1874</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1859</v>
+        <v>1875</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1860</v>
+        <v>1876</v>
       </c>
       <c r="D913" s="2"/>
       <c r="E913" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F913" s="14" t="s">
-        <v>1861</v>
+        <v>710</v>
+      </c>
+      <c r="F913" s="15" t="s">
+        <v>1877</v>
       </c>
       <c r="G913" s="0" t="s">
         <v>12</v>

--- a/data/livres.xlsx
+++ b/data/livres.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="1878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="1906">
   <si>
     <t xml:space="preserve">titre</t>
   </si>
@@ -2284,45 +2284,93 @@
     <t xml:space="preserve">Le destin brisé d'un jeune poilu traumatisé par la guerre de 14-18.</t>
   </si>
   <si>
+    <t xml:space="preserve">Bluff, à l'extrême sud de la Nouvelle-Zélande. Un Français embarque sur le navire du vieux Rongo Walker, direction les fjords sauvages </t>
+  </si>
+  <si>
     <t xml:space="preserve">un mariage anglais</t>
   </si>
   <si>
+    <t xml:space="preserve">Après quinze ans d'un mariage raté, Ingrid décide de coucher sur papier ce qu'elle n'arrive pas à dire à son mari, avant de disparaître sans laisser de trace.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fayard</t>
   </si>
   <si>
+    <t xml:space="preserve">1946. Quand une mystérieuse jeune fille en chaussettes convoque Boro à Jérusalem le jour de l'explosion de l'hôtel King David, notre reporter photographe comprend qu'une nouvelle guerre pointe son nez…</t>
+  </si>
+  <si>
     <t xml:space="preserve">Là où la vie je t'emmène...</t>
   </si>
   <si>
+    <t xml:space="preserve">Rose, trentenaire parisienne, rêverait de partir et tout recommencer. Un jour, sa mère l'inscrit à un concours et elle gagne six mois sur une île d'Australie. Elle peut enfin changer de vie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans un grand hôtel sans âge vit un homme singulier. Ayant tué le neveu d’un chef mafieux de Palerme, le voici assigné à résidence, condamné à attendre la mort dans cette prison dorée.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Le Livre brisé</t>
   </si>
   <si>
     <t xml:space="preserve">Le livre de poche</t>
   </si>
   <si>
+    <t xml:space="preserve">Mai 1985. L'auteur entreprend un journal intime. Pourtant, l'œuvre reste avortée : la femme de Serge Doubrovsky lui demande de cesser ce projet littéraire et de raconter frontalement leur vie conjugale. Dès lors, le livre se brise en deux.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insomniaque, sous le choc d'un diagnostic médical alarmant, Franz Ritter, musicologue viennois, se réfugie dans les souvenirs d'une vie de voyages, d'étude et d'émerveillements.</t>
+  </si>
+  <si>
     <t xml:space="preserve">E. M. Delafield</t>
   </si>
   <si>
+    <t xml:space="preserve">Vers 1930, une lady quadragénaire et gaffeuse nous régale de ses mésaventures sur une année, tiraillée qu’elle est entre ses rôles d’aristocrate, d’épouse, de mère, de femme libérée et d’intellectuelle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Les Colombes du Roi Soleil</t>
   </si>
   <si>
     <t xml:space="preserve">A.-M. Desplat-Duc</t>
   </si>
   <si>
+    <t xml:space="preserve">Charlotte décide de s'enfuir de Saint-Cyr et de quitter cette existence rangée qui ne lui convient pas. Une découverte vient pourtant troubler son bonheur : son fiancé, François, a disparu. Elle part à sa recherche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tout à la fois témoignage, chronique et méditation, ce livre présente une analyse la très complexe situation du Proche-Orient.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Seuil</t>
   </si>
   <si>
+    <t xml:space="preserve">Récit romancé de la bataille de Tannenberg vue du côté russe au tout début de la Première Guerre mondiale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biographie de l'écrivain et homme politique russe Édouard Limonov sous la forme d'un récit s'apparentant à une enquête journalistique approfondie.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mary Jane Clarke</t>
   </si>
   <si>
+    <t xml:space="preserve">Vincent, onze ans, fait une découverte macabre : sous un lit d'algues gît une main ornée d'un rubis. Il prévient aussitôt les autorités mais garde la bague... et devient dès lors la cible d'un homme prêt à tout pour la récupérer.</t>
+  </si>
+  <si>
     <t xml:space="preserve">La pluie, avant qu'elle tombe</t>
   </si>
   <si>
+    <t xml:space="preserve">Rosamond vient de mourir, mais sa voix résonne encore, dans une confession enregistrée, adressée à la mystérieuse Imogen. S'appuyant sur vingt photos, elle laisse libre cours à ses souvenirs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">La lune était noire</t>
   </si>
   <si>
     <t xml:space="preserve">Seuil Policiers</t>
   </si>
   <si>
+    <t xml:space="preserve">Cassie Black, la trentaine, a connu la prison à cause d'un casse qui a mal tourné. Elle se retrouve embarquée dans une nouvelle affaire aux enjeux qui la dépassent.</t>
+  </si>
+  <si>
     <t xml:space="preserve">"Embrassez qui vous voudrez"</t>
   </si>
   <si>
@@ -2332,49 +2380,88 @@
     <t xml:space="preserve">Points</t>
   </si>
   <si>
+    <t xml:space="preserve">Dans une station balnéaire, des chemins se croisent, s'emmêlent et les drames se succèdent. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Virginia Woolf</t>
   </si>
   <si>
     <t xml:space="preserve">Penguin Popular Classics</t>
   </si>
   <si>
+    <t xml:space="preserve">Une fresque de Londres et de ses habitants par le récit de la journée d'une femme élégante, en mêlant impressions présentes et souvenirs, personnages surgis du passé, ou membres  de son entourage.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fear and trembling</t>
   </si>
   <si>
     <t xml:space="preserve">St. Martin's Press</t>
   </si>
   <si>
+    <t xml:space="preserve">Amélie est embauchée en tant qu'employée de bureau dans une entreprise japonaise. La jeune femme se heurte à un système rigide auquel elle a du mal à s’adapter et enchaîne les erreurs.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The hound of the Baskervilles</t>
   </si>
   <si>
     <t xml:space="preserve">Dover Thrift Editions</t>
   </si>
   <si>
+    <t xml:space="preserve">Selon une vieille légende, un chien démoniaque crachant du feu pourchasserait les membres de la famille Baskerville. Lorsque Sir Charles décède dans des circonstances troubles, Sherlock Holmes enquête.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alice's adventures in wonderland</t>
   </si>
   <si>
+    <t xml:space="preserve">Alice, une jeune fille curieuse, aperçoit un lapin blanc pressé qui consulte sa montre. Intriguée, elle le suit et tombe dans un terrier qui la mène dans un monde étrange et merveilleux.</t>
+  </si>
+  <si>
     <t xml:space="preserve">L'Etrange Histoire de Benjamin Button</t>
   </si>
   <si>
+    <t xml:space="preserve">Fantastique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curieux destin que le mien'. Ainsi commence l'étrange histoire de Benjamin Button, cet homme qui naquit à 80 ans et vécut sa vie à l'envers, sans pouvoir arrêter le cours du temps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À la veille de sa bar-mitsva, le fils de Jacob et Julia Bloch est soupçonné d’être l’auteur d’injures racistes et renvoyé du lycée. Pendant ce temps, Julia trouve sur le téléphone de son mari une série de textos pornographiques.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Return of the Native</t>
   </si>
   <si>
     <t xml:space="preserve">Signet Classics</t>
   </si>
   <si>
+    <t xml:space="preserve">Eustacia Vye, jeune fille éprise de liberté, dépérit dans sa lande natale. Déterminée à séduire le premier susceptible de l'en sortir, elle ne recule devant aucune manigance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confrontation entre une vieille fille cinquantenaire, enlisée dans son train-train quotidien et une jeune femme vive et joyeuse, qui ne fait aucun plan d'avenir.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Oscar Wilde's wit and wisdom : a book of quotations</t>
   </si>
   <si>
+    <t xml:space="preserve">Anthologie des bons mots et sages pensées du célèbre écrivain.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Throne of the caesars</t>
   </si>
   <si>
     <t xml:space="preserve">Harper</t>
   </si>
   <si>
+    <t xml:space="preserve">Au IIIème siècle après J.-C., les luttes de pouvoir, trahisons et alliances à Rome du temps de son empire florissant.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Golden hill</t>
   </si>
   <si>
     <t xml:space="preserve">Faber and Faber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1746. Richard Smith vient de débarquer d’Angleterre à New York. À peine descendu du bateau, le jeune homme court vers Golden Hill Street. Le lendemain matin, tout Manhattan ne parle que de lui.</t>
   </si>
   <si>
     <t xml:space="preserve">Collins classics</t>
@@ -5568,9 +5655,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mémoire d'encrier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fantastique</t>
   </si>
   <si>
     <t xml:space="preserve">Pour venger ses ancêtres, pour libérer son propre corps, Kim est prêt à tout. Guidée par ses ancêtres, Édith retrace les blessures qui l’ont amené à venger les femmes de la lignée. </t>
@@ -5844,7 +5928,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5866,6 +5950,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6101,9 +6189,9 @@
   <dimension ref="A1:G913"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A313" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F315" activeCellId="0" sqref="F315"/>
+      <selection pane="bottomLeft" activeCell="D314" activeCellId="0" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11962,13 +12050,13 @@
       <c r="E316" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F316" s="2" t="s">
-        <v>148</v>
+      <c r="F316" s="4" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>488</v>
@@ -11981,7 +12069,7 @@
         <v>10</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>148</v>
+        <v>746</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11992,19 +12080,19 @@
         <v>486</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>148</v>
+        <v>748</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>483</v>
@@ -12017,7 +12105,7 @@
         <v>10</v>
       </c>
       <c r="F319" s="2" t="s">
-        <v>148</v>
+        <v>750</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12035,25 +12123,25 @@
         <v>10</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>148</v>
+        <v>751</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>468</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>148</v>
+        <v>754</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12071,7 +12159,7 @@
         <v>10</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>148</v>
+        <v>755</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12079,7 +12167,7 @@
         <v>472</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>474</v>
@@ -12089,15 +12177,15 @@
         <v>10</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>148</v>
+        <v>757</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>66</v>
@@ -12107,7 +12195,7 @@
         <v>10</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>148</v>
+        <v>760</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12122,10 +12210,10 @@
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2" t="s">
-        <v>10</v>
+        <v>761</v>
       </c>
       <c r="F325" s="2" t="s">
-        <v>148</v>
+        <v>762</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12136,14 +12224,14 @@
         <v>463</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>148</v>
+        <v>764</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12158,10 +12246,10 @@
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="2" t="s">
-        <v>10</v>
+        <v>710</v>
       </c>
       <c r="F327" s="2" t="s">
-        <v>148</v>
+        <v>765</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12169,22 +12257,22 @@
         <v>457</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F328" s="2" t="s">
-        <v>148</v>
+        <v>767</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>456</v>
@@ -12196,44 +12284,44 @@
       <c r="E329" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F329" s="2" t="s">
-        <v>148</v>
+      <c r="F329" s="6" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F330" s="2" t="s">
-        <v>148</v>
+        <v>772</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>148</v>
+        <v>776</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12241,58 +12329,58 @@
         <v>450</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>148</v>
+        <v>779</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>148</v>
+        <v>782</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="2" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>446</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>148</v>
+        <v>785</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>443</v>
@@ -12305,12 +12393,12 @@
         <v>10</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>148</v>
+        <v>787</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>440</v>
@@ -12320,10 +12408,10 @@
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="2" t="s">
-        <v>10</v>
+        <v>789</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>148</v>
+        <v>790</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,25 +12429,25 @@
         <v>10</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>148</v>
+        <v>791</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>148</v>
+        <v>794</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12370,66 +12458,66 @@
         <v>432</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>148</v>
+        <v>795</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2" t="s">
-        <v>10</v>
+        <v>710</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>148</v>
+        <v>797</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>148</v>
+        <v>800</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>424</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>148</v>
+        <v>803</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12440,14 +12528,14 @@
         <v>422</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
       <c r="G343" s="0" t="s">
         <v>12</v>
@@ -12455,20 +12543,20 @@
     </row>
     <row r="344" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>780</v>
+        <v>809</v>
       </c>
       <c r="G344" s="0" t="s">
         <v>12</v>
@@ -12476,20 +12564,20 @@
     </row>
     <row r="345" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
-        <v>781</v>
+        <v>810</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>782</v>
+        <v>811</v>
       </c>
       <c r="G345" s="0" t="s">
         <v>12</v>
@@ -12508,7 +12596,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="G346" s="0" t="s">
         <v>12</v>
@@ -12529,7 +12617,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="G347" s="0" t="s">
         <v>12</v>
@@ -12537,20 +12625,20 @@
     </row>
     <row r="348" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>410</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>786</v>
+        <v>815</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F348" s="6" t="s">
-        <v>787</v>
+      <c r="F348" s="7" t="s">
+        <v>816</v>
       </c>
       <c r="G348" s="0" t="s">
         <v>12</v>
@@ -12558,20 +12646,20 @@
     </row>
     <row r="349" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
-        <v>788</v>
+        <v>817</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>789</v>
+        <v>818</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>790</v>
+        <v>819</v>
       </c>
       <c r="G349" s="0" t="s">
         <v>12</v>
@@ -12582,17 +12670,17 @@
         <v>403</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>791</v>
+        <v>820</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>792</v>
+        <v>821</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>793</v>
+        <v>822</v>
       </c>
       <c r="G350" s="0" t="s">
         <v>12</v>
@@ -12606,14 +12694,14 @@
         <v>401</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>794</v>
+        <v>823</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>795</v>
+        <v>824</v>
       </c>
       <c r="G351" s="0" t="s">
         <v>12</v>
@@ -12624,7 +12712,7 @@
         <v>397</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>796</v>
+        <v>825</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>399</v>
@@ -12634,7 +12722,7 @@
         <v>10</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>797</v>
+        <v>826</v>
       </c>
       <c r="G352" s="0" t="s">
         <v>12</v>
@@ -12642,20 +12730,20 @@
     </row>
     <row r="353" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>396</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="G353" s="0" t="s">
         <v>12</v>
@@ -12669,14 +12757,14 @@
         <v>392</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>799</v>
+        <v>828</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>801</v>
+        <v>830</v>
       </c>
       <c r="G354" s="0" t="s">
         <v>12</v>
@@ -12684,20 +12772,20 @@
     </row>
     <row r="355" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>802</v>
+        <v>831</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>803</v>
+        <v>832</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>804</v>
+        <v>833</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F355" s="7" t="s">
-        <v>805</v>
+      <c r="F355" s="8" t="s">
+        <v>834</v>
       </c>
       <c r="G355" s="0" t="s">
         <v>12</v>
@@ -12705,20 +12793,20 @@
     </row>
     <row r="356" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>806</v>
+        <v>835</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>807</v>
+        <v>836</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="G356" s="0" t="s">
         <v>12</v>
@@ -12726,20 +12814,20 @@
     </row>
     <row r="357" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
-        <v>810</v>
+        <v>839</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>811</v>
+        <v>840</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>812</v>
+        <v>841</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>813</v>
+        <v>842</v>
       </c>
       <c r="G357" s="0" t="s">
         <v>12</v>
@@ -12747,20 +12835,20 @@
     </row>
     <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
-        <v>814</v>
+        <v>843</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="2" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>818</v>
+        <v>847</v>
       </c>
       <c r="G358" s="0" t="s">
         <v>12</v>
@@ -12768,20 +12856,20 @@
     </row>
     <row r="359" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
-        <v>819</v>
+        <v>848</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>694</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="F359" s="8" t="s">
-        <v>820</v>
+        <v>846</v>
+      </c>
+      <c r="F359" s="9" t="s">
+        <v>849</v>
       </c>
       <c r="G359" s="0" t="s">
         <v>12</v>
@@ -12789,20 +12877,20 @@
     </row>
     <row r="360" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
-        <v>821</v>
+        <v>850</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="2" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="F360" s="2" t="s">
-        <v>822</v>
+        <v>851</v>
       </c>
       <c r="G360" s="0" t="s">
         <v>12</v>
@@ -12810,20 +12898,20 @@
     </row>
     <row r="361" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>823</v>
+        <v>852</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>815</v>
+        <v>844</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="2" t="s">
-        <v>817</v>
+        <v>846</v>
       </c>
       <c r="F361" s="2" t="s">
-        <v>825</v>
+        <v>854</v>
       </c>
       <c r="G361" s="0" t="s">
         <v>12</v>
@@ -12831,20 +12919,20 @@
     </row>
     <row r="362" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>826</v>
+        <v>855</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>827</v>
+        <v>856</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F362" s="2" t="s">
-        <v>828</v>
+        <v>857</v>
       </c>
       <c r="G362" s="0" t="s">
         <v>12</v>
@@ -12852,10 +12940,10 @@
     </row>
     <row r="363" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>829</v>
+        <v>858</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>830</v>
+        <v>859</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>296</v>
@@ -12865,7 +12953,7 @@
         <v>10</v>
       </c>
       <c r="F363" s="2" t="s">
-        <v>831</v>
+        <v>860</v>
       </c>
       <c r="G363" s="0" t="s">
         <v>12</v>
@@ -12873,20 +12961,20 @@
     </row>
     <row r="364" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>833</v>
+        <v>862</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>834</v>
+        <v>863</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F364" s="8" t="s">
-        <v>835</v>
+      <c r="F364" s="9" t="s">
+        <v>864</v>
       </c>
       <c r="G364" s="0" t="s">
         <v>12</v>
@@ -12894,20 +12982,20 @@
     </row>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>836</v>
+        <v>865</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>837</v>
+        <v>866</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>838</v>
+        <v>867</v>
       </c>
       <c r="G365" s="0" t="s">
         <v>12</v>
@@ -12921,10 +13009,10 @@
     </row>
     <row r="367" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>694</v>
@@ -12933,10 +13021,10 @@
     </row>
     <row r="368" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>841</v>
+        <v>870</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>66</v>
@@ -12945,24 +13033,24 @@
     </row>
     <row r="369" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>843</v>
+        <v>872</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>842</v>
+        <v>871</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>844</v>
+        <v>873</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>845</v>
+        <v>874</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>846</v>
+        <v>875</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>28</v>
@@ -12971,22 +13059,22 @@
     </row>
     <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>848</v>
+        <v>877</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>850</v>
+        <v>879</v>
       </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>851</v>
+        <v>880</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>852</v>
+        <v>881</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>28</v>
@@ -12995,94 +13083,94 @@
     </row>
     <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>858</v>
+        <v>887</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>859</v>
+        <v>888</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>860</v>
+        <v>889</v>
       </c>
       <c r="D375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>861</v>
+        <v>890</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="D376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>863</v>
+        <v>892</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="D377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>865</v>
+        <v>894</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2" t="s">
-        <v>824</v>
+        <v>853</v>
       </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>866</v>
+        <v>895</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>867</v>
+        <v>896</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>868</v>
+        <v>897</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>869</v>
+        <v>898</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>870</v>
+        <v>899</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>23</v>
@@ -13091,10 +13179,10 @@
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>871</v>
+        <v>900</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>872</v>
+        <v>901</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>62</v>
@@ -13103,7 +13191,7 @@
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>873</v>
+        <v>902</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>578</v>
@@ -13115,34 +13203,34 @@
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>877</v>
+        <v>906</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>878</v>
+        <v>907</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>879</v>
+        <v>908</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>379</v>
@@ -13151,70 +13239,70 @@
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>880</v>
+        <v>909</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>883</v>
+        <v>912</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>881</v>
+        <v>910</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>885</v>
+        <v>914</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>886</v>
+        <v>915</v>
       </c>
       <c r="D388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
-        <v>887</v>
+        <v>916</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>888</v>
+        <v>917</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>889</v>
+        <v>918</v>
       </c>
       <c r="D389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>890</v>
+        <v>919</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>857</v>
+        <v>886</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>891</v>
+        <v>920</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>379</v>
@@ -13223,19 +13311,19 @@
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>893</v>
+        <v>922</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>894</v>
+        <v>923</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>895</v>
+        <v>924</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>31</v>
@@ -13247,106 +13335,106 @@
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>896</v>
+        <v>925</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>897</v>
+        <v>926</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>899</v>
+        <v>928</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>900</v>
+        <v>929</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>901</v>
+        <v>930</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>902</v>
+        <v>931</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>903</v>
+        <v>932</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
       <c r="D397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>904</v>
+        <v>933</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>905</v>
+        <v>934</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>906</v>
+        <v>935</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>907</v>
+        <v>936</v>
       </c>
       <c r="D399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>908</v>
+        <v>937</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>909</v>
+        <v>938</v>
       </c>
       <c r="D400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>910</v>
+        <v>939</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>912</v>
+        <v>941</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>301</v>
@@ -13355,10 +13443,10 @@
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>913</v>
+        <v>942</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>914</v>
+        <v>943</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>564</v>
@@ -13367,10 +13455,10 @@
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>915</v>
+        <v>944</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>916</v>
+        <v>945</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>564</v>
@@ -13379,10 +13467,10 @@
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>28</v>
@@ -13391,10 +13479,10 @@
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>438</v>
@@ -13403,58 +13491,58 @@
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
-        <v>923</v>
+        <v>952</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="D408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>171</v>
@@ -13463,106 +13551,106 @@
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>933</v>
+        <v>962</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>935</v>
+        <v>964</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>936</v>
+        <v>965</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="D419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>171</v>
@@ -13571,37 +13659,37 @@
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
       <c r="D421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>302</v>
@@ -13609,142 +13697,142 @@
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>934</v>
+        <v>963</v>
       </c>
       <c r="D424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>946</v>
+        <v>975</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>884</v>
+        <v>913</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>876</v>
+        <v>905</v>
       </c>
       <c r="D428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>882</v>
+        <v>911</v>
       </c>
       <c r="D432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>855</v>
+        <v>884</v>
       </c>
       <c r="D434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>28</v>
@@ -13753,10 +13841,10 @@
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>179</v>
@@ -13765,22 +13853,22 @@
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>961</v>
+        <v>990</v>
       </c>
       <c r="D437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>963</v>
+        <v>992</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>28</v>
@@ -13789,10 +13877,10 @@
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>875</v>
+        <v>904</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>28</v>
@@ -13801,7 +13889,7 @@
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>964</v>
+        <v>993</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>416</v>
@@ -13813,10 +13901,10 @@
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>66</v>
@@ -13825,10 +13913,10 @@
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>967</v>
+        <v>996</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>968</v>
+        <v>997</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>66</v>
@@ -13837,10 +13925,10 @@
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>969</v>
+        <v>998</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>968</v>
+        <v>997</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>28</v>
@@ -13849,10 +13937,10 @@
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>971</v>
+        <v>1000</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>28</v>
@@ -13861,7 +13949,7 @@
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>972</v>
+        <v>1001</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>684</v>
@@ -13873,7 +13961,7 @@
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>973</v>
+        <v>1002</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>335</v>
@@ -13885,7 +13973,7 @@
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>974</v>
+        <v>1003</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>335</v>
@@ -13897,40 +13985,40 @@
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>975</v>
+        <v>1004</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="3" t="s">
-        <v>978</v>
+        <v>1007</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>979</v>
+        <v>1008</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>980</v>
+        <v>1009</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>326</v>
@@ -13941,21 +14029,21 @@
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>529</v>
@@ -13963,10 +14051,10 @@
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>985</v>
+        <v>1014</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>986</v>
+        <v>1015</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>569</v>
@@ -13974,13 +14062,13 @@
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>987</v>
+        <v>1016</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>988</v>
+        <v>1017</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>989</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13988,7 +14076,7 @@
         <v>565</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>990</v>
+        <v>1019</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>523</v>
@@ -13996,10 +14084,10 @@
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>991</v>
+        <v>1020</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>992</v>
+        <v>1021</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>569</v>
@@ -14007,7 +14095,7 @@
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>993</v>
+        <v>1022</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>244</v>
@@ -14018,40 +14106,40 @@
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>994</v>
+        <v>1023</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>995</v>
+        <v>1024</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>996</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>997</v>
+        <v>1026</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>995</v>
+        <v>1024</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>996</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>999</v>
+        <v>1028</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1000</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>1001</v>
+        <v>1030</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>587</v>
@@ -14062,10 +14150,10 @@
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>1002</v>
+        <v>1031</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1003</v>
+        <v>1032</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>564</v>
@@ -14073,7 +14161,7 @@
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>1004</v>
+        <v>1033</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>661</v>
@@ -14084,7 +14172,7 @@
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>1005</v>
+        <v>1034</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>609</v>
@@ -14095,7 +14183,7 @@
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>224</v>
@@ -14106,29 +14194,29 @@
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>1007</v>
+        <v>1036</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1008</v>
+        <v>1037</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1009</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>1011</v>
+        <v>1040</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1012</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>1013</v>
+        <v>1042</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>640</v>
@@ -14145,56 +14233,56 @@
         <v>365</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>1012</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>1014</v>
+        <v>1043</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1015</v>
+        <v>1044</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>1017</v>
+        <v>1046</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>1018</v>
+        <v>1047</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1019</v>
+        <v>1048</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>1020</v>
+        <v>1049</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>1021</v>
+        <v>1050</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>104</v>
@@ -14205,54 +14293,54 @@
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>1022</v>
+        <v>1051</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>1023</v>
+        <v>1052</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>1024</v>
+        <v>1053</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1025</v>
+        <v>1054</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>1026</v>
+        <v>1055</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>1027</v>
+        <v>1056</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>1028</v>
+        <v>1057</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>1030</v>
+        <v>1059</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>1031</v>
+        <v>1060</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>675</v>
@@ -14260,7 +14348,7 @@
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>1032</v>
+        <v>1061</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>258</v>
@@ -14271,10 +14359,10 @@
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>1033</v>
+        <v>1062</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1034</v>
+        <v>1063</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>675</v>
@@ -14282,10 +14370,10 @@
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>1035</v>
+        <v>1064</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1036</v>
+        <v>1065</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>675</v>
@@ -14293,7 +14381,7 @@
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>1037</v>
+        <v>1066</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>213</v>
@@ -14304,7 +14392,7 @@
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>1038</v>
+        <v>1067</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>206</v>
@@ -14315,288 +14403,288 @@
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>1039</v>
+        <v>1068</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>1041</v>
+        <v>1070</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>1042</v>
+        <v>1071</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>1043</v>
+        <v>1072</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>1044</v>
+        <v>1073</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>1045</v>
+        <v>1074</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>1046</v>
+        <v>1075</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>1047</v>
+        <v>1076</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>1048</v>
+        <v>1077</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>1049</v>
+        <v>1078</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>1050</v>
+        <v>1079</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>1051</v>
+        <v>1080</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>1053</v>
+        <v>1082</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>1054</v>
+        <v>1083</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>1055</v>
+        <v>1084</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
-        <v>1056</v>
+        <v>1085</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="2" t="s">
-        <v>1057</v>
+        <v>1086</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="2" t="s">
-        <v>1058</v>
+        <v>1087</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
-        <v>1059</v>
+        <v>1088</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
-        <v>1060</v>
+        <v>1089</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="2" t="s">
-        <v>1061</v>
+        <v>1090</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
-        <v>1062</v>
+        <v>1091</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>955</v>
+        <v>984</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>1040</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="2" t="s">
-        <v>1063</v>
+        <v>1092</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="2" t="s">
-        <v>1065</v>
+        <v>1094</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="2" t="s">
-        <v>1066</v>
+        <v>1095</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14607,202 +14695,202 @@
         <v>376</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="2" t="s">
-        <v>1067</v>
+        <v>1096</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="2" t="s">
-        <v>1068</v>
+        <v>1097</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="2" t="s">
-        <v>1069</v>
+        <v>1098</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="2" t="s">
-        <v>1070</v>
+        <v>1099</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="2" t="s">
-        <v>1071</v>
+        <v>1100</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="2" t="s">
-        <v>1072</v>
+        <v>1101</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="2" t="s">
-        <v>1073</v>
+        <v>1102</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="2" t="s">
-        <v>1074</v>
+        <v>1103</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="2" t="s">
-        <v>1075</v>
+        <v>1104</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="2" t="s">
-        <v>1076</v>
+        <v>1105</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="2" t="s">
-        <v>1077</v>
+        <v>1106</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="2" t="s">
-        <v>1078</v>
+        <v>1107</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="2" t="s">
-        <v>1079</v>
+        <v>1108</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="2" t="s">
-        <v>1080</v>
+        <v>1109</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="2" t="s">
-        <v>1081</v>
+        <v>1110</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="2" t="s">
-        <v>1082</v>
+        <v>1111</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>1064</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
-        <v>1083</v>
+        <v>1112</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>1084</v>
+        <v>1113</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>1085</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="2" t="s">
-        <v>1086</v>
+        <v>1115</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1087</v>
+        <v>1116</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>296</v>
@@ -14810,43 +14898,43 @@
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="2" t="s">
-        <v>1088</v>
+        <v>1117</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1089</v>
+        <v>1118</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>1090</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="2" t="s">
-        <v>1091</v>
+        <v>1120</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>1092</v>
+        <v>1121</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="2" t="s">
-        <v>1093</v>
+        <v>1122</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>1094</v>
+        <v>1123</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="2" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>697</v>
@@ -14854,21 +14942,21 @@
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="2" t="s">
-        <v>1097</v>
+        <v>1126</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>1098</v>
+        <v>1127</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="2" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>1100</v>
+        <v>1129</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>697</v>
@@ -14876,24 +14964,24 @@
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="2" t="s">
-        <v>1101</v>
+        <v>1130</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>1102</v>
+        <v>1131</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>1103</v>
+        <v>1132</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>1104</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="2" t="s">
-        <v>1105</v>
+        <v>1134</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>1106</v>
+        <v>1135</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>697</v>
@@ -14902,24 +14990,24 @@
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="2" t="s">
-        <v>1107</v>
+        <v>1136</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>1108</v>
+        <v>1137</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>1109</v>
+        <v>1138</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>1104</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="2" t="s">
-        <v>1110</v>
+        <v>1139</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>1111</v>
+        <v>1140</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>296</v>
@@ -14928,10 +15016,10 @@
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="2" t="s">
-        <v>1112</v>
+        <v>1141</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1113</v>
+        <v>1142</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>193</v>
@@ -14940,10 +15028,10 @@
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="2" t="s">
-        <v>1114</v>
+        <v>1143</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1115</v>
+        <v>1144</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>193</v>
@@ -14952,22 +15040,22 @@
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2" t="s">
-        <v>1116</v>
+        <v>1145</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1117</v>
+        <v>1146</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="2" t="s">
-        <v>1119</v>
+        <v>1148</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1120</v>
+        <v>1149</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>296</v>
@@ -14976,31 +15064,31 @@
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="2" t="s">
-        <v>1121</v>
+        <v>1150</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1122</v>
+        <v>1151</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="2" t="s">
-        <v>1123</v>
+        <v>1152</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1124</v>
+        <v>1153</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="2" t="s">
-        <v>1125</v>
+        <v>1154</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>413</v>
@@ -15012,7 +15100,7 @@
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="2" t="s">
-        <v>1126</v>
+        <v>1155</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>413</v>
@@ -15024,19 +15112,19 @@
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="2" t="s">
-        <v>1127</v>
+        <v>1156</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1128</v>
+        <v>1157</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="2" t="s">
-        <v>1129</v>
+        <v>1158</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>413</v>
@@ -15048,10 +15136,10 @@
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="2" t="s">
-        <v>1130</v>
+        <v>1159</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1131</v>
+        <v>1160</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>193</v>
@@ -15060,10 +15148,10 @@
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
-        <v>1132</v>
+        <v>1161</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1133</v>
+        <v>1162</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>23</v>
@@ -15072,10 +15160,10 @@
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="2" t="s">
-        <v>1134</v>
+        <v>1163</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1135</v>
+        <v>1164</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>193</v>
@@ -15084,10 +15172,10 @@
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="2" t="s">
-        <v>1136</v>
+        <v>1165</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>694</v>
@@ -15096,22 +15184,22 @@
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="2" t="s">
-        <v>1138</v>
+        <v>1167</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="2" t="s">
-        <v>1139</v>
+        <v>1168</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1140</v>
+        <v>1169</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>193</v>
@@ -15120,10 +15208,10 @@
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
-        <v>1141</v>
+        <v>1170</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1142</v>
+        <v>1171</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>193</v>
@@ -15132,19 +15220,19 @@
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="2" t="s">
-        <v>1143</v>
+        <v>1172</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1144</v>
+        <v>1173</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
-        <v>1145</v>
+        <v>1174</v>
       </c>
       <c r="B559" s="2"/>
       <c r="C559" s="2" t="s">
@@ -15154,10 +15242,10 @@
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="2" t="s">
-        <v>1146</v>
+        <v>1175</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1147</v>
+        <v>1176</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>66</v>
@@ -15166,7 +15254,7 @@
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="2" t="s">
-        <v>1148</v>
+        <v>1177</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>192</v>
@@ -15178,10 +15266,10 @@
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="2" t="s">
-        <v>1149</v>
+        <v>1178</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1150</v>
+        <v>1179</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>193</v>
@@ -15190,7 +15278,7 @@
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="2" t="s">
-        <v>1151</v>
+        <v>1180</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>590</v>
@@ -15202,32 +15290,32 @@
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="2" t="s">
-        <v>1152</v>
+        <v>1181</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1153</v>
+        <v>1182</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>1154</v>
+        <v>1183</v>
       </c>
       <c r="D564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="2" t="s">
-        <v>1155</v>
+        <v>1184</v>
       </c>
       <c r="B565" s="2"/>
       <c r="C565" s="2" t="s">
-        <v>1156</v>
+        <v>1185</v>
       </c>
       <c r="D565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="2" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1102</v>
+        <v>1131</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>368</v>
@@ -15236,10 +15324,10 @@
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="2" t="s">
-        <v>1158</v>
+        <v>1187</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1159</v>
+        <v>1188</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>708</v>
@@ -15248,10 +15336,10 @@
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="2" t="s">
-        <v>1160</v>
+        <v>1189</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>296</v>
@@ -15260,10 +15348,10 @@
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="2" t="s">
-        <v>1162</v>
+        <v>1191</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1161</v>
+        <v>1190</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>193</v>
@@ -15272,53 +15360,53 @@
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="2" t="s">
-        <v>1163</v>
+        <v>1192</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1164</v>
+        <v>1193</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="2" t="s">
-        <v>1165</v>
+        <v>1194</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1166</v>
+        <v>1195</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2" t="s">
-        <v>1167</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="2" t="s">
-        <v>1168</v>
+        <v>1197</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1169</v>
+        <v>1198</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>1170</v>
+        <v>1199</v>
       </c>
       <c r="D572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="2" t="s">
-        <v>1171</v>
+        <v>1200</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1172</v>
+        <v>1201</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="D573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="2" t="s">
-        <v>1174</v>
+        <v>1203</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>249</v>
@@ -15330,10 +15418,10 @@
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="2" t="s">
-        <v>1175</v>
+        <v>1204</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1176</v>
+        <v>1205</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>526</v>
@@ -15342,10 +15430,10 @@
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="2" t="s">
-        <v>1177</v>
+        <v>1206</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1176</v>
+        <v>1205</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>526</v>
@@ -15354,10 +15442,10 @@
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="2" t="s">
-        <v>1178</v>
+        <v>1207</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1176</v>
+        <v>1205</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>526</v>
@@ -15366,10 +15454,10 @@
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="2" t="s">
-        <v>1179</v>
+        <v>1208</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1176</v>
+        <v>1205</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>526</v>
@@ -15378,10 +15466,10 @@
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="2" t="s">
-        <v>1180</v>
+        <v>1209</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1181</v>
+        <v>1210</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>526</v>
@@ -15390,31 +15478,31 @@
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="2" t="s">
-        <v>1182</v>
+        <v>1211</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1183</v>
+        <v>1212</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>1184</v>
+        <v>1213</v>
       </c>
       <c r="D580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="2" t="s">
-        <v>1185</v>
+        <v>1214</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1186</v>
+        <v>1215</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>1187</v>
+        <v>1216</v>
       </c>
       <c r="D581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="2" t="s">
-        <v>1188</v>
+        <v>1217</v>
       </c>
       <c r="B582" s="2"/>
       <c r="C582" s="2" t="s">
@@ -15424,22 +15512,22 @@
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="2" t="s">
-        <v>1189</v>
+        <v>1218</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1190</v>
+        <v>1219</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="2" t="s">
-        <v>1191</v>
+        <v>1220</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1192</v>
+        <v>1221</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>66</v>
@@ -15448,34 +15536,34 @@
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="2" t="s">
-        <v>1193</v>
+        <v>1222</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1194</v>
+        <v>1223</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="D585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="2" t="s">
-        <v>1195</v>
+        <v>1224</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1196</v>
+        <v>1225</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>1197</v>
+        <v>1226</v>
       </c>
       <c r="D586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="2" t="s">
-        <v>1198</v>
+        <v>1227</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1199</v>
+        <v>1228</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>23</v>
@@ -15484,10 +15572,10 @@
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="2" t="s">
-        <v>1200</v>
+        <v>1229</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1201</v>
+        <v>1230</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>296</v>
@@ -15496,7 +15584,7 @@
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="2" t="s">
-        <v>1202</v>
+        <v>1231</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>558</v>
@@ -15508,22 +15596,22 @@
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="2" t="s">
-        <v>1203</v>
+        <v>1232</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>1170</v>
+        <v>1199</v>
       </c>
       <c r="D590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="2" t="s">
-        <v>1204</v>
+        <v>1233</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1205</v>
+        <v>1234</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>193</v>
@@ -15532,22 +15620,22 @@
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="2" t="s">
-        <v>1206</v>
+        <v>1235</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1207</v>
+        <v>1236</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>1208</v>
+        <v>1237</v>
       </c>
       <c r="D592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="2" t="s">
-        <v>1209</v>
+        <v>1238</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1210</v>
+        <v>1239</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>296</v>
@@ -15556,10 +15644,10 @@
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="2" t="s">
-        <v>1211</v>
+        <v>1240</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1212</v>
+        <v>1241</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>193</v>
@@ -15568,10 +15656,10 @@
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="2" t="s">
-        <v>1213</v>
+        <v>1242</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1214</v>
+        <v>1243</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>694</v>
@@ -15580,10 +15668,10 @@
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="2" t="s">
-        <v>1215</v>
+        <v>1244</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1216</v>
+        <v>1245</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>66</v>
@@ -15592,10 +15680,10 @@
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="2" t="s">
-        <v>1217</v>
+        <v>1246</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1218</v>
+        <v>1247</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>193</v>
@@ -15604,10 +15692,10 @@
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
-        <v>1219</v>
+        <v>1248</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1220</v>
+        <v>1249</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>28</v>
@@ -15616,17 +15704,17 @@
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="2" t="s">
-        <v>1221</v>
+        <v>1250</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1222</v>
+        <v>1251</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="2" t="s">
-        <v>1223</v>
+        <v>1252</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>275</v>
@@ -15644,143 +15732,143 @@
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
-        <v>1224</v>
+        <v>1253</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1225</v>
+        <v>1254</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>1226</v>
+        <v>1255</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1227</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="2" t="s">
-        <v>1228</v>
+        <v>1257</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1229</v>
+        <v>1258</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>1230</v>
+        <v>1259</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1227</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="2" t="s">
-        <v>1231</v>
+        <v>1260</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1232</v>
+        <v>1261</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>1233</v>
+        <v>1262</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1227</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
-        <v>1234</v>
+        <v>1263</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1235</v>
+        <v>1264</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>1236</v>
+        <v>1265</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1227</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="2" t="s">
-        <v>1237</v>
+        <v>1266</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>1238</v>
+        <v>1267</v>
       </c>
       <c r="D606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
-        <v>1239</v>
+        <v>1268</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1240</v>
+        <v>1269</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>1241</v>
+        <v>1270</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1242</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="2" t="s">
-        <v>1243</v>
+        <v>1272</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1244</v>
+        <v>1273</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>1245</v>
+        <v>1274</v>
       </c>
       <c r="D608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="2" t="s">
-        <v>1246</v>
+        <v>1275</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1247</v>
+        <v>1276</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="2" t="s">
-        <v>1248</v>
+        <v>1277</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1249</v>
+        <v>1278</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>1250</v>
+        <v>1279</v>
       </c>
       <c r="D610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="2" t="s">
-        <v>1251</v>
+        <v>1280</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1252</v>
+        <v>1281</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="2" t="s">
-        <v>1253</v>
+        <v>1282</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1254</v>
+        <v>1283</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>1255</v>
+        <v>1284</v>
       </c>
       <c r="D612" s="2"/>
     </row>
@@ -15789,7 +15877,7 @@
         <v>450</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>694</v>
@@ -15798,10 +15886,10 @@
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="2" t="s">
-        <v>1256</v>
+        <v>1285</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1257</v>
+        <v>1286</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>28</v>
@@ -15810,22 +15898,22 @@
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="2" t="s">
-        <v>1258</v>
+        <v>1287</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1259</v>
+        <v>1288</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="2" t="s">
-        <v>1260</v>
+        <v>1289</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1261</v>
+        <v>1290</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>28</v>
@@ -15834,10 +15922,10 @@
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="2" t="s">
-        <v>1262</v>
+        <v>1291</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1263</v>
+        <v>1292</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>28</v>
@@ -15846,22 +15934,22 @@
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="2" t="s">
-        <v>1264</v>
+        <v>1293</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1265</v>
+        <v>1294</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>1266</v>
+        <v>1295</v>
       </c>
       <c r="D618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="2" t="s">
-        <v>1267</v>
+        <v>1296</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>1268</v>
+        <v>1297</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>28</v>
@@ -15870,10 +15958,10 @@
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="2" t="s">
-        <v>1269</v>
+        <v>1298</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>1270</v>
+        <v>1299</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>382</v>
@@ -15882,24 +15970,24 @@
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="2" t="s">
-        <v>1271</v>
+        <v>1300</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>1272</v>
+        <v>1301</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>564</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1273</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="2" t="s">
-        <v>1274</v>
+        <v>1303</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>1275</v>
+        <v>1304</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>193</v>
@@ -15908,34 +15996,34 @@
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="2" t="s">
-        <v>1276</v>
+        <v>1305</v>
       </c>
       <c r="B623" s="2" t="s">
-        <v>1277</v>
+        <v>1306</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>1278</v>
+        <v>1307</v>
       </c>
       <c r="D623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="2" t="s">
-        <v>1279</v>
+        <v>1308</v>
       </c>
       <c r="B624" s="2" t="s">
-        <v>1277</v>
+        <v>1306</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>1280</v>
+        <v>1309</v>
       </c>
       <c r="D624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="2" t="s">
-        <v>1281</v>
+        <v>1310</v>
       </c>
       <c r="B625" s="2" t="s">
-        <v>1277</v>
+        <v>1306</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>694</v>
@@ -15944,43 +16032,43 @@
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="2" t="s">
-        <v>1282</v>
+        <v>1311</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>1283</v>
+        <v>1312</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>1284</v>
+        <v>1313</v>
       </c>
       <c r="D626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="2" t="s">
-        <v>1285</v>
+        <v>1314</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>1286</v>
+        <v>1315</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="2" t="s">
-        <v>1287</v>
+        <v>1316</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>1288</v>
+        <v>1317</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="2" t="s">
-        <v>1038</v>
+        <v>1067</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>206</v>
@@ -15992,46 +16080,46 @@
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="2" t="s">
-        <v>1289</v>
+        <v>1318</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1029</v>
+        <v>1058</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>1290</v>
+        <v>1319</v>
       </c>
       <c r="D630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="2" t="s">
-        <v>1291</v>
+        <v>1320</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1283</v>
+        <v>1312</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>1173</v>
+        <v>1202</v>
       </c>
       <c r="D631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="2" t="s">
-        <v>1292</v>
+        <v>1321</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1283</v>
+        <v>1312</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>1293</v>
+        <v>1322</v>
       </c>
       <c r="D632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="2" t="s">
-        <v>1294</v>
+        <v>1323</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1295</v>
+        <v>1324</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>196</v>
@@ -16040,10 +16128,10 @@
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="2" t="s">
-        <v>1296</v>
+        <v>1325</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1297</v>
+        <v>1326</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>23</v>
@@ -16052,7 +16140,7 @@
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="2" t="s">
-        <v>1298</v>
+        <v>1327</v>
       </c>
       <c r="B635" s="2" t="s">
         <v>365</v>
@@ -16064,10 +16152,10 @@
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="2" t="s">
-        <v>1299</v>
+        <v>1328</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1300</v>
+        <v>1329</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>28</v>
@@ -16076,185 +16164,185 @@
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="2" t="s">
-        <v>1301</v>
+        <v>1330</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1302</v>
+        <v>1331</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>1303</v>
+        <v>1332</v>
       </c>
       <c r="D637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="s">
-        <v>1304</v>
+        <v>1333</v>
       </c>
       <c r="B638" s="2"/>
       <c r="C638" s="2" t="s">
-        <v>1305</v>
+        <v>1334</v>
       </c>
       <c r="D638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="2" t="s">
-        <v>1306</v>
+        <v>1335</v>
       </c>
       <c r="B639" s="2"/>
       <c r="C639" s="2" t="s">
-        <v>1305</v>
+        <v>1334</v>
       </c>
       <c r="D639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="2" t="s">
-        <v>1307</v>
+        <v>1336</v>
       </c>
       <c r="B640" s="2"/>
       <c r="C640" s="2" t="s">
-        <v>1305</v>
+        <v>1334</v>
       </c>
       <c r="D640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="2" t="s">
-        <v>1308</v>
+        <v>1337</v>
       </c>
       <c r="B641" s="2"/>
       <c r="C641" s="2" t="s">
-        <v>1305</v>
+        <v>1334</v>
       </c>
       <c r="D641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="2" t="s">
-        <v>1309</v>
+        <v>1338</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1310</v>
+        <v>1339</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="2" t="s">
-        <v>1312</v>
+        <v>1341</v>
       </c>
       <c r="B643" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="2" t="s">
-        <v>1313</v>
+        <v>1342</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>1314</v>
+        <v>1343</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="2" t="s">
-        <v>1315</v>
+        <v>1344</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1316</v>
+        <v>1345</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="2" t="s">
-        <v>1309</v>
+        <v>1338</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>1317</v>
+        <v>1346</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="2" t="s">
-        <v>866</v>
+        <v>895</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>867</v>
+        <v>896</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="2" t="s">
-        <v>1318</v>
+        <v>1347</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>1319</v>
+        <v>1348</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="2" t="s">
-        <v>1320</v>
+        <v>1349</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>1321</v>
+        <v>1350</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="2" t="s">
-        <v>1322</v>
+        <v>1351</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>1323</v>
+        <v>1352</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="2" t="s">
-        <v>1324</v>
+        <v>1353</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>1325</v>
+        <v>1354</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="2" t="s">
-        <v>1326</v>
+        <v>1355</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>1327</v>
+        <v>1356</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>142</v>
@@ -16262,541 +16350,541 @@
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="2" t="s">
-        <v>1328</v>
+        <v>1357</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>601</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="2" t="s">
-        <v>1329</v>
+        <v>1358</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>1330</v>
+        <v>1359</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="2" t="s">
-        <v>1331</v>
+        <v>1360</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>1332</v>
+        <v>1361</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="2" t="s">
-        <v>1333</v>
+        <v>1362</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>1334</v>
+        <v>1363</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="2" t="s">
-        <v>1335</v>
+        <v>1364</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>1336</v>
+        <v>1365</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="2" t="s">
-        <v>1337</v>
+        <v>1366</v>
       </c>
       <c r="B658" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="2" t="s">
-        <v>1338</v>
+        <v>1367</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1339</v>
+        <v>1368</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C660" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="B660" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C660" s="2" t="s">
-        <v>1311</v>
       </c>
       <c r="D660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="2" t="s">
-        <v>1342</v>
+        <v>1371</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>1343</v>
+        <v>1372</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="2" t="s">
-        <v>1344</v>
+        <v>1373</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>1345</v>
+        <v>1374</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="2" t="s">
-        <v>1346</v>
+        <v>1375</v>
       </c>
       <c r="B663" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="2" t="s">
-        <v>1347</v>
+        <v>1376</v>
       </c>
       <c r="B664" s="2" t="s">
         <v>699</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="2" t="s">
-        <v>1348</v>
+        <v>1377</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>1349</v>
+        <v>1378</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="2" t="s">
-        <v>1350</v>
+        <v>1379</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>1351</v>
+        <v>1380</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="2" t="s">
-        <v>1352</v>
+        <v>1381</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>1353</v>
+        <v>1382</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="2" t="s">
-        <v>1354</v>
+        <v>1383</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1355</v>
+        <v>1384</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="2" t="s">
-        <v>1309</v>
+        <v>1338</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>1356</v>
+        <v>1385</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="2" t="s">
-        <v>1357</v>
+        <v>1386</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>1358</v>
+        <v>1387</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="2" t="s">
-        <v>1359</v>
+        <v>1388</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>1360</v>
+        <v>1389</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="2" t="s">
-        <v>1361</v>
+        <v>1390</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>1362</v>
+        <v>1391</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="2" t="s">
-        <v>1363</v>
+        <v>1392</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1364</v>
+        <v>1393</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="2" t="s">
-        <v>1365</v>
+        <v>1394</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>1366</v>
+        <v>1395</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="2" t="s">
-        <v>1367</v>
+        <v>1396</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>1368</v>
+        <v>1397</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="2" t="s">
-        <v>1369</v>
+        <v>1398</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>1370</v>
+        <v>1399</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="2" t="s">
-        <v>1371</v>
+        <v>1400</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>1372</v>
+        <v>1401</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="2" t="s">
-        <v>1373</v>
+        <v>1402</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>1374</v>
+        <v>1403</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="2" t="s">
-        <v>1375</v>
+        <v>1404</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1376</v>
+        <v>1405</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="2" t="s">
-        <v>1377</v>
+        <v>1406</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1378</v>
+        <v>1407</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="2" t="s">
-        <v>1379</v>
+        <v>1408</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>1380</v>
+        <v>1409</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="2" t="s">
-        <v>1381</v>
+        <v>1410</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1382</v>
+        <v>1411</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="2" t="s">
-        <v>1383</v>
+        <v>1412</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>1384</v>
+        <v>1413</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="2" t="s">
-        <v>1385</v>
+        <v>1414</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1386</v>
+        <v>1415</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="2" t="s">
-        <v>1387</v>
+        <v>1416</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1388</v>
+        <v>1417</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="2" t="s">
-        <v>1389</v>
+        <v>1418</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1390</v>
+        <v>1419</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="2" t="s">
-        <v>1391</v>
+        <v>1420</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1392</v>
+        <v>1421</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="s">
-        <v>1393</v>
+        <v>1422</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1394</v>
+        <v>1423</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="s">
-        <v>1395</v>
+        <v>1424</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>1396</v>
+        <v>1425</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="2" t="s">
-        <v>1397</v>
+        <v>1426</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>1398</v>
+        <v>1427</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="2" t="s">
-        <v>1399</v>
+        <v>1428</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>1400</v>
+        <v>1429</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="2" t="s">
-        <v>1033</v>
+        <v>1062</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>1034</v>
+        <v>1063</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="2" t="s">
-        <v>1401</v>
+        <v>1430</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1402</v>
+        <v>1431</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="2" t="s">
-        <v>1403</v>
+        <v>1432</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>1404</v>
+        <v>1433</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="2" t="s">
-        <v>1405</v>
+        <v>1434</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>1406</v>
+        <v>1435</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="2" t="s">
-        <v>1407</v>
+        <v>1436</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>1408</v>
+        <v>1437</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="2" t="s">
-        <v>1409</v>
+        <v>1438</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>1410</v>
+        <v>1439</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D697" s="2"/>
     </row>
@@ -16805,41 +16893,41 @@
         <v>632</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1411</v>
+        <v>1440</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="2" t="s">
-        <v>1412</v>
+        <v>1441</v>
       </c>
       <c r="B699" s="2"/>
       <c r="C699" s="2" t="s">
-        <v>1311</v>
+        <v>1340</v>
       </c>
       <c r="D699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="2" t="s">
-        <v>1413</v>
+        <v>1442</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1414</v>
+        <v>1443</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>1415</v>
+        <v>1444</v>
       </c>
       <c r="D700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="2" t="s">
-        <v>1416</v>
+        <v>1445</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1417</v>
+        <v>1446</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>193</v>
@@ -16848,22 +16936,22 @@
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="2" t="s">
-        <v>1418</v>
+        <v>1447</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1419</v>
+        <v>1448</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>1420</v>
+        <v>1449</v>
       </c>
       <c r="D702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="2" t="s">
-        <v>1421</v>
+        <v>1450</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1422</v>
+        <v>1451</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>526</v>
@@ -16872,58 +16960,58 @@
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="2" t="s">
-        <v>1423</v>
+        <v>1452</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>1424</v>
+        <v>1453</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>1425</v>
+        <v>1454</v>
       </c>
       <c r="D704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="2" t="s">
-        <v>1426</v>
+        <v>1455</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>1427</v>
+        <v>1456</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>1428</v>
+        <v>1457</v>
       </c>
       <c r="D705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="2" t="s">
-        <v>1429</v>
+        <v>1458</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>1430</v>
+        <v>1459</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="2" t="s">
-        <v>1431</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="2" t="s">
-        <v>1432</v>
+        <v>1461</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1433</v>
+        <v>1462</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>1434</v>
+        <v>1463</v>
       </c>
       <c r="D707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="2" t="s">
-        <v>1435</v>
+        <v>1464</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>1436</v>
+        <v>1465</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>526</v>
@@ -16932,10 +17020,10 @@
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="2" t="s">
-        <v>1437</v>
+        <v>1466</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1436</v>
+        <v>1465</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>526</v>
@@ -16944,34 +17032,34 @@
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="2" t="s">
-        <v>1438</v>
+        <v>1467</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1439</v>
+        <v>1468</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="2" t="s">
-        <v>1440</v>
+        <v>1469</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1441</v>
+        <v>1470</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>1442</v>
+        <v>1471</v>
       </c>
       <c r="D711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="2" t="s">
-        <v>1443</v>
+        <v>1472</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1444</v>
+        <v>1473</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>697</v>
@@ -16980,10 +17068,10 @@
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="2" t="s">
-        <v>1445</v>
+        <v>1474</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1446</v>
+        <v>1475</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>37</v>
@@ -16992,94 +17080,94 @@
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="2" t="s">
-        <v>1447</v>
+        <v>1476</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1448</v>
+        <v>1477</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="2" t="s">
-        <v>1449</v>
+        <v>1478</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>1450</v>
+        <v>1479</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>1290</v>
+        <v>1319</v>
       </c>
       <c r="D715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="2" t="s">
-        <v>1451</v>
+        <v>1480</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1452</v>
+        <v>1481</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
-        <v>1453</v>
+        <v>1482</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1454</v>
+        <v>1483</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>1455</v>
+        <v>1484</v>
       </c>
       <c r="D717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="s">
-        <v>1456</v>
+        <v>1485</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>1457</v>
+        <v>1486</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="2" t="s">
-        <v>1458</v>
+        <v>1487</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>1459</v>
+        <v>1488</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="2" t="s">
-        <v>1460</v>
+        <v>1489</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1461</v>
+        <v>1490</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>1462</v>
+        <v>1491</v>
       </c>
       <c r="D720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="2" t="s">
-        <v>1463</v>
+        <v>1492</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1464</v>
+        <v>1493</v>
       </c>
       <c r="C721" s="2" t="s">
         <v>193</v>
@@ -17088,10 +17176,10 @@
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="2" t="s">
-        <v>1465</v>
+        <v>1494</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>1466</v>
+        <v>1495</v>
       </c>
       <c r="C722" s="2" t="s">
         <v>28</v>
@@ -17100,22 +17188,22 @@
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="2" t="s">
-        <v>1467</v>
+        <v>1496</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>1468</v>
+        <v>1497</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="2" t="s">
-        <v>1469</v>
+        <v>1498</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>1470</v>
+        <v>1499</v>
       </c>
       <c r="C724" s="2" t="s">
         <v>62</v>
@@ -17124,10 +17212,10 @@
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="2" t="s">
-        <v>1471</v>
+        <v>1500</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>1472</v>
+        <v>1501</v>
       </c>
       <c r="C725" s="2" t="s">
         <v>193</v>
@@ -17136,10 +17224,10 @@
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="s">
-        <v>1473</v>
+        <v>1502</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1474</v>
+        <v>1503</v>
       </c>
       <c r="C726" s="2" t="s">
         <v>193</v>
@@ -17148,34 +17236,34 @@
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="s">
-        <v>1475</v>
+        <v>1504</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>1476</v>
+        <v>1505</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>1477</v>
+        <v>1506</v>
       </c>
       <c r="D727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="2" t="s">
-        <v>1478</v>
+        <v>1507</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1479</v>
+        <v>1508</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>1480</v>
+        <v>1509</v>
       </c>
       <c r="D728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="2" t="s">
-        <v>1481</v>
+        <v>1510</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>1482</v>
+        <v>1511</v>
       </c>
       <c r="C729" s="2" t="s">
         <v>193</v>
@@ -17184,10 +17272,10 @@
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="s">
-        <v>1483</v>
+        <v>1512</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>1484</v>
+        <v>1513</v>
       </c>
       <c r="C730" s="2" t="s">
         <v>193</v>
@@ -17196,10 +17284,10 @@
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="2" t="s">
-        <v>1485</v>
+        <v>1514</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>1484</v>
+        <v>1513</v>
       </c>
       <c r="C731" s="2" t="s">
         <v>193</v>
@@ -17208,22 +17296,22 @@
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="2" t="s">
-        <v>1486</v>
+        <v>1515</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>1487</v>
+        <v>1516</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="2" t="s">
-        <v>1488</v>
+        <v>1517</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>1487</v>
+        <v>1516</v>
       </c>
       <c r="C733" s="2" t="s">
         <v>368</v>
@@ -17232,36 +17320,36 @@
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="2" t="s">
-        <v>1489</v>
+        <v>1518</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>1490</v>
+        <v>1519</v>
       </c>
       <c r="C734" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>1491</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="2" t="s">
-        <v>1492</v>
+        <v>1521</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1493</v>
+        <v>1522</v>
       </c>
       <c r="C735" s="2" t="s">
-        <v>834</v>
+        <v>863</v>
       </c>
       <c r="D735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="2" t="s">
-        <v>1494</v>
+        <v>1523</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>1495</v>
+        <v>1524</v>
       </c>
       <c r="C736" s="2" t="s">
         <v>368</v>
@@ -17270,10 +17358,10 @@
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="2" t="s">
-        <v>1496</v>
+        <v>1525</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>1497</v>
+        <v>1526</v>
       </c>
       <c r="C737" s="2" t="s">
         <v>708</v>
@@ -17282,118 +17370,118 @@
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="2" t="s">
-        <v>1498</v>
+        <v>1527</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>1499</v>
+        <v>1528</v>
       </c>
       <c r="C738" s="2" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
       <c r="D738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2" t="s">
-        <v>1500</v>
+        <v>1529</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>1501</v>
+        <v>1530</v>
       </c>
       <c r="C739" s="2" t="s">
-        <v>1502</v>
+        <v>1531</v>
       </c>
       <c r="D739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="2" t="s">
-        <v>1503</v>
+        <v>1532</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>1504</v>
+        <v>1533</v>
       </c>
       <c r="C740" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="s">
-        <v>1505</v>
+        <v>1534</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>1506</v>
+        <v>1535</v>
       </c>
       <c r="C741" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="2" t="s">
-        <v>1507</v>
+        <v>1536</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>1508</v>
+        <v>1537</v>
       </c>
       <c r="C742" s="2" t="s">
-        <v>1509</v>
+        <v>1538</v>
       </c>
       <c r="D742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="2" t="s">
-        <v>1510</v>
+        <v>1539</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>1511</v>
+        <v>1540</v>
       </c>
       <c r="C743" s="2" t="s">
-        <v>1511</v>
+        <v>1540</v>
       </c>
       <c r="D743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="2" t="s">
-        <v>1512</v>
+        <v>1541</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>1513</v>
+        <v>1542</v>
       </c>
       <c r="C744" s="2" t="s">
-        <v>1514</v>
+        <v>1543</v>
       </c>
       <c r="D744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="2" t="s">
-        <v>1515</v>
+        <v>1544</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>1516</v>
+        <v>1545</v>
       </c>
       <c r="C745" s="2" t="s">
-        <v>1517</v>
+        <v>1546</v>
       </c>
       <c r="D745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="2" t="s">
-        <v>1518</v>
+        <v>1547</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>1519</v>
+        <v>1548</v>
       </c>
       <c r="C746" s="2" t="s">
-        <v>1517</v>
+        <v>1546</v>
       </c>
       <c r="D746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="2" t="s">
-        <v>1520</v>
+        <v>1549</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>1436</v>
+        <v>1465</v>
       </c>
       <c r="C747" s="2" t="s">
         <v>526</v>
@@ -17402,22 +17490,22 @@
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="2" t="s">
-        <v>1521</v>
+        <v>1550</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>1522</v>
+        <v>1551</v>
       </c>
       <c r="C748" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="2" t="s">
-        <v>1521</v>
+        <v>1550</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>1522</v>
+        <v>1551</v>
       </c>
       <c r="C749" s="2" t="s">
         <v>296</v>
@@ -17426,10 +17514,10 @@
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="2" t="s">
-        <v>1523</v>
+        <v>1552</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>1524</v>
+        <v>1553</v>
       </c>
       <c r="C750" s="2" t="s">
         <v>526</v>
@@ -17438,10 +17526,10 @@
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="s">
-        <v>1525</v>
+        <v>1554</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>1524</v>
+        <v>1553</v>
       </c>
       <c r="C751" s="2" t="s">
         <v>526</v>
@@ -17450,22 +17538,22 @@
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="2" t="s">
-        <v>1526</v>
+        <v>1555</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1527</v>
+        <v>1556</v>
       </c>
       <c r="C752" s="2" t="s">
-        <v>1118</v>
+        <v>1147</v>
       </c>
       <c r="D752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="2" t="s">
-        <v>1528</v>
+        <v>1557</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>1240</v>
+        <v>1269</v>
       </c>
       <c r="C753" s="2" t="s">
         <v>196</v>
@@ -17474,10 +17562,10 @@
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="s">
-        <v>1529</v>
+        <v>1558</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>1240</v>
+        <v>1269</v>
       </c>
       <c r="C754" s="2" t="s">
         <v>196</v>
@@ -17486,10 +17574,10 @@
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="2" t="s">
-        <v>1530</v>
+        <v>1559</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1240</v>
+        <v>1269</v>
       </c>
       <c r="C755" s="2" t="s">
         <v>196</v>
@@ -17498,10 +17586,10 @@
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="2" t="s">
-        <v>1531</v>
+        <v>1560</v>
       </c>
       <c r="B756" s="2" t="s">
-        <v>1240</v>
+        <v>1269</v>
       </c>
       <c r="C756" s="2" t="s">
         <v>196</v>
@@ -17510,10 +17598,10 @@
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="2" t="s">
-        <v>1532</v>
+        <v>1561</v>
       </c>
       <c r="B757" s="2" t="s">
-        <v>1533</v>
+        <v>1562</v>
       </c>
       <c r="C757" s="2" t="s">
         <v>730</v>
@@ -17522,22 +17610,22 @@
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="2" t="s">
-        <v>1534</v>
+        <v>1563</v>
       </c>
       <c r="B758" s="2" t="s">
-        <v>1535</v>
+        <v>1564</v>
       </c>
       <c r="C758" s="2" t="s">
-        <v>1514</v>
+        <v>1543</v>
       </c>
       <c r="D758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="2" t="s">
-        <v>1536</v>
+        <v>1565</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>1537</v>
+        <v>1566</v>
       </c>
       <c r="C759" s="2" t="s">
         <v>37</v>
@@ -17546,22 +17634,22 @@
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="2" t="s">
-        <v>1538</v>
+        <v>1567</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>1539</v>
+        <v>1568</v>
       </c>
       <c r="C760" s="2" t="s">
-        <v>1540</v>
+        <v>1569</v>
       </c>
       <c r="D760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="2" t="s">
-        <v>1541</v>
+        <v>1570</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>1277</v>
+        <v>1306</v>
       </c>
       <c r="C761" s="2" t="s">
         <v>28</v>
@@ -17570,34 +17658,34 @@
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="s">
-        <v>1542</v>
+        <v>1571</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>1543</v>
+        <v>1572</v>
       </c>
       <c r="C762" s="2" t="s">
-        <v>1544</v>
+        <v>1573</v>
       </c>
       <c r="D762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="2" t="s">
-        <v>1545</v>
+        <v>1574</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="C763" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="2" t="s">
-        <v>1546</v>
+        <v>1575</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="C764" s="2" t="s">
         <v>66</v>
@@ -17606,10 +17694,10 @@
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="2" t="s">
-        <v>1547</v>
+        <v>1576</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>864</v>
+        <v>893</v>
       </c>
       <c r="C765" s="2" t="s">
         <v>66</v>
@@ -17618,19 +17706,19 @@
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="2" t="s">
-        <v>1548</v>
+        <v>1577</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>1549</v>
+        <v>1578</v>
       </c>
       <c r="C766" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="2" t="s">
-        <v>1550</v>
+        <v>1579</v>
       </c>
       <c r="B767" s="2" t="s">
         <v>113</v>
@@ -17642,10 +17730,10 @@
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="2" t="s">
-        <v>1551</v>
+        <v>1580</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>1552</v>
+        <v>1581</v>
       </c>
       <c r="C768" s="2" t="s">
         <v>193</v>
@@ -17654,34 +17742,34 @@
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="2" t="s">
-        <v>1553</v>
+        <v>1582</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>1286</v>
+        <v>1315</v>
       </c>
       <c r="C769" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="2" t="s">
-        <v>1554</v>
+        <v>1583</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>1286</v>
+        <v>1315</v>
       </c>
       <c r="C770" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="2" t="s">
-        <v>1555</v>
+        <v>1584</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>1556</v>
+        <v>1585</v>
       </c>
       <c r="C771" s="2" t="s">
         <v>66</v>
@@ -17690,10 +17778,10 @@
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="2" t="s">
-        <v>1557</v>
+        <v>1586</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="C772" s="2" t="s">
         <v>28</v>
@@ -17702,32 +17790,32 @@
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="2" t="s">
-        <v>1558</v>
+        <v>1587</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>1559</v>
+        <v>1588</v>
       </c>
       <c r="C773" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="2" t="s">
-        <v>1560</v>
+        <v>1589</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>1561</v>
+        <v>1590</v>
       </c>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="2" t="s">
-        <v>1562</v>
+        <v>1591</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>1563</v>
+        <v>1592</v>
       </c>
       <c r="C775" s="2" t="s">
         <v>196</v>
@@ -17739,16 +17827,16 @@
         <v>385</v>
       </c>
       <c r="B776" s="2" t="s">
-        <v>1564</v>
+        <v>1593</v>
       </c>
       <c r="C776" s="2" t="s">
-        <v>961</v>
+        <v>990</v>
       </c>
       <c r="D776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="2" t="s">
-        <v>1565</v>
+        <v>1594</v>
       </c>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -17756,10 +17844,10 @@
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="2" t="s">
-        <v>1566</v>
+        <v>1595</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>1567</v>
+        <v>1596</v>
       </c>
       <c r="C778" s="2" t="s">
         <v>247</v>
@@ -17771,44 +17859,44 @@
         <v>600</v>
       </c>
       <c r="B779" s="2" t="s">
-        <v>1568</v>
+        <v>1597</v>
       </c>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="2" t="s">
-        <v>1569</v>
+        <v>1598</v>
       </c>
       <c r="B780" s="2" t="s">
-        <v>1570</v>
+        <v>1599</v>
       </c>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="2" t="s">
-        <v>1571</v>
+        <v>1600</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>1572</v>
+        <v>1601</v>
       </c>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="2" t="s">
-        <v>1573</v>
+        <v>1602</v>
       </c>
       <c r="B782" s="2" t="s">
-        <v>1574</v>
+        <v>1603</v>
       </c>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="2" t="s">
-        <v>1575</v>
+        <v>1604</v>
       </c>
       <c r="B783" s="2"/>
       <c r="C783" s="2" t="s">
@@ -17818,30 +17906,30 @@
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="2" t="s">
-        <v>1576</v>
+        <v>1605</v>
       </c>
       <c r="B784" s="2" t="s">
-        <v>1577</v>
+        <v>1606</v>
       </c>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="3" t="s">
-        <v>1578</v>
+        <v>1607</v>
       </c>
       <c r="B785" s="2"/>
       <c r="C785" s="2" t="s">
-        <v>1579</v>
+        <v>1608</v>
       </c>
       <c r="D785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="2" t="s">
-        <v>1580</v>
+        <v>1609</v>
       </c>
       <c r="B786" s="2" t="s">
-        <v>1581</v>
+        <v>1610</v>
       </c>
       <c r="C786" s="2" t="s">
         <v>296</v>
@@ -17850,357 +17938,357 @@
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="2" t="s">
-        <v>1582</v>
+        <v>1611</v>
       </c>
       <c r="B787" s="2" t="s">
-        <v>1583</v>
+        <v>1612</v>
       </c>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="2" t="s">
-        <v>1584</v>
+        <v>1613</v>
       </c>
       <c r="B788" s="2"/>
       <c r="C788" s="2" t="s">
-        <v>1585</v>
+        <v>1614</v>
       </c>
       <c r="D788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="2" t="s">
-        <v>1586</v>
+        <v>1615</v>
       </c>
       <c r="B789" s="2"/>
       <c r="C789" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="3" t="s">
-        <v>1588</v>
+        <v>1617</v>
       </c>
       <c r="B790" s="2"/>
       <c r="C790" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="3" t="s">
-        <v>1589</v>
+        <v>1618</v>
       </c>
       <c r="B791" s="2"/>
       <c r="C791" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="s">
-        <v>1590</v>
+        <v>1619</v>
       </c>
       <c r="B792" s="2"/>
       <c r="C792" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="2" t="s">
-        <v>1591</v>
+        <v>1620</v>
       </c>
       <c r="B793" s="2"/>
       <c r="C793" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="3" t="s">
-        <v>1592</v>
+        <v>1621</v>
       </c>
       <c r="B794" s="2"/>
       <c r="C794" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="2" t="s">
-        <v>1593</v>
+        <v>1622</v>
       </c>
       <c r="B795" s="2"/>
       <c r="C795" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="3" t="s">
-        <v>1594</v>
+        <v>1623</v>
       </c>
       <c r="B796" s="2"/>
       <c r="C796" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="2" t="s">
-        <v>1595</v>
+        <v>1624</v>
       </c>
       <c r="B797" s="2"/>
       <c r="C797" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="3" t="s">
-        <v>1596</v>
+        <v>1625</v>
       </c>
       <c r="B798" s="2"/>
       <c r="C798" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="2" t="s">
-        <v>1597</v>
+        <v>1626</v>
       </c>
       <c r="B799" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C799" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="2" t="s">
-        <v>1599</v>
+        <v>1628</v>
       </c>
       <c r="B800" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C800" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="2" t="s">
-        <v>1600</v>
+        <v>1629</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C801" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="2" t="s">
-        <v>1601</v>
+        <v>1630</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C802" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="2" t="s">
-        <v>1602</v>
+        <v>1631</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C803" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="2" t="s">
-        <v>1603</v>
+        <v>1632</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C804" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="2" t="s">
-        <v>1604</v>
+        <v>1633</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C805" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="2" t="s">
-        <v>1605</v>
+        <v>1634</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C806" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="2" t="s">
-        <v>1606</v>
+        <v>1635</v>
       </c>
       <c r="B807" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C807" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="2" t="s">
-        <v>1607</v>
+        <v>1636</v>
       </c>
       <c r="B808" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C808" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="2" t="s">
-        <v>1608</v>
+        <v>1637</v>
       </c>
       <c r="B809" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C809" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="2" t="s">
-        <v>1609</v>
+        <v>1638</v>
       </c>
       <c r="B810" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C810" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="2" t="s">
-        <v>1610</v>
+        <v>1639</v>
       </c>
       <c r="B811" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C811" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="2" t="s">
-        <v>1611</v>
+        <v>1640</v>
       </c>
       <c r="B812" s="2" t="s">
-        <v>1598</v>
+        <v>1627</v>
       </c>
       <c r="C812" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="2" t="s">
-        <v>1612</v>
+        <v>1641</v>
       </c>
       <c r="B813" s="2" t="s">
-        <v>1613</v>
+        <v>1642</v>
       </c>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="2" t="s">
-        <v>1614</v>
+        <v>1643</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>1613</v>
+        <v>1642</v>
       </c>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="2" t="s">
-        <v>1615</v>
+        <v>1644</v>
       </c>
       <c r="B815" s="2" t="s">
-        <v>1613</v>
+        <v>1642</v>
       </c>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="2" t="s">
-        <v>1616</v>
+        <v>1645</v>
       </c>
       <c r="B816" s="2" t="s">
-        <v>1572</v>
+        <v>1601</v>
       </c>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="2" t="s">
-        <v>1617</v>
+        <v>1646</v>
       </c>
       <c r="B817" s="2" t="s">
-        <v>1618</v>
+        <v>1647</v>
       </c>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="2" t="s">
-        <v>1619</v>
+        <v>1648</v>
       </c>
       <c r="B818" s="2" t="s">
-        <v>1620</v>
+        <v>1649</v>
       </c>
       <c r="C818" s="2" t="s">
-        <v>1621</v>
+        <v>1650</v>
       </c>
       <c r="D818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="2" t="s">
-        <v>1622</v>
+        <v>1651</v>
       </c>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -18208,7 +18296,7 @@
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="3" t="s">
-        <v>1623</v>
+        <v>1652</v>
       </c>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -18216,51 +18304,51 @@
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="2" t="s">
-        <v>1624</v>
+        <v>1653</v>
       </c>
       <c r="B821" s="2"/>
       <c r="C821" s="2" t="s">
-        <v>1587</v>
+        <v>1616</v>
       </c>
       <c r="D821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2" t="s">
-        <v>1625</v>
+        <v>1654</v>
       </c>
       <c r="B822" s="2"/>
       <c r="C822" s="2" t="s">
-        <v>1626</v>
+        <v>1655</v>
       </c>
       <c r="D822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="2" t="s">
-        <v>1627</v>
+        <v>1656</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>1628</v>
+        <v>1657</v>
       </c>
       <c r="C823" s="2" t="s">
-        <v>1629</v>
+        <v>1658</v>
       </c>
       <c r="D823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="2" t="s">
-        <v>1630</v>
+        <v>1659</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>1631</v>
+        <v>1660</v>
       </c>
       <c r="C824" s="2" t="s">
-        <v>1629</v>
+        <v>1658</v>
       </c>
       <c r="D824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="3" t="s">
-        <v>1632</v>
+        <v>1661</v>
       </c>
       <c r="B825" s="2"/>
       <c r="C825" s="2" t="s">
@@ -18270,7 +18358,7 @@
     </row>
     <row r="826" customFormat="false" ht="26.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="3" t="s">
-        <v>1633</v>
+        <v>1662</v>
       </c>
       <c r="B826" s="2"/>
       <c r="C826" s="2" t="s">
@@ -18280,7 +18368,7 @@
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="2" t="s">
-        <v>1634</v>
+        <v>1663</v>
       </c>
       <c r="B827" s="2"/>
       <c r="C827" s="2" t="s">
@@ -18290,172 +18378,172 @@
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="2" t="s">
-        <v>1635</v>
+        <v>1664</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>1636</v>
+        <v>1665</v>
       </c>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="2" t="s">
-        <v>1637</v>
+        <v>1666</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>1102</v>
+        <v>1131</v>
       </c>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="2" t="s">
-        <v>1157</v>
+        <v>1186</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>1102</v>
+        <v>1131</v>
       </c>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="2" t="s">
-        <v>1638</v>
+        <v>1667</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>1639</v>
+        <v>1668</v>
       </c>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="2" t="s">
-        <v>1640</v>
+        <v>1669</v>
       </c>
       <c r="B832" s="2" t="s">
-        <v>1641</v>
+        <v>1670</v>
       </c>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="2" t="s">
-        <v>1642</v>
+        <v>1671</v>
       </c>
       <c r="B833" s="2" t="s">
-        <v>1643</v>
+        <v>1672</v>
       </c>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="2" t="s">
-        <v>1644</v>
+        <v>1673</v>
       </c>
       <c r="B834" s="2" t="s">
-        <v>1645</v>
+        <v>1674</v>
       </c>
       <c r="C834" s="2" t="s">
-        <v>1646</v>
+        <v>1675</v>
       </c>
       <c r="D834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="2" t="s">
-        <v>1647</v>
+        <v>1676</v>
       </c>
       <c r="B835" s="2"/>
       <c r="C835" s="2" t="s">
-        <v>1648</v>
+        <v>1677</v>
       </c>
       <c r="D835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="2" t="s">
-        <v>1649</v>
+        <v>1678</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>1650</v>
+        <v>1679</v>
       </c>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="2" t="s">
-        <v>1651</v>
+        <v>1680</v>
       </c>
       <c r="B837" s="2"/>
       <c r="C837" s="2" t="s">
-        <v>1652</v>
+        <v>1681</v>
       </c>
       <c r="D837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="2" t="s">
-        <v>1653</v>
+        <v>1682</v>
       </c>
       <c r="B838" s="2" t="s">
-        <v>1654</v>
+        <v>1683</v>
       </c>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="2" t="s">
-        <v>1655</v>
+        <v>1684</v>
       </c>
       <c r="B839" s="2" t="s">
-        <v>1656</v>
+        <v>1685</v>
       </c>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="2" t="s">
-        <v>1657</v>
+        <v>1686</v>
       </c>
       <c r="B840" s="2" t="s">
-        <v>1658</v>
+        <v>1687</v>
       </c>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="2" t="s">
-        <v>1659</v>
+        <v>1688</v>
       </c>
       <c r="B841" s="2" t="s">
-        <v>1660</v>
+        <v>1689</v>
       </c>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="2" t="s">
-        <v>1661</v>
+        <v>1690</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>1662</v>
+        <v>1691</v>
       </c>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="2" t="s">
-        <v>1663</v>
+        <v>1692</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>1664</v>
+        <v>1693</v>
       </c>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="3" t="s">
-        <v>1665</v>
+        <v>1694</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>1666</v>
+        <v>1695</v>
       </c>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -18463,7 +18551,7 @@
         <v>75</v>
       </c>
       <c r="F844" s="0" t="s">
-        <v>1667</v>
+        <v>1696</v>
       </c>
       <c r="G844" s="0" t="s">
         <v>12</v>
@@ -18471,10 +18559,10 @@
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="2" t="s">
-        <v>1668</v>
+        <v>1697</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>1669</v>
+        <v>1698</v>
       </c>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -18482,7 +18570,7 @@
         <v>75</v>
       </c>
       <c r="F845" s="0" t="s">
-        <v>1670</v>
+        <v>1699</v>
       </c>
       <c r="G845" s="0" t="s">
         <v>12</v>
@@ -18490,18 +18578,18 @@
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="2" t="s">
-        <v>1671</v>
+        <v>1700</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>1672</v>
+        <v>1701</v>
       </c>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
       <c r="E846" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F846" s="9" t="s">
-        <v>1673</v>
+      <c r="F846" s="10" t="s">
+        <v>1702</v>
       </c>
       <c r="G846" s="0" t="s">
         <v>12</v>
@@ -18509,18 +18597,18 @@
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="2" t="s">
-        <v>1674</v>
+        <v>1703</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>1675</v>
+        <v>1704</v>
       </c>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
       <c r="E847" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F847" s="10" t="s">
-        <v>1677</v>
+        <v>1705</v>
+      </c>
+      <c r="F847" s="11" t="s">
+        <v>1706</v>
       </c>
       <c r="G847" s="0" t="s">
         <v>12</v>
@@ -18528,10 +18616,10 @@
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="2" t="s">
-        <v>1678</v>
+        <v>1707</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>1199</v>
+        <v>1228</v>
       </c>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -18539,7 +18627,7 @@
         <v>75</v>
       </c>
       <c r="F848" s="5" t="s">
-        <v>1679</v>
+        <v>1708</v>
       </c>
       <c r="G848" s="0" t="s">
         <v>12</v>
@@ -18547,10 +18635,10 @@
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="2" t="s">
-        <v>1680</v>
+        <v>1709</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>1681</v>
+        <v>1710</v>
       </c>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -18558,7 +18646,7 @@
         <v>58</v>
       </c>
       <c r="F849" s="0" t="s">
-        <v>1682</v>
+        <v>1711</v>
       </c>
       <c r="G849" s="0" t="s">
         <v>12</v>
@@ -18566,10 +18654,10 @@
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="3" t="s">
-        <v>1683</v>
+        <v>1712</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>1684</v>
+        <v>1713</v>
       </c>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -18577,7 +18665,7 @@
         <v>58</v>
       </c>
       <c r="F850" s="0" t="s">
-        <v>1685</v>
+        <v>1714</v>
       </c>
       <c r="G850" s="0" t="s">
         <v>12</v>
@@ -18585,10 +18673,10 @@
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="2" t="s">
-        <v>1686</v>
+        <v>1715</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>1687</v>
+        <v>1716</v>
       </c>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -18596,7 +18684,7 @@
         <v>75</v>
       </c>
       <c r="F851" s="0" t="s">
-        <v>1688</v>
+        <v>1717</v>
       </c>
       <c r="G851" s="0" t="s">
         <v>12</v>
@@ -18604,7 +18692,7 @@
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="2" t="s">
-        <v>1689</v>
+        <v>1718</v>
       </c>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -18618,7 +18706,7 @@
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="2" t="s">
-        <v>1690</v>
+        <v>1719</v>
       </c>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -18626,8 +18714,8 @@
       <c r="E853" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F853" s="9" t="s">
-        <v>1691</v>
+      <c r="F853" s="10" t="s">
+        <v>1720</v>
       </c>
       <c r="G853" s="0" t="s">
         <v>12</v>
@@ -18635,7 +18723,7 @@
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="2" t="s">
-        <v>1692</v>
+        <v>1721</v>
       </c>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -18643,8 +18731,8 @@
       <c r="E854" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F854" s="11" t="s">
-        <v>1693</v>
+      <c r="F854" s="12" t="s">
+        <v>1722</v>
       </c>
       <c r="G854" s="0" t="s">
         <v>12</v>
@@ -18652,7 +18740,7 @@
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="2" t="s">
-        <v>1694</v>
+        <v>1723</v>
       </c>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -18661,7 +18749,7 @@
         <v>124</v>
       </c>
       <c r="F855" s="5" t="s">
-        <v>1695</v>
+        <v>1724</v>
       </c>
       <c r="G855" s="0" t="s">
         <v>12</v>
@@ -18669,7 +18757,7 @@
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="2" t="s">
-        <v>1696</v>
+        <v>1725</v>
       </c>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -18678,7 +18766,7 @@
         <v>124</v>
       </c>
       <c r="F856" s="0" t="s">
-        <v>1697</v>
+        <v>1726</v>
       </c>
       <c r="G856" s="0" t="s">
         <v>12</v>
@@ -18686,20 +18774,20 @@
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="2" t="s">
-        <v>1698</v>
+        <v>1727</v>
       </c>
       <c r="B857" s="2" t="s">
-        <v>1699</v>
+        <v>1728</v>
       </c>
       <c r="C857" s="2" t="s">
-        <v>1700</v>
+        <v>1729</v>
       </c>
       <c r="D857" s="2"/>
       <c r="E857" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F857" s="0" t="s">
-        <v>1701</v>
+        <v>1730</v>
       </c>
       <c r="G857" s="0" t="s">
         <v>12</v>
@@ -18707,10 +18795,10 @@
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="2" t="s">
-        <v>1702</v>
+        <v>1731</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>1703</v>
+        <v>1732</v>
       </c>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -18718,7 +18806,7 @@
         <v>58</v>
       </c>
       <c r="F858" s="0" t="s">
-        <v>1704</v>
+        <v>1733</v>
       </c>
       <c r="G858" s="0" t="s">
         <v>12</v>
@@ -18726,10 +18814,10 @@
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="2" t="s">
-        <v>1705</v>
+        <v>1734</v>
       </c>
       <c r="B859" s="2" t="s">
-        <v>1706</v>
+        <v>1735</v>
       </c>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -18737,7 +18825,7 @@
         <v>58</v>
       </c>
       <c r="F859" s="0" t="s">
-        <v>1707</v>
+        <v>1736</v>
       </c>
       <c r="G859" s="0" t="s">
         <v>12</v>
@@ -18745,18 +18833,18 @@
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="2" t="s">
-        <v>1708</v>
+        <v>1737</v>
       </c>
       <c r="B860" s="2" t="s">
-        <v>1709</v>
+        <v>1738</v>
       </c>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
       <c r="E860" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F860" s="10" t="s">
-        <v>1710</v>
+        <v>1705</v>
+      </c>
+      <c r="F860" s="11" t="s">
+        <v>1739</v>
       </c>
       <c r="G860" s="0" t="s">
         <v>12</v>
@@ -18764,11 +18852,11 @@
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="2" t="s">
-        <v>1711</v>
+        <v>1740</v>
       </c>
       <c r="B861" s="2"/>
       <c r="C861" s="2" t="s">
-        <v>1712</v>
+        <v>1741</v>
       </c>
       <c r="D861" s="2" t="s">
         <v>142</v>
@@ -18782,10 +18870,10 @@
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="2" t="s">
-        <v>1713</v>
+        <v>1742</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>1714</v>
+        <v>1743</v>
       </c>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -18793,7 +18881,7 @@
         <v>75</v>
       </c>
       <c r="F862" s="5" t="s">
-        <v>1715</v>
+        <v>1744</v>
       </c>
       <c r="G862" s="0" t="s">
         <v>12</v>
@@ -18801,10 +18889,10 @@
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2" t="s">
-        <v>1716</v>
+        <v>1745</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>1717</v>
+        <v>1746</v>
       </c>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -18812,7 +18900,7 @@
         <v>75</v>
       </c>
       <c r="F863" s="0" t="s">
-        <v>1718</v>
+        <v>1747</v>
       </c>
       <c r="G863" s="0" t="s">
         <v>12</v>
@@ -18820,10 +18908,10 @@
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="2" t="s">
-        <v>1719</v>
+        <v>1748</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>1720</v>
+        <v>1749</v>
       </c>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -18831,7 +18919,7 @@
         <v>710</v>
       </c>
       <c r="F864" s="0" t="s">
-        <v>1721</v>
+        <v>1750</v>
       </c>
       <c r="G864" s="0" t="s">
         <v>12</v>
@@ -18839,10 +18927,10 @@
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="2" t="s">
-        <v>1722</v>
+        <v>1751</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>1723</v>
+        <v>1752</v>
       </c>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -18850,7 +18938,7 @@
         <v>75</v>
       </c>
       <c r="F865" s="5" t="s">
-        <v>1724</v>
+        <v>1753</v>
       </c>
       <c r="G865" s="0" t="s">
         <v>12</v>
@@ -18858,20 +18946,20 @@
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="2" t="s">
-        <v>1725</v>
+        <v>1754</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>1726</v>
+        <v>1755</v>
       </c>
       <c r="C866" s="2" t="s">
-        <v>1727</v>
+        <v>1756</v>
       </c>
       <c r="D866" s="2"/>
       <c r="E866" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F866" s="0" t="s">
-        <v>1728</v>
+        <v>1757</v>
       </c>
       <c r="G866" s="0" t="s">
         <v>12</v>
@@ -18879,10 +18967,10 @@
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="2" t="s">
-        <v>1729</v>
+        <v>1758</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>1730</v>
+        <v>1759</v>
       </c>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -18890,7 +18978,7 @@
         <v>75</v>
       </c>
       <c r="F867" s="5" t="s">
-        <v>1731</v>
+        <v>1760</v>
       </c>
       <c r="G867" s="0" t="s">
         <v>12</v>
@@ -18898,18 +18986,18 @@
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="s">
-        <v>1732</v>
+        <v>1761</v>
       </c>
       <c r="B868" s="2"/>
       <c r="C868" s="2" t="s">
-        <v>1733</v>
+        <v>1762</v>
       </c>
       <c r="D868" s="2"/>
       <c r="E868" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F868" s="0" t="s">
-        <v>1734</v>
+        <v>1763</v>
       </c>
       <c r="G868" s="0" t="s">
         <v>12</v>
@@ -18917,18 +19005,18 @@
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="3" t="s">
-        <v>1735</v>
+        <v>1764</v>
       </c>
       <c r="B869" s="2"/>
       <c r="C869" s="2" t="s">
-        <v>1736</v>
+        <v>1765</v>
       </c>
       <c r="D869" s="2"/>
       <c r="E869" s="1" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
       <c r="F869" s="0" t="s">
-        <v>1738</v>
+        <v>1767</v>
       </c>
       <c r="G869" s="0" t="s">
         <v>12</v>
@@ -18936,10 +19024,10 @@
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="2" t="s">
-        <v>1739</v>
+        <v>1768</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1740</v>
+        <v>1769</v>
       </c>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -18947,7 +19035,7 @@
         <v>124</v>
       </c>
       <c r="F870" s="5" t="s">
-        <v>1741</v>
+        <v>1770</v>
       </c>
       <c r="G870" s="0" t="s">
         <v>12</v>
@@ -18955,18 +19043,18 @@
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="2" t="s">
-        <v>1742</v>
+        <v>1771</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1743</v>
+        <v>1772</v>
       </c>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
       <c r="E871" s="1" t="s">
-        <v>1676</v>
+        <v>1705</v>
       </c>
       <c r="F871" s="0" t="s">
-        <v>1744</v>
+        <v>1773</v>
       </c>
       <c r="G871" s="0" t="s">
         <v>12</v>
@@ -18974,7 +19062,7 @@
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="2" t="s">
-        <v>1745</v>
+        <v>1774</v>
       </c>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -18982,8 +19070,8 @@
       <c r="E872" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F872" s="9" t="s">
-        <v>1746</v>
+      <c r="F872" s="10" t="s">
+        <v>1775</v>
       </c>
       <c r="G872" s="0" t="s">
         <v>12</v>
@@ -18991,7 +19079,7 @@
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2" t="s">
-        <v>1747</v>
+        <v>1776</v>
       </c>
       <c r="B873" s="2"/>
       <c r="C873" s="2" t="s">
@@ -19007,20 +19095,20 @@
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="2" t="s">
-        <v>1748</v>
+        <v>1777</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1749</v>
+        <v>1778</v>
       </c>
       <c r="C874" s="2" t="s">
-        <v>961</v>
+        <v>990</v>
       </c>
       <c r="D874" s="2"/>
       <c r="E874" s="1" t="s">
-        <v>1750</v>
+        <v>1779</v>
       </c>
       <c r="F874" s="5" t="s">
-        <v>1751</v>
+        <v>1780</v>
       </c>
       <c r="G874" s="0" t="s">
         <v>12</v>
@@ -19028,10 +19116,10 @@
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="2" t="s">
-        <v>1752</v>
+        <v>1781</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1753</v>
+        <v>1782</v>
       </c>
       <c r="C875" s="2" t="s">
         <v>368</v>
@@ -19041,7 +19129,7 @@
         <v>10</v>
       </c>
       <c r="F875" s="5" t="s">
-        <v>1754</v>
+        <v>1783</v>
       </c>
       <c r="G875" s="0" t="s">
         <v>12</v>
@@ -19049,20 +19137,20 @@
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="2" t="s">
-        <v>1755</v>
+        <v>1784</v>
       </c>
       <c r="B876" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C876" s="2" t="s">
-        <v>1756</v>
+        <v>1785</v>
       </c>
       <c r="D876" s="2"/>
       <c r="E876" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F876" s="5" t="s">
-        <v>1757</v>
+        <v>1786</v>
       </c>
       <c r="G876" s="0" t="s">
         <v>12</v>
@@ -19070,20 +19158,20 @@
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2" t="s">
-        <v>1758</v>
+        <v>1787</v>
       </c>
       <c r="B877" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C877" s="2" t="s">
-        <v>1759</v>
+        <v>1788</v>
       </c>
       <c r="D877" s="2"/>
       <c r="E877" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F877" s="5" t="s">
-        <v>1760</v>
+        <v>1789</v>
       </c>
       <c r="G877" s="0" t="s">
         <v>12</v>
@@ -19091,20 +19179,20 @@
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="2" t="s">
-        <v>1761</v>
+        <v>1790</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>1762</v>
+        <v>1791</v>
       </c>
       <c r="C878" s="2" t="s">
-        <v>1763</v>
+        <v>1792</v>
       </c>
       <c r="D878" s="2"/>
       <c r="E878" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F878" s="10" t="s">
-        <v>1764</v>
+      <c r="F878" s="11" t="s">
+        <v>1793</v>
       </c>
       <c r="G878" s="0" t="s">
         <v>12</v>
@@ -19112,20 +19200,20 @@
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="2" t="s">
-        <v>1765</v>
+        <v>1794</v>
       </c>
       <c r="B879" s="2" t="s">
         <v>437</v>
       </c>
       <c r="C879" s="2" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D879" s="2"/>
       <c r="E879" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F879" s="5" t="s">
-        <v>1766</v>
+        <v>1795</v>
       </c>
       <c r="G879" s="0" t="s">
         <v>12</v>
@@ -19133,20 +19221,20 @@
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="2" t="s">
-        <v>1767</v>
+        <v>1796</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>1768</v>
+        <v>1797</v>
       </c>
       <c r="C880" s="2" t="s">
-        <v>1769</v>
+        <v>1798</v>
       </c>
       <c r="D880" s="2"/>
       <c r="E880" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F880" s="5" t="s">
-        <v>1770</v>
+        <v>1799</v>
       </c>
       <c r="G880" s="0" t="s">
         <v>12</v>
@@ -19154,20 +19242,20 @@
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="2" t="s">
-        <v>1771</v>
+        <v>1800</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>1772</v>
+        <v>1801</v>
       </c>
       <c r="C881" s="2" t="s">
-        <v>1773</v>
+        <v>1802</v>
       </c>
       <c r="D881" s="2"/>
       <c r="E881" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F881" s="5" t="s">
-        <v>1774</v>
+        <v>1803</v>
       </c>
       <c r="G881" s="0" t="s">
         <v>12</v>
@@ -19175,10 +19263,10 @@
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2" t="s">
-        <v>1775</v>
+        <v>1804</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>1776</v>
+        <v>1805</v>
       </c>
       <c r="C882" s="2" t="s">
         <v>49</v>
@@ -19188,7 +19276,7 @@
         <v>710</v>
       </c>
       <c r="F882" s="5" t="s">
-        <v>1777</v>
+        <v>1806</v>
       </c>
       <c r="G882" s="0" t="s">
         <v>12</v>
@@ -19196,20 +19284,20 @@
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="2" t="s">
-        <v>1778</v>
+        <v>1807</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>1779</v>
+        <v>1808</v>
       </c>
       <c r="C883" s="2" t="s">
-        <v>1780</v>
+        <v>1809</v>
       </c>
       <c r="D883" s="2"/>
       <c r="E883" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F883" s="5" t="s">
-        <v>1781</v>
+        <v>1810</v>
       </c>
       <c r="G883" s="0" t="s">
         <v>12</v>
@@ -19217,20 +19305,20 @@
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="2" t="s">
-        <v>1782</v>
+        <v>1811</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>1783</v>
+        <v>1812</v>
       </c>
       <c r="C884" s="2" t="s">
-        <v>1784</v>
+        <v>1813</v>
       </c>
       <c r="D884" s="2"/>
       <c r="E884" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F884" s="5" t="s">
-        <v>1785</v>
+        <v>1814</v>
       </c>
       <c r="G884" s="0" t="s">
         <v>12</v>
@@ -19238,20 +19326,20 @@
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="2" t="s">
-        <v>1786</v>
+        <v>1815</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>1787</v>
+        <v>1816</v>
       </c>
       <c r="C885" s="2" t="s">
-        <v>1788</v>
+        <v>1817</v>
       </c>
       <c r="D885" s="2"/>
       <c r="E885" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F885" s="12" t="s">
-        <v>1789</v>
+      <c r="F885" s="13" t="s">
+        <v>1818</v>
       </c>
       <c r="G885" s="0" t="s">
         <v>12</v>
@@ -19259,20 +19347,20 @@
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="2" t="s">
-        <v>1790</v>
+        <v>1819</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>1791</v>
+        <v>1820</v>
       </c>
       <c r="C886" s="2" t="s">
-        <v>1792</v>
+        <v>1821</v>
       </c>
       <c r="D886" s="2"/>
       <c r="E886" s="1" t="s">
         <v>710</v>
       </c>
       <c r="F886" s="0" t="s">
-        <v>1793</v>
+        <v>1822</v>
       </c>
       <c r="G886" s="0" t="s">
         <v>12</v>
@@ -19280,20 +19368,20 @@
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="2" t="s">
-        <v>1794</v>
+        <v>1823</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>1795</v>
+        <v>1824</v>
       </c>
       <c r="C887" s="2" t="s">
-        <v>1788</v>
+        <v>1817</v>
       </c>
       <c r="D887" s="2"/>
       <c r="E887" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F887" s="5" t="s">
-        <v>1796</v>
+        <v>1825</v>
       </c>
       <c r="G887" s="0" t="s">
         <v>12</v>
@@ -19301,18 +19389,18 @@
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="2" t="s">
-        <v>1797</v>
+        <v>1826</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>1798</v>
+        <v>1827</v>
       </c>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
       <c r="E888" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F888" s="9" t="s">
-        <v>1799</v>
+      <c r="F888" s="10" t="s">
+        <v>1828</v>
       </c>
       <c r="G888" s="0" t="s">
         <v>12</v>
@@ -19320,18 +19408,18 @@
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="2" t="s">
-        <v>1800</v>
+        <v>1829</v>
       </c>
       <c r="B889" s="2"/>
       <c r="C889" s="2" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="D889" s="2"/>
       <c r="E889" s="1" t="s">
-        <v>1676</v>
+        <v>1705</v>
       </c>
       <c r="F889" s="0" t="s">
-        <v>1802</v>
+        <v>1831</v>
       </c>
       <c r="G889" s="0" t="s">
         <v>12</v>
@@ -19339,18 +19427,18 @@
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="2" t="s">
-        <v>1803</v>
+        <v>1832</v>
       </c>
       <c r="B890" s="2"/>
       <c r="C890" s="2" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="D890" s="2"/>
       <c r="E890" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F890" s="11" t="s">
-        <v>1804</v>
+        <v>1705</v>
+      </c>
+      <c r="F890" s="12" t="s">
+        <v>1833</v>
       </c>
       <c r="G890" s="0" t="s">
         <v>12</v>
@@ -19358,18 +19446,18 @@
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="2" t="s">
-        <v>1805</v>
+        <v>1834</v>
       </c>
       <c r="B891" s="2"/>
       <c r="C891" s="2" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="D891" s="2"/>
       <c r="E891" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F891" s="11" t="s">
-        <v>1806</v>
+        <v>1705</v>
+      </c>
+      <c r="F891" s="12" t="s">
+        <v>1835</v>
       </c>
       <c r="G891" s="0" t="s">
         <v>12</v>
@@ -19377,18 +19465,18 @@
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="2" t="s">
-        <v>1807</v>
+        <v>1836</v>
       </c>
       <c r="B892" s="2"/>
       <c r="C892" s="2" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="D892" s="2"/>
       <c r="E892" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F892" s="11" t="s">
-        <v>1808</v>
+        <v>1705</v>
+      </c>
+      <c r="F892" s="12" t="s">
+        <v>1837</v>
       </c>
       <c r="G892" s="0" t="s">
         <v>12</v>
@@ -19396,18 +19484,18 @@
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2" t="s">
-        <v>1809</v>
+        <v>1838</v>
       </c>
       <c r="B893" s="2"/>
       <c r="C893" s="2" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="D893" s="2"/>
       <c r="E893" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F893" s="11" t="s">
-        <v>1810</v>
+        <v>1705</v>
+      </c>
+      <c r="F893" s="12" t="s">
+        <v>1839</v>
       </c>
       <c r="G893" s="0" t="s">
         <v>12</v>
@@ -19415,18 +19503,18 @@
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="2" t="s">
-        <v>1811</v>
+        <v>1840</v>
       </c>
       <c r="B894" s="2"/>
       <c r="C894" s="2" t="s">
-        <v>1801</v>
+        <v>1830</v>
       </c>
       <c r="D894" s="2"/>
       <c r="E894" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F894" s="11" t="s">
-        <v>1812</v>
+        <v>1705</v>
+      </c>
+      <c r="F894" s="12" t="s">
+        <v>1841</v>
       </c>
       <c r="G894" s="0" t="s">
         <v>12</v>
@@ -19434,18 +19522,18 @@
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="2" t="s">
-        <v>1813</v>
+        <v>1842</v>
       </c>
       <c r="B895" s="2"/>
       <c r="C895" s="2" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="D895" s="2"/>
       <c r="E895" s="1" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
       <c r="F895" s="5" t="s">
-        <v>1815</v>
+        <v>1844</v>
       </c>
       <c r="G895" s="0" t="s">
         <v>12</v>
@@ -19453,18 +19541,18 @@
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="2" t="s">
-        <v>1816</v>
+        <v>1845</v>
       </c>
       <c r="B896" s="2"/>
       <c r="C896" s="2" t="s">
-        <v>1814</v>
+        <v>1843</v>
       </c>
       <c r="D896" s="2"/>
       <c r="E896" s="1" t="s">
-        <v>1737</v>
+        <v>1766</v>
       </c>
       <c r="F896" s="5" t="s">
-        <v>1817</v>
+        <v>1846</v>
       </c>
       <c r="G896" s="0" t="s">
         <v>12</v>
@@ -19472,20 +19560,20 @@
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="2" t="s">
-        <v>1818</v>
+        <v>1847</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1819</v>
+        <v>1848</v>
       </c>
       <c r="C897" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D897" s="2"/>
       <c r="E897" s="1" t="s">
-        <v>1676</v>
+        <v>1705</v>
       </c>
       <c r="F897" s="5" t="s">
-        <v>1820</v>
+        <v>1849</v>
       </c>
       <c r="G897" s="0" t="s">
         <v>12</v>
@@ -19493,20 +19581,20 @@
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="2" t="s">
-        <v>1821</v>
+        <v>1850</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1822</v>
+        <v>1851</v>
       </c>
       <c r="C898" s="2" t="s">
-        <v>1823</v>
+        <v>1852</v>
       </c>
       <c r="D898" s="2"/>
       <c r="E898" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F898" s="5" t="s">
-        <v>1824</v>
+        <v>1853</v>
       </c>
       <c r="G898" s="0" t="s">
         <v>12</v>
@@ -19514,20 +19602,20 @@
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="2" t="s">
-        <v>1825</v>
+        <v>1854</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1826</v>
+        <v>1855</v>
       </c>
       <c r="C899" s="2" t="s">
-        <v>1827</v>
+        <v>1856</v>
       </c>
       <c r="D899" s="2"/>
       <c r="E899" s="1" t="s">
-        <v>1676</v>
+        <v>1705</v>
       </c>
       <c r="F899" s="5" t="s">
-        <v>1828</v>
+        <v>1857</v>
       </c>
       <c r="G899" s="0" t="s">
         <v>12</v>
@@ -19535,20 +19623,20 @@
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="2" t="s">
-        <v>1829</v>
+        <v>1858</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1830</v>
+        <v>1859</v>
       </c>
       <c r="C900" s="2" t="s">
-        <v>1831</v>
+        <v>1860</v>
       </c>
       <c r="D900" s="2"/>
       <c r="E900" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F900" s="0" t="s">
-        <v>1832</v>
+        <v>1861</v>
       </c>
       <c r="G900" s="0" t="s">
         <v>12</v>
@@ -19556,20 +19644,20 @@
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2" t="s">
-        <v>1833</v>
+        <v>1862</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1834</v>
+        <v>1863</v>
       </c>
       <c r="C901" s="2" t="s">
-        <v>1835</v>
+        <v>1864</v>
       </c>
       <c r="D901" s="2"/>
       <c r="E901" s="1" t="s">
-        <v>1836</v>
+        <v>789</v>
       </c>
       <c r="F901" s="5" t="s">
-        <v>1837</v>
+        <v>1865</v>
       </c>
       <c r="G901" s="0" t="s">
         <v>12</v>
@@ -19577,20 +19665,20 @@
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2" t="s">
-        <v>1838</v>
+        <v>1866</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1839</v>
+        <v>1867</v>
       </c>
       <c r="C902" s="2" t="s">
-        <v>1840</v>
+        <v>1868</v>
       </c>
       <c r="D902" s="2"/>
       <c r="E902" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F902" s="0" t="s">
-        <v>1841</v>
+        <v>1869</v>
       </c>
       <c r="G902" s="0" t="s">
         <v>12</v>
@@ -19598,10 +19686,10 @@
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2" t="s">
-        <v>1842</v>
+        <v>1870</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1843</v>
+        <v>1871</v>
       </c>
       <c r="C903" s="2" t="s">
         <v>28</v>
@@ -19611,7 +19699,7 @@
         <v>10</v>
       </c>
       <c r="F903" s="5" t="s">
-        <v>1844</v>
+        <v>1872</v>
       </c>
       <c r="G903" s="0" t="s">
         <v>12</v>
@@ -19619,20 +19707,20 @@
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="2" t="s">
-        <v>1845</v>
+        <v>1873</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1846</v>
+        <v>1874</v>
       </c>
       <c r="C904" s="2" t="s">
-        <v>1847</v>
+        <v>1875</v>
       </c>
       <c r="D904" s="2"/>
       <c r="E904" s="1" t="s">
         <v>710</v>
       </c>
       <c r="F904" s="5" t="s">
-        <v>1848</v>
+        <v>1876</v>
       </c>
       <c r="G904" s="0" t="s">
         <v>12</v>
@@ -19640,20 +19728,20 @@
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="2" t="s">
-        <v>1849</v>
+        <v>1877</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1850</v>
+        <v>1878</v>
       </c>
       <c r="C905" s="2" t="s">
-        <v>1851</v>
+        <v>1879</v>
       </c>
       <c r="D905" s="2"/>
       <c r="E905" s="1" t="s">
-        <v>1852</v>
+        <v>1880</v>
       </c>
       <c r="F905" s="5" t="s">
-        <v>1853</v>
+        <v>1881</v>
       </c>
       <c r="G905" s="0" t="s">
         <v>12</v>
@@ -19661,20 +19749,20 @@
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="2" t="s">
-        <v>1854</v>
+        <v>1882</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1855</v>
+        <v>1883</v>
       </c>
       <c r="C906" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D906" s="2"/>
       <c r="E906" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="F906" s="13" t="s">
-        <v>1856</v>
+        <v>1705</v>
+      </c>
+      <c r="F906" s="14" t="s">
+        <v>1884</v>
       </c>
       <c r="G906" s="0" t="s">
         <v>12</v>
@@ -19682,10 +19770,10 @@
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="2" t="s">
-        <v>1857</v>
+        <v>1885</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1858</v>
+        <v>1886</v>
       </c>
       <c r="C907" s="2" t="s">
         <v>296</v>
@@ -19695,7 +19783,7 @@
         <v>10</v>
       </c>
       <c r="F907" s="5" t="s">
-        <v>1859</v>
+        <v>1887</v>
       </c>
       <c r="G907" s="0" t="s">
         <v>12</v>
@@ -19703,10 +19791,10 @@
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="2" t="s">
-        <v>1860</v>
+        <v>1888</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1861</v>
+        <v>1889</v>
       </c>
       <c r="C908" s="2" t="s">
         <v>242</v>
@@ -19716,7 +19804,7 @@
         <v>710</v>
       </c>
       <c r="F908" s="1" t="s">
-        <v>1862</v>
+        <v>1890</v>
       </c>
       <c r="G908" s="0" t="s">
         <v>12</v>
@@ -19724,10 +19812,10 @@
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="2" t="s">
-        <v>1863</v>
+        <v>1891</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1864</v>
+        <v>1892</v>
       </c>
       <c r="C909" s="2" t="s">
         <v>368</v>
@@ -19736,8 +19824,8 @@
       <c r="E909" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F909" s="14" t="s">
-        <v>1865</v>
+      <c r="F909" s="15" t="s">
+        <v>1893</v>
       </c>
       <c r="G909" s="0" t="s">
         <v>12</v>
@@ -19745,10 +19833,10 @@
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="2" t="s">
-        <v>1866</v>
+        <v>1894</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1867</v>
+        <v>1895</v>
       </c>
       <c r="C910" s="2" t="s">
         <v>66</v>
@@ -19757,8 +19845,8 @@
       <c r="E910" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F910" s="14" t="s">
-        <v>1868</v>
+      <c r="F910" s="15" t="s">
+        <v>1896</v>
       </c>
       <c r="G910" s="0" t="s">
         <v>12</v>
@@ -19766,20 +19854,20 @@
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="2" t="s">
-        <v>1869</v>
+        <v>1897</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1870</v>
+        <v>1898</v>
       </c>
       <c r="C911" s="2" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D911" s="2"/>
       <c r="E911" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F911" s="14" t="s">
-        <v>1871</v>
+      <c r="F911" s="15" t="s">
+        <v>1899</v>
       </c>
       <c r="G911" s="0" t="s">
         <v>12</v>
@@ -19787,10 +19875,10 @@
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="2" t="s">
-        <v>1872</v>
+        <v>1900</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1364</v>
+        <v>1393</v>
       </c>
       <c r="C912" s="2" t="s">
         <v>66</v>
@@ -19799,8 +19887,8 @@
       <c r="E912" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F912" s="14" t="s">
-        <v>1873</v>
+      <c r="F912" s="15" t="s">
+        <v>1901</v>
       </c>
       <c r="G912" s="0" t="s">
         <v>12</v>
@@ -19808,20 +19896,20 @@
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="2" t="s">
-        <v>1874</v>
+        <v>1902</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1875</v>
+        <v>1903</v>
       </c>
       <c r="C913" s="2" t="s">
-        <v>1876</v>
+        <v>1904</v>
       </c>
       <c r="D913" s="2"/>
       <c r="E913" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="F913" s="15" t="s">
-        <v>1877</v>
+      <c r="F913" s="16" t="s">
+        <v>1905</v>
       </c>
       <c r="G913" s="0" t="s">
         <v>12</v>
